--- a/Artigo Samylla/Samylla Meso/Samylla Nova/TiO2 Results table _DATASET_FQ (1).xlsx
+++ b/Artigo Samylla/Samylla Meso/Samylla Nova/TiO2 Results table _DATASET_FQ (1).xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\allan\Documents\Samylla Nova\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Projects\R-private\Artigo Samylla\Samylla Meso\Samylla Nova\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5943CB71-F595-49AD-BD43-0ECDFA95A4BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8004" windowHeight="7512" tabRatio="751" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="751" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FQ" sheetId="1" r:id="rId1"/>
@@ -18,24 +19,30 @@
     <sheet name="Planilha2" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DATASETFQ!$A$1:$J$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">DATASETFQ!$A$1:$K$43</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Samylla</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +50,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -52,14 +59,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 4.5 e 6</t>
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +74,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -76,14 +83,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 1,2 e 3</t>
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +98,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -100,14 +107,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 4.5 e 6</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -115,7 +122,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -124,14 +131,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 1,2 e 3</t>
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
       <text>
         <r>
           <rPr>
@@ -139,7 +146,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -148,14 +155,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 4.5 e 6</t>
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000006000000}">
       <text>
         <r>
           <rPr>
@@ -163,7 +170,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -172,14 +179,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 1,2 e 3</t>
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +194,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -196,14 +203,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 4.5 e 6</t>
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
       <text>
         <r>
           <rPr>
@@ -211,7 +218,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -220,14 +227,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 1,2 e 3</t>
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000009000000}">
       <text>
         <r>
           <rPr>
@@ -235,7 +242,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -244,14 +251,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 4.5 e 6</t>
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -259,7 +266,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -268,14 +275,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 1,2 e 3</t>
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -283,7 +290,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -292,14 +299,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 4.5 e 6</t>
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -307,7 +314,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -316,14 +323,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 1,2 e 3</t>
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -331,7 +338,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -340,14 +347,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 4.5 e 6</t>
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -355,7 +362,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -364,14 +371,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 1,2 e 3</t>
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -379,7 +386,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -388,14 +395,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 4.5 e 6</t>
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000010000000}">
       <text>
         <r>
           <rPr>
@@ -403,7 +410,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -412,14 +419,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 1,2 e 3</t>
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0" shapeId="0">
+    <comment ref="R2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000011000000}">
       <text>
         <r>
           <rPr>
@@ -427,7 +434,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -436,14 +443,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 4.5 e 6</t>
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="0" shapeId="0">
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000012000000}">
       <text>
         <r>
           <rPr>
@@ -451,7 +458,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -460,14 +467,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 1,2 e 3</t>
         </r>
       </text>
     </comment>
-    <comment ref="T2" authorId="0" shapeId="0">
+    <comment ref="T2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000013000000}">
       <text>
         <r>
           <rPr>
@@ -475,7 +482,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -484,14 +491,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 4.5 e 6</t>
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="0" shapeId="0">
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000014000000}">
       <text>
         <r>
           <rPr>
@@ -499,7 +506,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -508,14 +515,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 1,2 e 3</t>
         </r>
       </text>
     </comment>
-    <comment ref="V2" authorId="0" shapeId="0">
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000015000000}">
       <text>
         <r>
           <rPr>
@@ -523,7 +530,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -532,14 +539,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 4.5 e 6</t>
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0" shapeId="0">
+    <comment ref="W2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000016000000}">
       <text>
         <r>
           <rPr>
@@ -547,7 +554,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -556,14 +563,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 1,2 e 3</t>
         </r>
       </text>
     </comment>
-    <comment ref="X2" authorId="0" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000017000000}">
       <text>
         <r>
           <rPr>
@@ -571,7 +578,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -580,14 +587,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 4.5 e 6</t>
         </r>
       </text>
     </comment>
-    <comment ref="Y2" authorId="0" shapeId="0">
+    <comment ref="Y2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000018000000}">
       <text>
         <r>
           <rPr>
@@ -595,7 +602,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -604,14 +611,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 1,2 e 3</t>
         </r>
       </text>
     </comment>
-    <comment ref="Z2" authorId="0" shapeId="0">
+    <comment ref="Z2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000019000000}">
       <text>
         <r>
           <rPr>
@@ -619,7 +626,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -628,14 +635,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 4.5 e 6</t>
         </r>
       </text>
     </comment>
-    <comment ref="AA2" authorId="0" shapeId="0">
+    <comment ref="AA2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -643,7 +650,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -652,14 +659,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 1,2 e 3</t>
         </r>
       </text>
     </comment>
-    <comment ref="AB2" authorId="0" shapeId="0">
+    <comment ref="AB2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -667,7 +674,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -676,14 +683,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 4.5 e 6</t>
         </r>
       </text>
     </comment>
-    <comment ref="AC2" authorId="0" shapeId="0">
+    <comment ref="AC2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -691,7 +698,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Samylla:</t>
         </r>
@@ -700,7 +707,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Segoe UI"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Mesocosmo 1,2 e 3</t>
@@ -712,7 +719,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="127">
   <si>
     <t>Controle</t>
   </si>
@@ -1100,34 +1107,67 @@
     <t>Inferior limit</t>
   </si>
   <si>
-    <t>Total Organic Carbon (mg/L)</t>
-  </si>
-  <si>
-    <t>Dissolved Organic Carbon (mg/L)</t>
-  </si>
-  <si>
-    <t>Total Carbon (mg/L)</t>
-  </si>
-  <si>
-    <t>Dissolved Total Carbon (mg/L)</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
-    <t>MESO</t>
-  </si>
-  <si>
     <t xml:space="preserve">72 h </t>
   </si>
   <si>
     <t xml:space="preserve">71 h </t>
   </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>Meso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transparency </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turbidity </t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Conductivity</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>254um</t>
+  </si>
+  <si>
+    <t>Nitrite</t>
+  </si>
+  <si>
+    <t>Nitrate</t>
+  </si>
+  <si>
+    <t>Orthophosphate</t>
+  </si>
+  <si>
+    <t>Sulfate</t>
+  </si>
+  <si>
+    <t>Fluoride</t>
+  </si>
+  <si>
+    <t>Chloride</t>
+  </si>
+  <si>
+    <t>DOC</t>
+  </si>
+  <si>
+    <t>DTC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -1223,14 +1263,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Segoe UI"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1753,11 +1793,8 @@
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1766,6 +1803,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1777,13 +1829,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1795,32 +1850,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2391,7 +2431,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2399,6 +2438,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2958,7 +2998,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -2966,6 +3005,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3533,7 +3573,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3541,6 +3580,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4108,7 +4148,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4116,6 +4155,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4682,7 +4722,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4690,6 +4729,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5256,7 +5296,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5264,6 +5303,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5837,7 +5877,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5845,6 +5884,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6366,7 +6406,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6374,6 +6413,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6910,7 +6950,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6918,6 +6957,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7424,7 +7464,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7432,6 +7471,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7938,7 +7978,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7946,6 +7985,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8544,7 +8584,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8552,6 +8591,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9144,7 +9184,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -9152,6 +9191,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9735,7 +9775,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -9743,6 +9782,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10380,7 +10420,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -10388,6 +10427,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -10950,7 +10990,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -10958,6 +10997,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -11526,7 +11566,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -11534,6 +11573,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12101,7 +12141,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -12109,6 +12148,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -12675,7 +12715,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -12683,6 +12722,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -23058,7 +23098,7 @@
         <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE355D26-6A59-3E42-A183-5AFFFB5244D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23094,7 +23134,7 @@
         <xdr:cNvPr id="8" name="Gráfico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03367226-FCBC-DA4A-AD12-261B29E11B05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23132,7 +23172,7 @@
         <xdr:cNvPr id="9" name="Gráfico 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36759F64-DD08-6D45-9360-807DA3D6A7BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23170,7 +23210,7 @@
         <xdr:cNvPr id="10" name="Gráfico 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF96CEFE-E303-D64A-BBC0-26FE282E6F05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23208,7 +23248,7 @@
         <xdr:cNvPr id="11" name="Gráfico 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C32C134-0BCF-5C4D-9C03-5654397EE884}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23241,7 +23281,7 @@
         <xdr:cNvPr id="12" name="CaixaDeTexto 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80933950-420D-EF45-B1F5-7A6E96FE777C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23299,7 +23339,7 @@
         <xdr:cNvPr id="13" name="CaixaDeTexto 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA545F24-D8D2-B347-AC18-1871D895DF51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23686,7 +23726,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21454934-9E9B-4E61-AF49-2BD1B70919C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23724,7 +23764,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21454934-9E9B-4E61-AF49-2BD1B70919C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23762,7 +23802,7 @@
         <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21454934-9E9B-4E61-AF49-2BD1B70919C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23800,7 +23840,7 @@
         <xdr:cNvPr id="6" name="Gráfico 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21454934-9E9B-4E61-AF49-2BD1B70919C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23838,7 +23878,7 @@
         <xdr:cNvPr id="7" name="Gráfico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21454934-9E9B-4E61-AF49-2BD1B70919C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23876,7 +23916,7 @@
         <xdr:cNvPr id="8" name="Gráfico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21454934-9E9B-4E61-AF49-2BD1B70919C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23914,7 +23954,7 @@
         <xdr:cNvPr id="9" name="Gráfico 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21454934-9E9B-4E61-AF49-2BD1B70919C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23952,7 +23992,7 @@
         <xdr:cNvPr id="10" name="Gráfico 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21454934-9E9B-4E61-AF49-2BD1B70919C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -23990,7 +24030,7 @@
         <xdr:cNvPr id="11" name="Gráfico 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21454934-9E9B-4E61-AF49-2BD1B70919C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24028,7 +24068,7 @@
         <xdr:cNvPr id="12" name="Gráfico 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21454934-9E9B-4E61-AF49-2BD1B70919C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24066,7 +24106,7 @@
         <xdr:cNvPr id="13" name="Gráfico 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21454934-9E9B-4E61-AF49-2BD1B70919C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24104,7 +24144,7 @@
         <xdr:cNvPr id="14" name="Gráfico 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21454934-9E9B-4E61-AF49-2BD1B70919C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24142,7 +24182,7 @@
         <xdr:cNvPr id="15" name="Gráfico 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21454934-9E9B-4E61-AF49-2BD1B70919C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24180,7 +24220,7 @@
         <xdr:cNvPr id="16" name="Gráfico 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21454934-9E9B-4E61-AF49-2BD1B70919C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -24465,7 +24505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR688"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="120" workbookViewId="0">
@@ -24506,50 +24546,50 @@
     <row r="1" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="45"/>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="115"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="115"/>
-      <c r="Q2" s="115"/>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="115"/>
-      <c r="AB2" s="115"/>
-      <c r="AC2" s="115"/>
-      <c r="AD2" s="115"/>
-      <c r="AE2" s="115"/>
-      <c r="AF2" s="115"/>
-      <c r="AG2" s="115"/>
-      <c r="AH2" s="115"/>
-      <c r="AI2" s="115"/>
-      <c r="AJ2" s="115"/>
-      <c r="AK2" s="115"/>
-      <c r="AL2" s="115"/>
-      <c r="AM2" s="115"/>
-      <c r="AN2" s="115"/>
-      <c r="AO2" s="115"/>
-      <c r="AP2" s="115"/>
-      <c r="AQ2" s="115"/>
-      <c r="AR2" s="116"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="119"/>
+      <c r="X2" s="119"/>
+      <c r="Y2" s="119"/>
+      <c r="Z2" s="119"/>
+      <c r="AA2" s="119"/>
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="119"/>
+      <c r="AD2" s="119"/>
+      <c r="AE2" s="119"/>
+      <c r="AF2" s="119"/>
+      <c r="AG2" s="119"/>
+      <c r="AH2" s="119"/>
+      <c r="AI2" s="119"/>
+      <c r="AJ2" s="119"/>
+      <c r="AK2" s="119"/>
+      <c r="AL2" s="119"/>
+      <c r="AM2" s="119"/>
+      <c r="AN2" s="119"/>
+      <c r="AO2" s="119"/>
+      <c r="AP2" s="119"/>
+      <c r="AQ2" s="119"/>
+      <c r="AR2" s="120"/>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="46"/>
@@ -24610,88 +24650,88 @@
     </row>
     <row r="4" spans="1:44" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.4">
       <c r="B4" s="3"/>
-      <c r="C4" s="109" t="s">
+      <c r="C4" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="111" t="s">
+      <c r="D4" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="111" t="s">
+      <c r="E4" s="111"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="112"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="109" t="s">
+      <c r="H4" s="111"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="111" t="s">
+      <c r="K4" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="112"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="111" t="s">
+      <c r="L4" s="111"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="O4" s="112"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="109" t="s">
+      <c r="O4" s="111"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="R4" s="111" t="s">
+      <c r="R4" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="112"/>
-      <c r="T4" s="113"/>
-      <c r="U4" s="111" t="s">
+      <c r="S4" s="111"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="V4" s="112"/>
-      <c r="W4" s="113"/>
-      <c r="X4" s="109" t="s">
+      <c r="V4" s="111"/>
+      <c r="W4" s="112"/>
+      <c r="X4" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="Y4" s="111" t="s">
+      <c r="Y4" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="112"/>
-      <c r="AA4" s="113"/>
-      <c r="AB4" s="111" t="s">
+      <c r="Z4" s="111"/>
+      <c r="AA4" s="112"/>
+      <c r="AB4" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="AC4" s="112"/>
-      <c r="AD4" s="113"/>
-      <c r="AE4" s="109" t="s">
+      <c r="AC4" s="111"/>
+      <c r="AD4" s="112"/>
+      <c r="AE4" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="AF4" s="111" t="s">
+      <c r="AF4" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="AG4" s="112"/>
-      <c r="AH4" s="113"/>
-      <c r="AI4" s="111" t="s">
+      <c r="AG4" s="111"/>
+      <c r="AH4" s="112"/>
+      <c r="AI4" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="AJ4" s="112"/>
-      <c r="AK4" s="113"/>
-      <c r="AL4" s="109" t="s">
+      <c r="AJ4" s="111"/>
+      <c r="AK4" s="112"/>
+      <c r="AL4" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="AM4" s="111" t="s">
+      <c r="AM4" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="AN4" s="112"/>
-      <c r="AO4" s="113"/>
-      <c r="AP4" s="111" t="s">
+      <c r="AN4" s="111"/>
+      <c r="AO4" s="112"/>
+      <c r="AP4" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="AQ4" s="112"/>
-      <c r="AR4" s="113"/>
+      <c r="AQ4" s="111"/>
+      <c r="AR4" s="112"/>
     </row>
     <row r="5" spans="1:44" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="110"/>
+      <c r="C5" s="114"/>
       <c r="D5" s="58" t="s">
         <v>19</v>
       </c>
@@ -24710,7 +24750,7 @@
       <c r="I5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="110"/>
+      <c r="J5" s="114"/>
       <c r="K5" s="56" t="s">
         <v>19</v>
       </c>
@@ -24729,7 +24769,7 @@
       <c r="P5" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="110"/>
+      <c r="Q5" s="114"/>
       <c r="R5" s="56" t="s">
         <v>19</v>
       </c>
@@ -24748,7 +24788,7 @@
       <c r="W5" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="110"/>
+      <c r="X5" s="114"/>
       <c r="Y5" s="56" t="s">
         <v>19</v>
       </c>
@@ -24767,7 +24807,7 @@
       <c r="AD5" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="AE5" s="110"/>
+      <c r="AE5" s="114"/>
       <c r="AF5" s="56" t="s">
         <v>19</v>
       </c>
@@ -24786,7 +24826,7 @@
       <c r="AK5" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="AL5" s="110"/>
+      <c r="AL5" s="114"/>
       <c r="AM5" s="56" t="s">
         <v>19</v>
       </c>
@@ -27044,145 +27084,145 @@
     <row r="24" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:44" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
-      <c r="C25" s="111" t="s">
+      <c r="C25" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
+      <c r="D25" s="111"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="111"/>
+      <c r="G25" s="111"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="111"/>
       <c r="J25" s="22"/>
-      <c r="K25" s="112" t="s">
+      <c r="K25" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="112"/>
-      <c r="M25" s="112"/>
-      <c r="N25" s="112"/>
-      <c r="O25" s="112"/>
-      <c r="P25" s="113"/>
+      <c r="L25" s="111"/>
+      <c r="M25" s="111"/>
+      <c r="N25" s="111"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="112"/>
       <c r="Q25" s="22"/>
-      <c r="R25" s="112" t="s">
+      <c r="R25" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="S25" s="112"/>
-      <c r="T25" s="112"/>
-      <c r="U25" s="112"/>
-      <c r="V25" s="112"/>
-      <c r="W25" s="113"/>
+      <c r="S25" s="111"/>
+      <c r="T25" s="111"/>
+      <c r="U25" s="111"/>
+      <c r="V25" s="111"/>
+      <c r="W25" s="112"/>
       <c r="X25" s="22"/>
-      <c r="Y25" s="112" t="s">
+      <c r="Y25" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="Z25" s="112"/>
-      <c r="AA25" s="112"/>
-      <c r="AB25" s="112"/>
-      <c r="AC25" s="112"/>
-      <c r="AD25" s="113"/>
+      <c r="Z25" s="111"/>
+      <c r="AA25" s="111"/>
+      <c r="AB25" s="111"/>
+      <c r="AC25" s="111"/>
+      <c r="AD25" s="112"/>
       <c r="AE25" s="22"/>
-      <c r="AF25" s="112" t="s">
+      <c r="AF25" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="AG25" s="112"/>
-      <c r="AH25" s="112"/>
-      <c r="AI25" s="112"/>
-      <c r="AJ25" s="112"/>
-      <c r="AK25" s="113"/>
+      <c r="AG25" s="111"/>
+      <c r="AH25" s="111"/>
+      <c r="AI25" s="111"/>
+      <c r="AJ25" s="111"/>
+      <c r="AK25" s="112"/>
       <c r="AL25" s="47"/>
-      <c r="AM25" s="112" t="s">
+      <c r="AM25" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="AN25" s="112"/>
-      <c r="AO25" s="112"/>
-      <c r="AP25" s="112"/>
-      <c r="AQ25" s="112"/>
-      <c r="AR25" s="113"/>
+      <c r="AN25" s="111"/>
+      <c r="AO25" s="111"/>
+      <c r="AP25" s="111"/>
+      <c r="AQ25" s="111"/>
+      <c r="AR25" s="112"/>
     </row>
     <row r="26" spans="1:44" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.4">
       <c r="B26" s="3"/>
-      <c r="C26" s="118" t="s">
+      <c r="C26" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="111" t="s">
+      <c r="D26" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="112"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="111" t="s">
+      <c r="E26" s="111"/>
+      <c r="F26" s="112"/>
+      <c r="G26" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="112"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="109" t="s">
+      <c r="H26" s="111"/>
+      <c r="I26" s="112"/>
+      <c r="J26" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="111" t="s">
+      <c r="K26" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="L26" s="112"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="111" t="s">
+      <c r="L26" s="111"/>
+      <c r="M26" s="112"/>
+      <c r="N26" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="O26" s="112"/>
-      <c r="P26" s="113"/>
-      <c r="Q26" s="109" t="s">
+      <c r="O26" s="111"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="R26" s="111" t="s">
+      <c r="R26" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="S26" s="112"/>
-      <c r="T26" s="113"/>
-      <c r="U26" s="111" t="s">
+      <c r="S26" s="111"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="V26" s="112"/>
-      <c r="W26" s="113"/>
-      <c r="X26" s="109" t="s">
+      <c r="V26" s="111"/>
+      <c r="W26" s="112"/>
+      <c r="X26" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="Y26" s="111" t="s">
+      <c r="Y26" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="Z26" s="112"/>
-      <c r="AA26" s="113"/>
-      <c r="AB26" s="111" t="s">
+      <c r="Z26" s="111"/>
+      <c r="AA26" s="112"/>
+      <c r="AB26" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="AC26" s="112"/>
-      <c r="AD26" s="113"/>
-      <c r="AE26" s="109" t="s">
+      <c r="AC26" s="111"/>
+      <c r="AD26" s="112"/>
+      <c r="AE26" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="AF26" s="111" t="s">
+      <c r="AF26" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="AG26" s="112"/>
-      <c r="AH26" s="113"/>
-      <c r="AI26" s="111" t="s">
+      <c r="AG26" s="111"/>
+      <c r="AH26" s="112"/>
+      <c r="AI26" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="AJ26" s="112"/>
-      <c r="AK26" s="113"/>
-      <c r="AL26" s="109" t="s">
+      <c r="AJ26" s="111"/>
+      <c r="AK26" s="112"/>
+      <c r="AL26" s="113" t="s">
         <v>23</v>
       </c>
-      <c r="AM26" s="111" t="s">
+      <c r="AM26" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="AN26" s="112"/>
-      <c r="AO26" s="113"/>
-      <c r="AP26" s="111" t="s">
+      <c r="AN26" s="111"/>
+      <c r="AO26" s="112"/>
+      <c r="AP26" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="AQ26" s="112"/>
-      <c r="AR26" s="113"/>
+      <c r="AQ26" s="111"/>
+      <c r="AR26" s="112"/>
     </row>
     <row r="27" spans="1:44" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="3"/>
-      <c r="C27" s="119"/>
+      <c r="C27" s="116"/>
       <c r="D27" s="35" t="s">
         <v>26</v>
       </c>
@@ -27197,7 +27237,7 @@
         <v>27</v>
       </c>
       <c r="I27" s="41"/>
-      <c r="J27" s="110"/>
+      <c r="J27" s="114"/>
       <c r="K27" s="36" t="s">
         <v>26</v>
       </c>
@@ -27212,7 +27252,7 @@
         <v>27</v>
       </c>
       <c r="P27" s="37"/>
-      <c r="Q27" s="110"/>
+      <c r="Q27" s="114"/>
       <c r="R27" s="25" t="s">
         <v>26</v>
       </c>
@@ -27227,7 +27267,7 @@
         <v>27</v>
       </c>
       <c r="W27" s="28"/>
-      <c r="X27" s="110"/>
+      <c r="X27" s="114"/>
       <c r="Y27" s="42" t="s">
         <v>26</v>
       </c>
@@ -27242,7 +27282,7 @@
         <v>27</v>
       </c>
       <c r="AD27" s="28"/>
-      <c r="AE27" s="110"/>
+      <c r="AE27" s="114"/>
       <c r="AF27" s="42" t="s">
         <v>26</v>
       </c>
@@ -27257,7 +27297,7 @@
         <v>27</v>
       </c>
       <c r="AK27" s="28"/>
-      <c r="AL27" s="110"/>
+      <c r="AL27" s="114"/>
       <c r="AM27" s="42" t="s">
         <v>26</v>
       </c>
@@ -29812,18 +29852,27 @@
     <row r="688" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AF26:AH26"/>
-    <mergeCell ref="AI26:AK26"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="AE26:AE27"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="R26:T26"/>
-    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="AL26:AL27"/>
+    <mergeCell ref="AM26:AO26"/>
+    <mergeCell ref="AP26:AR26"/>
+    <mergeCell ref="C2:AR2"/>
+    <mergeCell ref="AM3:AR3"/>
+    <mergeCell ref="AL4:AL5"/>
+    <mergeCell ref="AM4:AO4"/>
+    <mergeCell ref="AP4:AR4"/>
+    <mergeCell ref="AM25:AR25"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="K3:P3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="R3:W3"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="U4:W4"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="Q26:Q27"/>
@@ -29840,27 +29889,18 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="X4:X5"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U4:W4"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AL26:AL27"/>
-    <mergeCell ref="AM26:AO26"/>
-    <mergeCell ref="AP26:AR26"/>
-    <mergeCell ref="C2:AR2"/>
-    <mergeCell ref="AM3:AR3"/>
-    <mergeCell ref="AL4:AL5"/>
-    <mergeCell ref="AM4:AO4"/>
-    <mergeCell ref="AP4:AR4"/>
-    <mergeCell ref="AM25:AR25"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="K3:P3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:P4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="R3:W3"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="R26:T26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AF26:AH26"/>
+    <mergeCell ref="AI26:AK26"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="AE26:AE27"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -29870,7 +29910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AR9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29900,64 +29940,64 @@
     <row r="1" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="63"/>
       <c r="B1" s="43"/>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
       <c r="J1" s="64"/>
-      <c r="K1" s="124" t="s">
+      <c r="K1" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="125"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="122"/>
       <c r="Q1" s="64"/>
-      <c r="R1" s="124" t="s">
+      <c r="R1" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="S1" s="124"/>
-      <c r="T1" s="124"/>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124"/>
-      <c r="W1" s="125"/>
+      <c r="S1" s="121"/>
+      <c r="T1" s="121"/>
+      <c r="U1" s="121"/>
+      <c r="V1" s="121"/>
+      <c r="W1" s="122"/>
       <c r="X1" s="64"/>
-      <c r="Y1" s="124" t="s">
+      <c r="Y1" s="121" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" s="124"/>
-      <c r="AA1" s="124"/>
-      <c r="AB1" s="124"/>
-      <c r="AC1" s="124"/>
-      <c r="AD1" s="125"/>
+      <c r="Z1" s="121"/>
+      <c r="AA1" s="121"/>
+      <c r="AB1" s="121"/>
+      <c r="AC1" s="121"/>
+      <c r="AD1" s="122"/>
       <c r="AE1" s="64"/>
-      <c r="AF1" s="124" t="s">
+      <c r="AF1" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="AG1" s="124"/>
-      <c r="AH1" s="124"/>
-      <c r="AI1" s="124"/>
-      <c r="AJ1" s="124"/>
-      <c r="AK1" s="125"/>
+      <c r="AG1" s="121"/>
+      <c r="AH1" s="121"/>
+      <c r="AI1" s="121"/>
+      <c r="AJ1" s="121"/>
+      <c r="AK1" s="122"/>
       <c r="AL1" s="64"/>
-      <c r="AM1" s="124" t="s">
+      <c r="AM1" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="124"/>
-      <c r="AO1" s="124"/>
-      <c r="AP1" s="124"/>
-      <c r="AQ1" s="124"/>
-      <c r="AR1" s="125"/>
+      <c r="AN1" s="121"/>
+      <c r="AO1" s="121"/>
+      <c r="AP1" s="121"/>
+      <c r="AQ1" s="121"/>
+      <c r="AR1" s="122"/>
     </row>
     <row r="2" spans="1:44" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="121"/>
-      <c r="B2" s="109"/>
+      <c r="A2" s="126"/>
+      <c r="B2" s="113"/>
       <c r="C2" s="123" t="s">
         <v>23</v>
       </c>
@@ -30038,8 +30078,8 @@
       <c r="AR2" s="123"/>
     </row>
     <row r="3" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="122"/>
-      <c r="B3" s="110"/>
+      <c r="A3" s="127"/>
+      <c r="B3" s="114"/>
       <c r="C3" s="123"/>
       <c r="D3" s="62" t="s">
         <v>19</v>
@@ -30156,7 +30196,7 @@
       </c>
     </row>
     <row r="4" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="120" t="s">
+      <c r="A4" s="125" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="65" t="s">
@@ -30290,7 +30330,7 @@
       </c>
     </row>
     <row r="5" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="120"/>
+      <c r="A5" s="125"/>
       <c r="B5" s="65" t="s">
         <v>42</v>
       </c>
@@ -30422,7 +30462,7 @@
       </c>
     </row>
     <row r="6" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="120"/>
+      <c r="A6" s="125"/>
       <c r="B6" s="65" t="s">
         <v>41</v>
       </c>
@@ -30554,7 +30594,7 @@
       </c>
     </row>
     <row r="7" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="120" t="s">
+      <c r="A7" s="125" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="65" t="s">
@@ -30674,7 +30714,7 @@
       </c>
     </row>
     <row r="8" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="120"/>
+      <c r="A8" s="125"/>
       <c r="B8" s="65" t="s">
         <v>42</v>
       </c>
@@ -30792,7 +30832,7 @@
       </c>
     </row>
     <row r="9" spans="1:44" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="120"/>
+      <c r="A9" s="125"/>
       <c r="B9" s="65" t="s">
         <v>41</v>
       </c>
@@ -30911,18 +30951,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="AF1:AK1"/>
-    <mergeCell ref="AM1:AR1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="R1:W1"/>
-    <mergeCell ref="Y1:AD1"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="AL2:AL3"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B2:B3"/>
@@ -30939,3448 +30967,3581 @@
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:M2"/>
+    <mergeCell ref="AF1:AK1"/>
+    <mergeCell ref="AM1:AR1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="K1:P1"/>
+    <mergeCell ref="R1:W1"/>
+    <mergeCell ref="Y1:AD1"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="AL2:AL3"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" style="78" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5546875" style="78" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" style="78" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.109375" style="78" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" style="78" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.44140625" style="78" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.33203125" style="78" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.88671875" style="78" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.109375" style="78" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30.44140625" style="80" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" style="80" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.6640625" style="106" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="89" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.88671875" style="78" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5546875" style="78" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.33203125" style="78" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.109375" style="78" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5546875" style="78" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.44140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.33203125" style="78" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.88671875" style="78" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.109375" style="78" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.44140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.44140625" style="80" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.6640625" style="106" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="81" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="81" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="C1" s="81" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="83" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="81" t="str">
-        <f>FQ!A7</f>
-        <v>Turbidity (uT)</v>
-      </c>
-      <c r="E1" s="81" t="str">
-        <f>FQ!A9</f>
-        <v>True color (uH)</v>
-      </c>
-      <c r="F1" s="81" t="str">
-        <f>FQ!A10</f>
-        <v>Temperature (°C)</v>
-      </c>
-      <c r="G1" s="81" t="str">
-        <f>FQ!A11</f>
-        <v>pH</v>
-      </c>
-      <c r="H1" s="84" t="str">
-        <f>FQ!A12</f>
-        <v>Conductivity (µS/cm)</v>
-      </c>
-      <c r="I1" s="84" t="str">
-        <f>FQ!A13</f>
-        <v>Dissolved oxygen  (mg/L)</v>
-      </c>
-      <c r="J1" s="84" t="str">
-        <f>FQ!A15</f>
-        <v>Organic matter (254 Abs)</v>
-      </c>
-      <c r="K1" s="84" t="str">
-        <f>FQ!A16</f>
-        <v>Nitrite (mg/L)</v>
-      </c>
-      <c r="L1" s="84" t="str">
-        <f>FQ!A17</f>
-        <v>Nitrate (mg/L)</v>
-      </c>
-      <c r="M1" s="84" t="str">
-        <f>FQ!A18</f>
-        <v>Orthophosphate (mg/L)</v>
-      </c>
-      <c r="N1" s="84" t="str">
-        <f>FQ!A19</f>
-        <v>Sulfate (mg/L)</v>
-      </c>
-      <c r="O1" s="84" t="str">
-        <f>FQ!A20</f>
-        <v>Fluoride (mg/L)</v>
-      </c>
-      <c r="P1" s="84" t="str">
-        <f>FQ!A21</f>
-        <v>Chloride (mg/L)</v>
-      </c>
-      <c r="Q1" s="81" t="s">
-        <v>108</v>
-      </c>
-      <c r="R1" s="84" t="s">
-        <v>109</v>
+      <c r="E1" s="81" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="84" t="s">
+        <v>116</v>
+      </c>
+      <c r="J1" s="84" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="84" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="84" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="N1" s="84" t="s">
+        <v>121</v>
+      </c>
+      <c r="O1" s="84" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" s="84" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q1" s="84" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" s="81" t="s">
+        <v>40</v>
       </c>
       <c r="S1" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="T1" s="81" t="s">
-        <v>111</v>
+        <v>125</v>
+      </c>
+      <c r="T1" s="84" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="81" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="131" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="109" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="82">
+      <c r="C2" s="106" t="str">
+        <f>IF(B2="Raw water","Raw water","-")</f>
+        <v>Raw water</v>
+      </c>
+      <c r="D2" s="82">
         <f>FQ!C6</f>
         <v>59</v>
       </c>
-      <c r="D2" s="82">
+      <c r="E2" s="82">
         <f>FQ!C7</f>
         <v>4.93</v>
       </c>
-      <c r="E2" s="82">
+      <c r="F2" s="82">
         <f>FQ!C9</f>
         <v>80.76570000000001</v>
       </c>
-      <c r="F2" s="82">
+      <c r="G2" s="82">
         <f>FQ!C10</f>
         <v>28.3</v>
       </c>
-      <c r="G2" s="82">
+      <c r="H2" s="82">
         <f>FQ!C11</f>
         <v>8.58</v>
       </c>
-      <c r="H2" s="85">
+      <c r="I2" s="85">
         <f>FQ!C12</f>
         <v>398</v>
       </c>
-      <c r="I2" s="85">
+      <c r="J2" s="85">
         <f>FQ!C13</f>
         <v>7.3</v>
       </c>
-      <c r="J2" s="80">
+      <c r="K2" s="80">
         <f>FQ!C15</f>
         <v>0.26100000000000001</v>
       </c>
-      <c r="K2" s="80">
+      <c r="L2" s="80">
         <f>FQ!C16</f>
         <v>0.77990000000000004</v>
       </c>
-      <c r="L2" s="80">
+      <c r="M2" s="80">
         <f>FQ!C17</f>
         <v>0.49099999999999999</v>
       </c>
-      <c r="M2" s="80">
+      <c r="N2" s="80">
         <f>FQ!C18</f>
         <v>0.40260000000000001</v>
       </c>
-      <c r="N2" s="80">
+      <c r="O2" s="80">
         <f>FQ!C19</f>
         <v>4.8554000000000004</v>
       </c>
-      <c r="O2" s="80">
+      <c r="P2" s="80">
         <f>FQ!C20</f>
         <v>1.8975</v>
       </c>
-      <c r="P2" s="80">
+      <c r="Q2" s="80">
         <f>FQ!C21</f>
         <v>60.1539</v>
       </c>
-      <c r="Q2" s="107">
+      <c r="R2" s="107">
         <v>17</v>
       </c>
-      <c r="R2" s="80">
+      <c r="S2" s="80">
         <f>Carbono!C4</f>
         <v>13.5</v>
       </c>
-      <c r="T2" s="106">
+      <c r="U2" s="106">
         <f>Carbono!C5</f>
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="131" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="109" t="s">
         <v>93</v>
       </c>
       <c r="B3" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="82">
+      <c r="C3" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="82">
         <f>FQ!D6</f>
         <v>49</v>
       </c>
-      <c r="D3" s="82">
+      <c r="E3" s="82">
         <f>FQ!D7</f>
         <v>6.71</v>
       </c>
-      <c r="E3" s="82">
+      <c r="F3" s="82">
         <f>FQ!D9</f>
         <v>65.725299999999976</v>
       </c>
-      <c r="F3" s="82">
+      <c r="G3" s="82">
         <f>FQ!D10</f>
         <v>30.2</v>
       </c>
-      <c r="G3" s="82">
+      <c r="H3" s="82">
         <f>FQ!D11</f>
         <v>8.6999999999999993</v>
       </c>
-      <c r="H3" s="85">
+      <c r="I3" s="85">
         <f>FQ!D12</f>
         <v>403</v>
       </c>
-      <c r="I3" s="85">
+      <c r="J3" s="85">
         <f>FQ!D13</f>
         <v>6.3</v>
       </c>
-      <c r="J3" s="80">
+      <c r="K3" s="80">
         <f>FQ!D15</f>
         <v>0.26</v>
       </c>
-      <c r="K3" s="80">
+      <c r="L3" s="80">
         <f>FQ!D16</f>
         <v>0.87139999999999995</v>
       </c>
-      <c r="L3" s="80">
+      <c r="M3" s="80">
         <f>FQ!D17</f>
         <v>0.57899999999999996</v>
       </c>
-      <c r="M3" s="80">
+      <c r="N3" s="80">
         <f>FQ!D18</f>
         <v>0.70409999999999995</v>
       </c>
-      <c r="N3" s="80">
+      <c r="O3" s="80">
         <f>FQ!D19</f>
         <v>4.7336999999999998</v>
       </c>
-      <c r="O3" s="80">
+      <c r="P3" s="80">
         <f>FQ!D20</f>
         <v>1.5610999999999999</v>
       </c>
-      <c r="P3" s="80">
+      <c r="Q3" s="80">
         <f>FQ!D21</f>
         <v>56.581400000000002</v>
       </c>
-      <c r="Q3" s="107">
+      <c r="R3" s="107">
         <v>17.2</v>
       </c>
-      <c r="R3" s="80">
+      <c r="S3" s="80">
         <f>Carbono!D4</f>
         <v>13.8</v>
       </c>
-      <c r="T3" s="106">
+      <c r="U3" s="106">
         <f>Carbono!D5</f>
         <v>36.9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="131" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="109" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="82">
+      <c r="C4" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="82">
         <f>FQ!E6</f>
         <v>47</v>
       </c>
-      <c r="D4" s="82">
+      <c r="E4" s="82">
         <f>FQ!E7</f>
         <v>7.74</v>
       </c>
-      <c r="E4" s="82">
+      <c r="F4" s="82">
         <f>FQ!E9</f>
         <v>77.005599999999987</v>
       </c>
-      <c r="F4" s="82">
+      <c r="G4" s="82">
         <f>FQ!E10</f>
         <v>28.8</v>
       </c>
-      <c r="G4" s="82">
+      <c r="H4" s="82">
         <f>FQ!E11</f>
         <v>8.8800000000000008</v>
       </c>
-      <c r="H4" s="85">
+      <c r="I4" s="85">
         <f>FQ!E12</f>
         <v>400</v>
       </c>
-      <c r="I4" s="85">
+      <c r="J4" s="85">
         <f>FQ!E13</f>
         <v>7.9</v>
       </c>
-      <c r="J4" s="80">
+      <c r="K4" s="80">
         <f>FQ!E15</f>
         <v>0.26500000000000001</v>
       </c>
-      <c r="K4" s="80">
+      <c r="L4" s="80">
         <f>FQ!E16</f>
         <v>0.90600000000000003</v>
       </c>
-      <c r="L4" s="80">
+      <c r="M4" s="80">
         <f>FQ!E17</f>
         <v>0.55220000000000002</v>
       </c>
-      <c r="M4" s="80">
+      <c r="N4" s="80">
         <f>FQ!E18</f>
         <v>0.43890000000000001</v>
       </c>
-      <c r="N4" s="80">
+      <c r="O4" s="80">
         <f>FQ!E19</f>
         <v>4.6551999999999998</v>
       </c>
-      <c r="O4" s="80">
+      <c r="P4" s="80">
         <f>FQ!E20</f>
         <v>2.0253999999999999</v>
       </c>
-      <c r="P4" s="80">
+      <c r="Q4" s="80">
         <f>FQ!E21</f>
         <v>58.273600000000002</v>
       </c>
-      <c r="Q4" s="107">
+      <c r="R4" s="107">
         <v>17</v>
       </c>
-      <c r="R4" s="80">
+      <c r="S4" s="80">
         <f>Carbono!E4</f>
         <v>14</v>
       </c>
-      <c r="T4" s="106">
+      <c r="U4" s="106">
         <f>Carbono!E5</f>
         <v>37.6</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="131" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="109" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="82">
+      <c r="C5" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="82">
         <f>FQ!F6</f>
         <v>46</v>
       </c>
-      <c r="D5" s="82">
+      <c r="E5" s="82">
         <f>FQ!F7</f>
         <v>6.66</v>
       </c>
-      <c r="E5" s="82">
+      <c r="F5" s="82">
         <f>FQ!F9</f>
         <v>65.725299999999976</v>
       </c>
-      <c r="F5" s="82">
+      <c r="G5" s="82">
         <f>FQ!F10</f>
         <v>28.6</v>
       </c>
-      <c r="G5" s="82">
+      <c r="H5" s="82">
         <f>FQ!F11</f>
         <v>8.7899999999999991</v>
       </c>
-      <c r="H5" s="85">
+      <c r="I5" s="85">
         <f>FQ!F12</f>
         <v>402</v>
       </c>
-      <c r="I5" s="85">
+      <c r="J5" s="85">
         <f>FQ!F13</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="J5" s="80">
+      <c r="K5" s="80">
         <f>FQ!F15</f>
         <v>0.26500000000000001</v>
       </c>
-      <c r="K5" s="80">
+      <c r="L5" s="80">
         <f>FQ!F16</f>
         <v>0.73919999999999997</v>
       </c>
-      <c r="L5" s="80">
+      <c r="M5" s="80">
         <f>FQ!F17</f>
         <v>1.1248</v>
       </c>
-      <c r="M5" s="80">
+      <c r="N5" s="80">
         <f>FQ!F18</f>
         <v>0.94010000000000005</v>
       </c>
-      <c r="N5" s="80">
+      <c r="O5" s="80">
         <f>FQ!F19</f>
         <v>4.8212999999999999</v>
       </c>
-      <c r="O5" s="80">
+      <c r="P5" s="80">
         <f>FQ!F20</f>
         <v>1.6449</v>
       </c>
-      <c r="P5" s="80">
+      <c r="Q5" s="80">
         <f>FQ!F21</f>
         <v>59.770800000000001</v>
       </c>
-      <c r="Q5" s="107">
+      <c r="R5" s="107">
         <v>17.399999999999999</v>
       </c>
-      <c r="R5" s="80">
+      <c r="S5" s="80">
         <f>Carbono!F4</f>
         <v>15.9</v>
       </c>
-      <c r="T5" s="106">
+      <c r="U5" s="106">
         <f>Carbono!F5</f>
         <v>41.6</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="131" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="109" t="s">
         <v>93</v>
       </c>
       <c r="B6" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="82">
+      <c r="C6" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="82">
         <f>FQ!G6</f>
         <v>50</v>
       </c>
-      <c r="D6" s="82">
+      <c r="E6" s="82">
         <f>FQ!G7</f>
         <v>6.55</v>
       </c>
-      <c r="E6" s="82">
+      <c r="F6" s="82">
         <f>FQ!G9</f>
         <v>65.725299999999976</v>
       </c>
-      <c r="F6" s="82">
+      <c r="G6" s="82">
         <f>FQ!G10</f>
         <v>28.6</v>
       </c>
-      <c r="G6" s="82">
+      <c r="H6" s="82">
         <f>FQ!G11</f>
         <v>8.7799999999999994</v>
       </c>
-      <c r="H6" s="85">
+      <c r="I6" s="85">
         <f>FQ!G12</f>
         <v>399</v>
       </c>
-      <c r="I6" s="85">
+      <c r="J6" s="85">
         <f>FQ!G13</f>
         <v>5.85</v>
       </c>
-      <c r="J6" s="80">
+      <c r="K6" s="80">
         <f>FQ!G15</f>
         <v>0.26</v>
       </c>
-      <c r="K6" s="80">
+      <c r="L6" s="80">
         <f>FQ!G16</f>
         <v>0.80249999999999999</v>
       </c>
-      <c r="L6" s="80">
+      <c r="M6" s="80">
         <f>FQ!G17</f>
         <v>1.0615000000000001</v>
       </c>
-      <c r="M6" s="80">
+      <c r="N6" s="80">
         <f>FQ!G18</f>
         <v>0.53520000000000001</v>
       </c>
-      <c r="N6" s="80">
+      <c r="O6" s="80">
         <f>FQ!G19</f>
         <v>4.8273999999999999</v>
       </c>
-      <c r="O6" s="80">
+      <c r="P6" s="80">
         <f>FQ!G20</f>
         <v>2.1755</v>
       </c>
-      <c r="P6" s="80">
+      <c r="Q6" s="80">
         <f>FQ!G21</f>
         <v>58.375599999999999</v>
       </c>
-      <c r="Q6" s="107">
+      <c r="R6" s="107">
         <v>17.600000000000001</v>
       </c>
-      <c r="R6" s="80">
+      <c r="S6" s="80">
         <f>Carbono!G4</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="T6" s="106">
+      <c r="U6" s="106">
         <f>Carbono!G5</f>
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="131" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="109" t="s">
         <v>93</v>
       </c>
       <c r="B7" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="82">
+      <c r="C7" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="82">
         <f>FQ!H6</f>
         <v>49</v>
       </c>
-      <c r="D7" s="82">
+      <c r="E7" s="82">
         <f>FQ!H7</f>
         <v>6.5</v>
       </c>
-      <c r="E7" s="82">
+      <c r="F7" s="82">
         <f>FQ!H9</f>
         <v>65.725299999999976</v>
       </c>
-      <c r="F7" s="82">
+      <c r="G7" s="82">
         <f>FQ!H10</f>
         <v>28.8</v>
       </c>
-      <c r="G7" s="82">
+      <c r="H7" s="82">
         <f>FQ!H11</f>
         <v>8.84</v>
       </c>
-      <c r="H7" s="85">
+      <c r="I7" s="85">
         <f>FQ!H12</f>
         <v>399</v>
       </c>
-      <c r="I7" s="85">
+      <c r="J7" s="85">
         <f>FQ!H13</f>
         <v>7.2</v>
       </c>
-      <c r="J7" s="80">
+      <c r="K7" s="80">
         <f>FQ!H15</f>
         <v>0.26</v>
       </c>
-      <c r="K7" s="80">
+      <c r="L7" s="80">
         <f>FQ!H16</f>
         <v>0.76559999999999995</v>
       </c>
-      <c r="L7" s="80">
+      <c r="M7" s="80">
         <f>FQ!H17</f>
         <v>0.871</v>
       </c>
-      <c r="M7" s="80">
+      <c r="N7" s="80">
         <f>FQ!H18</f>
         <v>0.65349999999999997</v>
       </c>
-      <c r="N7" s="80">
+      <c r="O7" s="80">
         <f>FQ!H19</f>
         <v>4.5176999999999996</v>
       </c>
-      <c r="O7" s="80">
+      <c r="P7" s="80">
         <f>FQ!H20</f>
         <v>2.3616999999999999</v>
       </c>
-      <c r="P7" s="80">
+      <c r="Q7" s="80">
         <f>FQ!H21</f>
         <v>58.484699999999997</v>
       </c>
-      <c r="Q7" s="107">
+      <c r="R7" s="107">
         <v>17.2</v>
       </c>
-      <c r="R7" s="80">
+      <c r="S7" s="80">
         <f>Carbono!H4</f>
         <v>13.4</v>
       </c>
-      <c r="T7" s="106">
+      <c r="U7" s="106">
         <f>Carbono!H5</f>
         <v>36.6</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="131" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="109" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="82">
+      <c r="C8" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="82">
         <f>FQ!I6</f>
         <v>54</v>
       </c>
-      <c r="D8" s="82">
+      <c r="E8" s="82">
         <f>FQ!I7</f>
         <v>6.95</v>
       </c>
-      <c r="E8" s="82">
+      <c r="F8" s="82">
         <f>FQ!I9</f>
         <v>65.725299999999976</v>
       </c>
-      <c r="F8" s="82">
+      <c r="G8" s="82">
         <f>FQ!I10</f>
         <v>28.7</v>
       </c>
-      <c r="G8" s="82">
+      <c r="H8" s="82">
         <f>FQ!I11</f>
         <v>8.92</v>
       </c>
-      <c r="H8" s="85">
+      <c r="I8" s="85">
         <f>FQ!I12</f>
         <v>401</v>
       </c>
-      <c r="I8" s="85">
+      <c r="J8" s="85">
         <f>FQ!I13</f>
         <v>8.9</v>
       </c>
-      <c r="J8" s="80">
+      <c r="K8" s="80">
         <f>FQ!I15</f>
         <v>0.26800000000000002</v>
       </c>
-      <c r="K8" s="80">
+      <c r="L8" s="80">
         <f>FQ!I16</f>
         <v>0.73929999999999996</v>
       </c>
-      <c r="L8" s="80">
+      <c r="M8" s="80">
         <f>FQ!I17</f>
         <v>0.52039999999999997</v>
       </c>
-      <c r="M8" s="80">
+      <c r="N8" s="80">
         <f>FQ!I18</f>
         <v>0.4501</v>
       </c>
-      <c r="N8" s="80">
+      <c r="O8" s="80">
         <f>FQ!I19</f>
         <v>5.1924999999999999</v>
       </c>
-      <c r="O8" s="80">
+      <c r="P8" s="80">
         <f>FQ!I20</f>
         <v>1.7332000000000001</v>
       </c>
-      <c r="P8" s="80">
+      <c r="Q8" s="80">
         <f>FQ!I21</f>
         <v>62.265500000000003</v>
       </c>
-      <c r="Q8" s="107">
+      <c r="R8" s="107">
         <v>17.5</v>
       </c>
-      <c r="R8" s="80">
+      <c r="S8" s="80">
         <f>Carbono!I4</f>
         <v>16.5</v>
       </c>
-      <c r="T8" s="106">
+      <c r="U8" s="106">
         <f>Carbono!I5</f>
         <v>40.799999999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="131" t="s">
-        <v>115</v>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="109" t="s">
+        <v>109</v>
       </c>
       <c r="B9" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="82">
+      <c r="C9" s="106" t="str">
+        <f t="shared" ref="C9" si="0">IF(B9="Raw water","Raw water","-")</f>
+        <v>Raw water</v>
+      </c>
+      <c r="D9" s="82">
         <f>FQ!J6</f>
         <v>55</v>
       </c>
-      <c r="D9" s="82">
+      <c r="E9" s="82">
         <f>FQ!J7</f>
         <v>4.41</v>
       </c>
-      <c r="E9" s="82">
+      <c r="F9" s="82">
         <f>FQ!J9</f>
         <v>69.485399999999998</v>
       </c>
-      <c r="F9" s="82">
+      <c r="G9" s="82">
         <f>FQ!J10</f>
         <v>29.2</v>
       </c>
-      <c r="G9" s="82">
+      <c r="H9" s="82">
         <f>FQ!J11</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="H9" s="85">
+      <c r="I9" s="85">
         <f>FQ!J12</f>
         <v>402</v>
       </c>
-      <c r="I9" s="85">
+      <c r="J9" s="85">
         <f>FQ!J13</f>
         <v>7.5</v>
       </c>
-      <c r="J9" s="80">
+      <c r="K9" s="80">
         <f>FQ!J15</f>
         <v>0.254</v>
       </c>
-      <c r="K9" s="80">
+      <c r="L9" s="80">
         <f>FQ!J16</f>
         <v>0.74329999999999996</v>
       </c>
-      <c r="L9" s="80">
+      <c r="M9" s="80">
         <f>FQ!J17</f>
         <v>0.3826</v>
       </c>
-      <c r="M9" s="80">
+      <c r="N9" s="80">
         <f>FQ!J18</f>
         <v>0.6472</v>
       </c>
-      <c r="N9" s="80">
+      <c r="O9" s="80">
         <f>FQ!J19</f>
         <v>4.7453000000000003</v>
       </c>
-      <c r="O9" s="80">
+      <c r="P9" s="80">
         <f>FQ!J20</f>
         <v>1.0264</v>
       </c>
-      <c r="P9" s="80">
+      <c r="Q9" s="80">
         <f>FQ!J21</f>
         <v>61.524500000000003</v>
       </c>
-      <c r="Q9" s="107">
+      <c r="R9" s="107">
         <f>Carbono!J7</f>
         <v>16.899999999999999</v>
       </c>
-      <c r="R9" s="80">
+      <c r="S9" s="80">
         <f>Carbono!J4</f>
         <v>13.5</v>
       </c>
-      <c r="S9" s="80">
+      <c r="T9" s="80">
         <f>Carbono!J8</f>
         <v>35.200000000000003</v>
       </c>
-      <c r="T9" s="106">
+      <c r="U9" s="106">
         <f>Carbono!J5</f>
         <v>30.3</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="131" t="s">
-        <v>114</v>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="109" t="s">
+        <v>108</v>
       </c>
       <c r="B10" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="82">
+      <c r="C10" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="82">
         <f>FQ!K6</f>
         <v>98</v>
       </c>
-      <c r="D10" s="82">
+      <c r="E10" s="82">
         <f>FQ!K7</f>
         <v>3.59</v>
       </c>
-      <c r="E10" s="82">
+      <c r="F10" s="82">
         <f>FQ!K9</f>
         <v>61.965199999999982</v>
       </c>
-      <c r="F10" s="82">
+      <c r="G10" s="82">
         <f>FQ!K10</f>
         <v>30.2</v>
       </c>
-      <c r="G10" s="82">
+      <c r="H10" s="82">
         <f>FQ!K11</f>
         <v>9.82</v>
       </c>
-      <c r="H10" s="85">
+      <c r="I10" s="85">
         <f>FQ!K12</f>
         <v>408</v>
       </c>
-      <c r="I10" s="85">
+      <c r="J10" s="85">
         <f>FQ!K13</f>
         <v>2.39</v>
       </c>
-      <c r="J10" s="80">
+      <c r="K10" s="80">
         <f>FQ!K15</f>
         <v>0.24800000000000003</v>
       </c>
-      <c r="K10" s="80">
+      <c r="L10" s="80">
         <f>FQ!K16</f>
         <v>0.76390000000000002</v>
       </c>
-      <c r="L10" s="80">
+      <c r="M10" s="80">
         <f>FQ!K17</f>
         <v>0.46479999999999999</v>
       </c>
-      <c r="M10" s="80">
+      <c r="N10" s="80">
         <f>FQ!K18</f>
         <v>0.80900000000000005</v>
       </c>
-      <c r="N10" s="80">
+      <c r="O10" s="80">
         <f>FQ!K19</f>
         <v>4.4001000000000001</v>
       </c>
-      <c r="O10" s="80">
+      <c r="P10" s="80">
         <f>FQ!K20</f>
         <v>1.4032</v>
       </c>
-      <c r="P10" s="80">
+      <c r="Q10" s="80">
         <f>FQ!K21</f>
         <v>59.817100000000003</v>
       </c>
-      <c r="Q10" s="107">
+      <c r="R10" s="107">
         <f>Carbono!K7</f>
         <v>17.2</v>
       </c>
-      <c r="R10" s="80">
+      <c r="S10" s="80">
         <f>Carbono!K4</f>
         <v>15.6</v>
       </c>
-      <c r="S10" s="80">
+      <c r="T10" s="80">
         <f>Carbono!K8</f>
         <v>35.1</v>
       </c>
-      <c r="T10" s="106">
+      <c r="U10" s="106">
         <f>Carbono!K5</f>
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="131" t="s">
-        <v>114</v>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="109" t="s">
+        <v>108</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="82">
+      <c r="C11" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="82">
         <f>FQ!L6</f>
         <v>92</v>
       </c>
-      <c r="D11" s="82">
+      <c r="E11" s="82">
         <f>FQ!L7</f>
         <v>4.3099999999999996</v>
       </c>
-      <c r="E11" s="82">
+      <c r="F11" s="82">
         <f>FQ!L9</f>
         <v>80.76570000000001</v>
       </c>
-      <c r="F11" s="82">
+      <c r="G11" s="82">
         <f>FQ!L10</f>
         <v>29.4</v>
       </c>
-      <c r="G11" s="82">
+      <c r="H11" s="82">
         <f>FQ!L11</f>
         <v>9.52</v>
       </c>
-      <c r="H11" s="85">
+      <c r="I11" s="85">
         <f>FQ!L12</f>
         <v>411</v>
       </c>
-      <c r="I11" s="85">
+      <c r="J11" s="85">
         <f>FQ!L13</f>
         <v>4.5</v>
       </c>
-      <c r="J11" s="80">
+      <c r="K11" s="80">
         <f>FQ!L15</f>
         <v>0.26</v>
       </c>
-      <c r="K11" s="80">
+      <c r="L11" s="80">
         <f>FQ!L16</f>
         <v>0.75870000000000004</v>
       </c>
-      <c r="L11" s="80">
+      <c r="M11" s="80">
         <f>FQ!L17</f>
         <v>0.35680000000000001</v>
       </c>
-      <c r="M11" s="80">
+      <c r="N11" s="80">
         <f>FQ!L18</f>
         <v>0.84719999999999995</v>
       </c>
-      <c r="N11" s="80">
+      <c r="O11" s="80">
         <f>FQ!L19</f>
         <v>4.8349000000000002</v>
       </c>
-      <c r="O11" s="80">
+      <c r="P11" s="80">
         <f>FQ!L20</f>
         <v>1.6830000000000001</v>
       </c>
-      <c r="P11" s="80">
+      <c r="Q11" s="80">
         <f>FQ!L21</f>
         <v>62.652799999999999</v>
       </c>
-      <c r="Q11" s="107">
+      <c r="R11" s="107">
         <f>Carbono!L7</f>
         <v>18.5</v>
       </c>
-      <c r="R11" s="108">
+      <c r="S11" s="108">
         <f>Carbono!L4</f>
         <v>17</v>
       </c>
-      <c r="S11" s="80">
+      <c r="T11" s="80">
         <f>Carbono!L8</f>
         <v>36.299999999999997</v>
       </c>
-      <c r="T11" s="106">
+      <c r="U11" s="106">
         <f>Carbono!L5</f>
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="131" t="s">
-        <v>114</v>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="109" t="s">
+        <v>108</v>
       </c>
       <c r="B12" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="82">
+      <c r="C12" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="82">
         <f>FQ!M6</f>
         <v>95</v>
       </c>
-      <c r="D12" s="82">
+      <c r="E12" s="82">
         <f>FQ!M7</f>
         <v>3.59</v>
       </c>
-      <c r="E12" s="82">
+      <c r="F12" s="82">
         <f>FQ!M9</f>
         <v>61.965199999999982</v>
       </c>
-      <c r="F12" s="82">
+      <c r="G12" s="82">
         <f>FQ!M10</f>
         <v>29.3</v>
       </c>
-      <c r="G12" s="82">
+      <c r="H12" s="82">
         <f>FQ!M11</f>
         <v>9.5500000000000007</v>
       </c>
-      <c r="H12" s="85">
+      <c r="I12" s="85">
         <f>FQ!M12</f>
         <v>410</v>
       </c>
-      <c r="I12" s="85">
+      <c r="J12" s="85">
         <f>FQ!M13</f>
         <v>2.74</v>
       </c>
-      <c r="J12" s="80">
+      <c r="K12" s="80">
         <f>FQ!M15</f>
         <v>0.24900000000000003</v>
       </c>
-      <c r="K12" s="80">
+      <c r="L12" s="80">
         <f>FQ!M16</f>
         <v>0.75329999999999997</v>
       </c>
-      <c r="L12" s="80">
+      <c r="M12" s="80">
         <f>FQ!M17</f>
         <v>0.42349999999999999</v>
       </c>
-      <c r="M12" s="80">
+      <c r="N12" s="80">
         <f>FQ!M18</f>
         <v>1.1455</v>
       </c>
-      <c r="N12" s="80">
+      <c r="O12" s="80">
         <f>FQ!M19</f>
         <v>4.5641999999999996</v>
       </c>
-      <c r="O12" s="80">
+      <c r="P12" s="80">
         <f>FQ!M20</f>
         <v>1.3775999999999999</v>
       </c>
-      <c r="P12" s="80">
+      <c r="Q12" s="80">
         <f>FQ!M21</f>
         <v>59.613399999999999</v>
       </c>
-      <c r="Q12" s="107">
+      <c r="R12" s="107">
         <f>Carbono!M7</f>
         <v>17.5</v>
       </c>
-      <c r="R12" s="108">
+      <c r="S12" s="108">
         <f>Carbono!M4</f>
         <v>17.3</v>
       </c>
-      <c r="S12" s="80">
+      <c r="T12" s="80">
         <f>Carbono!M8</f>
         <v>35.4</v>
       </c>
-      <c r="T12" s="106">
+      <c r="U12" s="106">
         <f>Carbono!M5</f>
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="131" t="s">
-        <v>114</v>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="109" t="s">
+        <v>108</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="82">
+      <c r="C13" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="82">
         <f>FQ!N6</f>
         <v>47</v>
       </c>
-      <c r="D13" s="82">
+      <c r="E13" s="82">
         <f>FQ!N7</f>
         <v>6.25</v>
       </c>
-      <c r="E13" s="82">
+      <c r="F13" s="82">
         <f>FQ!N9</f>
         <v>65.725299999999976</v>
       </c>
-      <c r="F13" s="82">
+      <c r="G13" s="82">
         <f>FQ!N10</f>
         <v>29.9</v>
       </c>
-      <c r="G13" s="82">
+      <c r="H13" s="82">
         <f>FQ!N11</f>
         <v>9.9700000000000006</v>
       </c>
-      <c r="H13" s="85">
+      <c r="I13" s="85">
         <f>FQ!N12</f>
         <v>405</v>
       </c>
-      <c r="I13" s="85">
+      <c r="J13" s="85">
         <f>FQ!N13</f>
         <v>5.96</v>
       </c>
-      <c r="J13" s="80">
+      <c r="K13" s="80">
         <f>FQ!N15</f>
         <v>0.25800000000000001</v>
       </c>
-      <c r="K13" s="80">
+      <c r="L13" s="80">
         <f>FQ!N16</f>
         <v>0.76500000000000001</v>
       </c>
-      <c r="L13" s="80">
+      <c r="M13" s="80">
         <f>FQ!N17</f>
         <v>0.70109999999999995</v>
       </c>
-      <c r="M13" s="80">
+      <c r="N13" s="80">
         <f>FQ!N18</f>
         <v>0.70620000000000005</v>
       </c>
-      <c r="N13" s="80">
+      <c r="O13" s="80">
         <f>FQ!N19</f>
         <v>4.5880999999999998</v>
       </c>
-      <c r="O13" s="80">
+      <c r="P13" s="80">
         <f>FQ!N20</f>
         <v>1.3360000000000001</v>
       </c>
-      <c r="P13" s="80">
+      <c r="Q13" s="80">
         <f>FQ!N21</f>
         <v>60.860700000000001</v>
       </c>
-      <c r="Q13" s="107">
+      <c r="R13" s="107">
         <f>Carbono!N7</f>
         <v>24.8</v>
       </c>
-      <c r="R13" s="80">
+      <c r="S13" s="80">
         <f>Carbono!N4</f>
         <v>16.600000000000001</v>
       </c>
-      <c r="S13" s="80">
+      <c r="T13" s="80">
         <f>Carbono!N8</f>
         <v>41.3</v>
       </c>
-      <c r="T13" s="106">
+      <c r="U13" s="106">
         <f>Carbono!N5</f>
         <v>32.9</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="131" t="s">
-        <v>114</v>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="109" t="s">
+        <v>108</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="82">
+      <c r="C14" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="82">
         <f>FQ!O6</f>
         <v>54</v>
       </c>
-      <c r="D14" s="82">
+      <c r="E14" s="82">
         <f>FQ!O7</f>
         <v>5.91</v>
       </c>
-      <c r="E14" s="82">
+      <c r="F14" s="82">
         <f>FQ!O9</f>
         <v>69.485399999999998</v>
       </c>
-      <c r="F14" s="82">
+      <c r="G14" s="82">
         <f>FQ!O10</f>
         <v>29.4</v>
       </c>
-      <c r="G14" s="82">
+      <c r="H14" s="82">
         <f>FQ!O11</f>
         <v>9.64</v>
       </c>
-      <c r="H14" s="85">
+      <c r="I14" s="85">
         <f>FQ!O12</f>
         <v>407</v>
       </c>
-      <c r="I14" s="85">
+      <c r="J14" s="85">
         <f>FQ!O13</f>
         <v>6.26</v>
       </c>
-      <c r="J14" s="80">
+      <c r="K14" s="80">
         <f>FQ!O15</f>
         <v>0.25700000000000001</v>
       </c>
-      <c r="K14" s="80">
+      <c r="L14" s="80">
         <f>FQ!O16</f>
         <v>0.80710000000000004</v>
       </c>
-      <c r="L14" s="80">
+      <c r="M14" s="80">
         <f>FQ!O17</f>
         <v>0.67369999999999997</v>
       </c>
-      <c r="M14" s="80">
+      <c r="N14" s="80">
         <f>FQ!O18</f>
         <v>0.76049999999999995</v>
       </c>
-      <c r="N14" s="80">
+      <c r="O14" s="80">
         <f>FQ!O19</f>
         <v>4.1154000000000002</v>
       </c>
-      <c r="O14" s="80">
+      <c r="P14" s="80">
         <f>FQ!O20</f>
         <v>1.5626</v>
       </c>
-      <c r="P14" s="80">
+      <c r="Q14" s="80">
         <f>FQ!O21</f>
         <v>58.408799999999999</v>
       </c>
-      <c r="Q14" s="107">
+      <c r="R14" s="107">
         <f>Carbono!O7</f>
         <v>18.7</v>
       </c>
-      <c r="R14" s="80">
+      <c r="S14" s="80">
         <f>Carbono!O4</f>
         <v>15</v>
       </c>
-      <c r="S14" s="80">
+      <c r="T14" s="80">
         <f>Carbono!O8</f>
         <v>35.200000000000003</v>
       </c>
-      <c r="T14" s="106">
+      <c r="U14" s="106">
         <f>Carbono!O5</f>
         <v>31.3</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="131" t="s">
-        <v>114</v>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="109" t="s">
+        <v>108</v>
       </c>
       <c r="B15" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="82">
+      <c r="C15" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="82">
         <f>FQ!P6</f>
         <v>56</v>
       </c>
-      <c r="D15" s="82">
+      <c r="E15" s="82">
         <f>FQ!P7</f>
         <v>5.97</v>
       </c>
-      <c r="E15" s="82">
+      <c r="F15" s="82">
         <f>FQ!P9</f>
         <v>80.76570000000001</v>
       </c>
-      <c r="F15" s="82">
+      <c r="G15" s="82">
         <f>FQ!P10</f>
         <v>29.3</v>
       </c>
-      <c r="G15" s="82">
+      <c r="H15" s="82">
         <f>FQ!P11</f>
         <v>9.58</v>
       </c>
-      <c r="H15" s="85">
+      <c r="I15" s="85">
         <f>FQ!P12</f>
         <v>408</v>
       </c>
-      <c r="I15" s="85">
+      <c r="J15" s="85">
         <f>FQ!P13</f>
         <v>6.3</v>
       </c>
-      <c r="J15" s="80">
+      <c r="K15" s="80">
         <f>FQ!P15</f>
         <v>0.26</v>
       </c>
-      <c r="K15" s="80">
+      <c r="L15" s="80">
         <f>FQ!P16</f>
         <v>0.747</v>
       </c>
-      <c r="L15" s="80">
+      <c r="M15" s="80">
         <f>FQ!P17</f>
         <v>0.75319999999999998</v>
       </c>
-      <c r="M15" s="80">
+      <c r="N15" s="80">
         <f>FQ!P18</f>
         <v>0.94359999999999999</v>
       </c>
-      <c r="N15" s="80">
+      <c r="O15" s="80">
         <f>FQ!P19</f>
         <v>4.7203999999999997</v>
       </c>
-      <c r="O15" s="80">
+      <c r="P15" s="80">
         <f>FQ!P20</f>
         <v>1.8501000000000001</v>
       </c>
-      <c r="P15" s="80">
+      <c r="Q15" s="80">
         <f>FQ!P21</f>
         <v>61.5443</v>
       </c>
-      <c r="Q15" s="107">
+      <c r="R15" s="107">
         <f>Carbono!P7</f>
         <v>21.2</v>
       </c>
-      <c r="R15" s="80">
+      <c r="S15" s="80">
         <f>Carbono!P4</f>
         <v>18.8</v>
       </c>
-      <c r="S15" s="80">
+      <c r="T15" s="80">
         <f>Carbono!P8</f>
         <v>37.799999999999997</v>
       </c>
-      <c r="T15" s="106">
+      <c r="U15" s="106">
         <f>Carbono!P5</f>
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="131" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="109" t="s">
         <v>94</v>
       </c>
       <c r="B16" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="82">
+      <c r="C16" s="106" t="str">
+        <f t="shared" ref="C16" si="1">IF(B16="Raw water","Raw water","-")</f>
+        <v>Raw water</v>
+      </c>
+      <c r="D16" s="82">
         <f>FQ!Q6</f>
         <v>55</v>
       </c>
-      <c r="D16" s="82">
+      <c r="E16" s="82">
         <f>FQ!Q7</f>
         <v>6.58</v>
       </c>
-      <c r="E16" s="82">
+      <c r="F16" s="82">
         <f>FQ!Q9</f>
         <v>77.005599999999987</v>
       </c>
-      <c r="F16" s="82">
+      <c r="G16" s="82">
         <f>FQ!Q10</f>
         <v>29.4</v>
       </c>
-      <c r="G16" s="82">
+      <c r="H16" s="82">
         <f>FQ!Q11</f>
         <v>8.4</v>
       </c>
-      <c r="H16" s="85">
+      <c r="I16" s="85">
         <f>FQ!Q12</f>
         <v>405</v>
       </c>
-      <c r="I16" s="85">
+      <c r="J16" s="85">
         <f>FQ!Q13</f>
         <v>6.42</v>
       </c>
-      <c r="J16" s="80">
+      <c r="K16" s="80">
         <f>FQ!Q15</f>
         <v>0.25900000000000001</v>
       </c>
-      <c r="K16" s="80">
+      <c r="L16" s="80">
         <f>FQ!Q16</f>
         <v>0.76849999999999996</v>
       </c>
-      <c r="L16" s="80">
+      <c r="M16" s="80">
         <f>FQ!Q17</f>
         <v>0.62809999999999999</v>
       </c>
-      <c r="M16" s="80">
+      <c r="N16" s="80">
         <f>FQ!Q18</f>
         <v>0.72750000000000004</v>
       </c>
-      <c r="N16" s="80">
+      <c r="O16" s="80">
         <f>FQ!Q19</f>
         <v>3.9011999999999998</v>
       </c>
-      <c r="O16" s="80">
+      <c r="P16" s="80">
         <f>FQ!Q20</f>
         <v>1.5860000000000001</v>
       </c>
-      <c r="P16" s="80">
+      <c r="Q16" s="80">
         <f>FQ!Q21</f>
         <v>58.224499999999999</v>
       </c>
-      <c r="Q16" s="107">
+      <c r="R16" s="107">
         <f>Carbono!Q7</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="R16" s="80">
+      <c r="S16" s="80">
         <f>Carbono!Q4</f>
         <v>17.100000000000001</v>
       </c>
-      <c r="S16" s="80">
+      <c r="T16" s="80">
         <f>Carbono!Q8</f>
         <v>36.6</v>
       </c>
-      <c r="T16" s="106">
+      <c r="U16" s="106">
         <f>Carbono!Q5</f>
         <v>35.5</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="131" t="s">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="109" t="s">
         <v>94</v>
       </c>
       <c r="B17" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="82">
+      <c r="C17" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="82">
         <f>FQ!R6</f>
         <v>80</v>
       </c>
-      <c r="D17" s="82">
+      <c r="E17" s="82">
         <f>FQ!R7</f>
         <v>2.95</v>
       </c>
-      <c r="E17" s="82">
+      <c r="F17" s="82">
         <f>FQ!R9</f>
         <v>122.1268</v>
       </c>
-      <c r="F17" s="82">
+      <c r="G17" s="82">
         <f>FQ!R10</f>
         <v>29.9</v>
       </c>
-      <c r="G17" s="82">
+      <c r="H17" s="82">
         <f>FQ!R11</f>
         <v>8.14</v>
       </c>
-      <c r="H17" s="85">
+      <c r="I17" s="85">
         <f>FQ!R12</f>
         <v>401</v>
       </c>
-      <c r="I17" s="85">
+      <c r="J17" s="85">
         <f>FQ!R13</f>
         <v>4.4400000000000004</v>
       </c>
-      <c r="J17" s="80">
+      <c r="K17" s="80">
         <f>FQ!R15</f>
         <v>0.27</v>
       </c>
-      <c r="K17" s="80">
+      <c r="L17" s="80">
         <f>FQ!R16</f>
         <v>0.745</v>
       </c>
-      <c r="L17" s="80">
+      <c r="M17" s="80">
         <f>FQ!R17</f>
         <v>0.71679999999999999</v>
       </c>
-      <c r="M17" s="80">
+      <c r="N17" s="80">
         <f>FQ!R18</f>
         <v>0.72719999999999996</v>
       </c>
-      <c r="N17" s="80">
+      <c r="O17" s="80">
         <f>FQ!R19</f>
         <v>4.0073999999999996</v>
       </c>
-      <c r="O17" s="80">
+      <c r="P17" s="80">
         <f>FQ!R20</f>
         <v>1.6102000000000001</v>
       </c>
-      <c r="P17" s="80">
+      <c r="Q17" s="80">
         <f>FQ!R21</f>
         <v>59.7072</v>
       </c>
-      <c r="Q17" s="107">
+      <c r="R17" s="107">
         <f>Carbono!R7</f>
         <v>15</v>
       </c>
-      <c r="R17" s="80">
+      <c r="S17" s="80">
         <f>Carbono!R4</f>
         <v>13.6</v>
       </c>
-      <c r="S17" s="80">
+      <c r="T17" s="80">
         <f>Carbono!R8</f>
         <v>34.200000000000003</v>
       </c>
-      <c r="T17" s="106">
+      <c r="U17" s="106">
         <f>Carbono!R5</f>
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="131" t="s">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="109" t="s">
         <v>94</v>
       </c>
       <c r="B18" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="82">
+      <c r="C18" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="82">
         <f>FQ!S6</f>
         <v>115</v>
       </c>
-      <c r="D18" s="82">
+      <c r="E18" s="82">
         <f>FQ!S7</f>
         <v>2.67</v>
       </c>
-      <c r="E18" s="82">
+      <c r="F18" s="82">
         <f>FQ!S9</f>
         <v>46.924800000000005</v>
       </c>
-      <c r="F18" s="82">
+      <c r="G18" s="82">
         <f>FQ!S10</f>
         <v>29.1</v>
       </c>
-      <c r="G18" s="82">
+      <c r="H18" s="82">
         <f>FQ!S11</f>
         <v>8.16</v>
       </c>
-      <c r="H18" s="85">
+      <c r="I18" s="85">
         <f>FQ!S12</f>
         <v>416</v>
       </c>
-      <c r="I18" s="85">
+      <c r="J18" s="85">
         <f>FQ!S13</f>
         <v>2.3199999999999998</v>
       </c>
-      <c r="J18" s="80">
+      <c r="K18" s="80">
         <f>FQ!S15</f>
         <v>0.23900000000000002</v>
       </c>
-      <c r="K18" s="80">
+      <c r="L18" s="80">
         <f>FQ!S16</f>
         <v>0.77880000000000005</v>
       </c>
-      <c r="L18" s="80">
+      <c r="M18" s="80">
         <f>FQ!S17</f>
         <v>0.47549999999999998</v>
       </c>
-      <c r="M18" s="80">
+      <c r="N18" s="80">
         <f>FQ!S18</f>
         <v>0.75960000000000005</v>
       </c>
-      <c r="N18" s="80">
+      <c r="O18" s="80">
         <f>FQ!S19</f>
         <v>4.3411999999999997</v>
       </c>
-      <c r="O18" s="80">
+      <c r="P18" s="80">
         <f>FQ!S20</f>
         <v>1.6574</v>
       </c>
-      <c r="P18" s="80">
+      <c r="Q18" s="80">
         <f>FQ!S21</f>
         <v>60.132100000000001</v>
       </c>
-      <c r="Q18" s="107">
+      <c r="R18" s="107">
         <f>Carbono!S7</f>
         <v>15.7</v>
       </c>
-      <c r="R18" s="80">
+      <c r="S18" s="80">
         <f>Carbono!S4</f>
         <v>14.6</v>
       </c>
-      <c r="S18" s="80">
+      <c r="T18" s="80">
         <f>Carbono!S8</f>
         <v>35</v>
       </c>
-      <c r="T18" s="106">
+      <c r="U18" s="106">
         <f>Carbono!S5</f>
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A19" s="131" t="s">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="109" t="s">
         <v>94</v>
       </c>
       <c r="B19" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="82">
+      <c r="C19" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="82">
         <f>FQ!T6</f>
         <v>94</v>
       </c>
-      <c r="D19" s="82">
+      <c r="E19" s="82">
         <f>FQ!T7</f>
         <v>1.49</v>
       </c>
-      <c r="E19" s="82">
+      <c r="F19" s="82">
         <f>FQ!T9</f>
         <v>125.88690000000003</v>
       </c>
-      <c r="F19" s="82">
+      <c r="G19" s="82">
         <f>FQ!T10</f>
         <v>29.2</v>
       </c>
-      <c r="G19" s="82">
+      <c r="H19" s="82">
         <f>FQ!T11</f>
         <v>8.3699999999999992</v>
       </c>
-      <c r="H19" s="85">
+      <c r="I19" s="85">
         <f>FQ!T12</f>
         <v>415</v>
       </c>
-      <c r="I19" s="85">
+      <c r="J19" s="85">
         <f>FQ!T13</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="J19" s="80">
+      <c r="K19" s="80">
         <f>FQ!T15</f>
         <v>0.26700000000000002</v>
       </c>
-      <c r="K19" s="80">
+      <c r="L19" s="80">
         <f>FQ!T16</f>
         <v>0.77290000000000003</v>
       </c>
-      <c r="L19" s="80">
+      <c r="M19" s="80">
         <f>FQ!T17</f>
         <v>0.63370000000000004</v>
       </c>
-      <c r="M19" s="80">
+      <c r="N19" s="80">
         <f>FQ!T18</f>
         <v>0.76259999999999994</v>
       </c>
-      <c r="N19" s="80">
+      <c r="O19" s="80">
         <f>FQ!T19</f>
         <v>4.1786000000000003</v>
       </c>
-      <c r="O19" s="80"/>
-      <c r="P19" s="80">
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80">
         <f>FQ!T21</f>
         <v>58.345599999999997</v>
       </c>
-      <c r="Q19" s="107">
+      <c r="R19" s="107">
         <f>Carbono!T7</f>
         <v>15.1</v>
       </c>
-      <c r="R19" s="80">
+      <c r="S19" s="80">
         <f>Carbono!T4</f>
         <v>15</v>
       </c>
-      <c r="S19" s="80">
+      <c r="T19" s="80">
         <f>Carbono!T8</f>
         <v>34.9</v>
       </c>
-      <c r="T19" s="106">
+      <c r="U19" s="106">
         <f>Carbono!T5</f>
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A20" s="131" t="s">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="109" t="s">
         <v>94</v>
       </c>
       <c r="B20" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="82">
+      <c r="C20" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="82">
         <f>FQ!U6</f>
         <v>51</v>
       </c>
-      <c r="D20" s="82">
+      <c r="E20" s="82">
         <f>FQ!U7</f>
         <v>4.59</v>
       </c>
-      <c r="E20" s="82">
+      <c r="F20" s="82">
         <f>FQ!U9</f>
         <v>95.806099999999986</v>
       </c>
-      <c r="F20" s="82">
+      <c r="G20" s="82">
         <f>FQ!U10</f>
         <v>28.9</v>
       </c>
-      <c r="G20" s="82">
+      <c r="H20" s="82">
         <f>FQ!U11</f>
         <v>8.6300000000000008</v>
       </c>
-      <c r="H20" s="85">
+      <c r="I20" s="85">
         <f>FQ!U12</f>
         <v>408</v>
       </c>
-      <c r="I20" s="85">
+      <c r="J20" s="85">
         <f>FQ!U13</f>
         <v>3.22</v>
       </c>
-      <c r="J20" s="80">
+      <c r="K20" s="80">
         <f>FQ!U15</f>
         <v>0.27300000000000002</v>
       </c>
-      <c r="K20" s="80">
+      <c r="L20" s="80">
         <f>FQ!U16</f>
         <v>0.79769999999999996</v>
       </c>
-      <c r="L20" s="80">
+      <c r="M20" s="80">
         <f>FQ!U17</f>
         <v>0.60460000000000003</v>
       </c>
-      <c r="M20" s="80">
+      <c r="N20" s="80">
         <f>FQ!U18</f>
         <v>0.65229999999999999</v>
       </c>
-      <c r="N20" s="80">
+      <c r="O20" s="80">
         <f>FQ!U19</f>
         <v>4.1092000000000004</v>
       </c>
-      <c r="O20" s="80">
+      <c r="P20" s="80">
         <f>FQ!U20</f>
         <v>1.6512</v>
       </c>
-      <c r="P20" s="80">
+      <c r="Q20" s="80">
         <f>FQ!U21</f>
         <v>48.6389</v>
       </c>
-      <c r="Q20" s="107">
+      <c r="R20" s="107">
         <f>Carbono!U7</f>
         <v>19.600000000000001</v>
       </c>
-      <c r="R20" s="80">
+      <c r="S20" s="80">
         <f>Carbono!U4</f>
         <v>18.7</v>
       </c>
-      <c r="S20" s="80">
+      <c r="T20" s="80">
         <f>Carbono!U8</f>
         <v>37.799999999999997</v>
       </c>
-      <c r="T20" s="106">
+      <c r="U20" s="106">
         <f>Carbono!U5</f>
         <v>36.4</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="131" t="s">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="109" t="s">
         <v>94</v>
       </c>
       <c r="B21" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="82">
+      <c r="C21" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="82">
         <f>FQ!V6</f>
         <v>53</v>
       </c>
-      <c r="D21" s="82">
+      <c r="E21" s="82">
         <f>FQ!V7</f>
         <v>3.59</v>
       </c>
-      <c r="E21" s="82">
+      <c r="F21" s="82">
         <f>FQ!V9</f>
         <v>69.485399999999998</v>
       </c>
-      <c r="F21" s="82">
+      <c r="G21" s="82">
         <f>FQ!V10</f>
         <v>28.9</v>
       </c>
-      <c r="G21" s="82">
+      <c r="H21" s="82">
         <f>FQ!V11</f>
         <v>8.49</v>
       </c>
-      <c r="H21" s="85">
+      <c r="I21" s="85">
         <f>FQ!V12</f>
         <v>408</v>
       </c>
-      <c r="I21" s="85">
+      <c r="J21" s="85">
         <f>FQ!V13</f>
         <v>3.24</v>
       </c>
-      <c r="J21" s="80">
+      <c r="K21" s="80">
         <f>FQ!V15</f>
         <v>0.25600000000000001</v>
       </c>
-      <c r="K21" s="80">
+      <c r="L21" s="80">
         <f>FQ!V16</f>
         <v>0.79600000000000004</v>
       </c>
-      <c r="L21" s="80">
+      <c r="M21" s="80">
         <f>FQ!V17</f>
         <v>0.65920000000000001</v>
       </c>
-      <c r="M21" s="80">
+      <c r="N21" s="80">
         <f>FQ!V18</f>
         <v>0.67879999999999996</v>
       </c>
-      <c r="N21" s="80">
+      <c r="O21" s="80">
         <f>FQ!V19</f>
         <v>5.1631999999999998</v>
       </c>
-      <c r="O21" s="80">
+      <c r="P21" s="80">
         <f>FQ!V20</f>
         <v>1.5498000000000001</v>
       </c>
-      <c r="P21" s="80">
+      <c r="Q21" s="80">
         <f>FQ!V21</f>
         <v>51.985799999999998</v>
       </c>
-      <c r="Q21" s="107">
+      <c r="R21" s="107">
         <f>Carbono!V7</f>
         <v>17.899999999999999</v>
       </c>
-      <c r="R21" s="80">
+      <c r="S21" s="80">
         <f>Carbono!V4</f>
         <v>15.9</v>
       </c>
-      <c r="S21" s="80">
+      <c r="T21" s="80">
         <f>Carbono!V8</f>
         <v>37.200000000000003</v>
       </c>
-      <c r="T21" s="106">
+      <c r="U21" s="106">
         <f>Carbono!V5</f>
         <v>32.4</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="131" t="s">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="109" t="s">
         <v>94</v>
       </c>
       <c r="B22" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="82">
+      <c r="C22" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="82">
         <f>FQ!W6</f>
         <v>56</v>
       </c>
-      <c r="D22" s="82">
+      <c r="E22" s="82">
         <f>FQ!W7</f>
         <v>3.83</v>
       </c>
-      <c r="E22" s="82">
+      <c r="F22" s="82">
         <f>FQ!W9</f>
         <v>92.045999999999992</v>
       </c>
-      <c r="F22" s="82">
+      <c r="G22" s="82">
         <f>FQ!W10</f>
         <v>29</v>
       </c>
-      <c r="G22" s="82">
+      <c r="H22" s="82">
         <f>FQ!W11</f>
         <v>8.7200000000000006</v>
       </c>
-      <c r="H22" s="85">
+      <c r="I22" s="85">
         <f>FQ!W12</f>
         <v>412</v>
       </c>
-      <c r="I22" s="85">
+      <c r="J22" s="85">
         <f>FQ!W13</f>
         <v>3.06</v>
       </c>
-      <c r="J22" s="80">
+      <c r="K22" s="80">
         <f>FQ!W15</f>
         <v>0.26100000000000001</v>
       </c>
-      <c r="K22" s="80">
+      <c r="L22" s="80">
         <f>FQ!W16</f>
         <v>0.75970000000000004</v>
       </c>
-      <c r="L22" s="80">
+      <c r="M22" s="80">
         <f>FQ!W17</f>
         <v>0.58220000000000005</v>
       </c>
-      <c r="M22" s="80">
+      <c r="N22" s="80">
         <f>FQ!W18</f>
         <v>0.6784</v>
       </c>
-      <c r="N22" s="80">
+      <c r="O22" s="80">
         <f>FQ!W19</f>
         <v>4.5148999999999999</v>
       </c>
-      <c r="O22" s="80">
+      <c r="P22" s="80">
         <f>FQ!W20</f>
         <v>1.9637</v>
       </c>
-      <c r="P22" s="80">
+      <c r="Q22" s="80">
         <f>FQ!W21</f>
         <v>63.304600000000001</v>
       </c>
-      <c r="Q22" s="107">
+      <c r="R22" s="107">
         <f>Carbono!W7</f>
         <v>18.100000000000001</v>
       </c>
-      <c r="R22" s="80">
+      <c r="S22" s="80">
         <f>Carbono!W4</f>
         <v>16.600000000000001</v>
       </c>
-      <c r="S22" s="80">
+      <c r="T22" s="80">
         <f>Carbono!W8</f>
         <v>36</v>
       </c>
-      <c r="T22" s="106">
+      <c r="U22" s="106">
         <f>Carbono!W5</f>
         <v>34.6</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="131" t="s">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="109" t="s">
         <v>95</v>
       </c>
       <c r="B23" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="82">
+      <c r="C23" s="106" t="str">
+        <f t="shared" ref="C23" si="2">IF(B23="Raw water","Raw water","-")</f>
+        <v>Raw water</v>
+      </c>
+      <c r="D23" s="82">
         <f>FQ!X6</f>
         <v>62.5</v>
       </c>
-      <c r="D23" s="82">
+      <c r="E23" s="82">
         <f>FQ!X7</f>
         <v>4.88</v>
       </c>
-      <c r="E23" s="82">
+      <c r="F23" s="82">
         <f>FQ!X9</f>
         <v>61.965199999999982</v>
       </c>
-      <c r="F23" s="82">
+      <c r="G23" s="82">
         <f>FQ!X10</f>
         <v>29.3</v>
       </c>
-      <c r="G23" s="82">
+      <c r="H23" s="82">
         <f>FQ!X11</f>
         <v>8.4</v>
       </c>
-      <c r="H23" s="85">
+      <c r="I23" s="85">
         <f>FQ!X12</f>
         <v>355</v>
       </c>
-      <c r="I23" s="85">
+      <c r="J23" s="85">
         <f>FQ!X13</f>
         <v>5.0199999999999996</v>
       </c>
-      <c r="J23" s="80">
+      <c r="K23" s="80">
         <f>FQ!X15</f>
         <v>0.24700000000000003</v>
       </c>
-      <c r="K23" s="80">
+      <c r="L23" s="80">
         <f>FQ!X16</f>
         <v>0.79139999999999999</v>
       </c>
-      <c r="L23" s="80">
+      <c r="M23" s="80">
         <f>FQ!X17</f>
         <v>0.3952</v>
       </c>
-      <c r="M23" s="80">
+      <c r="N23" s="80">
         <f>FQ!X18</f>
         <v>0.54479999999999995</v>
       </c>
-      <c r="N23" s="80">
+      <c r="O23" s="80">
         <f>FQ!X19</f>
         <v>4.2346000000000004</v>
       </c>
-      <c r="O23" s="80">
+      <c r="P23" s="80">
         <f>FQ!X20</f>
         <v>1.0511999999999999</v>
       </c>
-      <c r="P23" s="80">
+      <c r="Q23" s="80">
         <f>FQ!X21</f>
         <v>63.035299999999999</v>
       </c>
-      <c r="Q23" s="80">
+      <c r="R23" s="80">
         <f>Carbono!X7</f>
         <v>16.899999999999999</v>
       </c>
-      <c r="R23" s="80">
+      <c r="S23" s="80">
         <f>Carbono!X4</f>
         <v>13.5</v>
       </c>
-      <c r="S23" s="80">
+      <c r="T23" s="80">
         <f>Carbono!X8</f>
         <v>35.200000000000003</v>
       </c>
-      <c r="T23" s="106">
+      <c r="U23" s="106">
         <f>Carbono!X5</f>
         <v>30.3</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A24" s="131" t="s">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="109" t="s">
         <v>95</v>
       </c>
       <c r="B24" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="82">
+      <c r="C24" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="82">
         <f>FQ!Y6</f>
         <v>51.5</v>
       </c>
-      <c r="D24" s="82">
+      <c r="E24" s="82">
         <f>FQ!Y7</f>
         <v>4.8099999999999996</v>
       </c>
-      <c r="E24" s="82">
+      <c r="F24" s="82">
         <f>FQ!Y9</f>
         <v>69.485399999999998</v>
       </c>
-      <c r="F24" s="82">
+      <c r="G24" s="82">
         <f>FQ!Y10</f>
         <v>30.6</v>
       </c>
-      <c r="G24" s="82">
+      <c r="H24" s="82">
         <f>FQ!Y11</f>
         <v>8.9</v>
       </c>
-      <c r="H24" s="85">
+      <c r="I24" s="85">
         <f>FQ!Z12</f>
         <v>359</v>
       </c>
-      <c r="I24" s="85">
+      <c r="J24" s="85">
         <f>FQ!Y13</f>
         <v>3.19</v>
       </c>
-      <c r="J24" s="80">
+      <c r="K24" s="80">
         <f>FQ!Y15</f>
         <v>0.252</v>
       </c>
-      <c r="K24" s="80">
+      <c r="L24" s="80">
         <f>FQ!Y16</f>
         <v>0.83840000000000003</v>
       </c>
-      <c r="L24" s="80">
+      <c r="M24" s="80">
         <f>FQ!Y17</f>
         <v>0.4763</v>
       </c>
-      <c r="M24" s="80">
+      <c r="N24" s="80">
         <f>FQ!Y18</f>
         <v>0.31490000000000001</v>
       </c>
-      <c r="N24" s="80">
+      <c r="O24" s="80">
         <f>FQ!Y19</f>
         <v>5.1814</v>
       </c>
-      <c r="O24" s="80">
+      <c r="P24" s="80">
         <f>FQ!Y20</f>
         <v>1.3855</v>
       </c>
-      <c r="P24" s="80">
+      <c r="Q24" s="80">
         <f>FQ!Y21</f>
         <v>70.697199999999995</v>
       </c>
-      <c r="Q24" s="80">
+      <c r="R24" s="80">
         <f>Carbono!Y7</f>
         <v>17.2</v>
       </c>
-      <c r="R24" s="80">
+      <c r="S24" s="80">
         <f>Carbono!Y4</f>
         <v>15.6</v>
       </c>
-      <c r="S24" s="80">
+      <c r="T24" s="80">
         <f>Carbono!Y8</f>
         <v>35.1</v>
       </c>
-      <c r="T24" s="106">
+      <c r="U24" s="106">
         <f>Carbono!Y5</f>
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A25" s="131" t="s">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="109" t="s">
         <v>95</v>
       </c>
       <c r="B25" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="82">
+      <c r="C25" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="82">
         <f>FQ!Z6</f>
         <v>67</v>
       </c>
-      <c r="D25" s="82">
+      <c r="E25" s="82">
         <f>FQ!Z7</f>
         <v>4.2300000000000004</v>
       </c>
-      <c r="E25" s="82">
+      <c r="F25" s="82">
         <f>FQ!Z9</f>
         <v>69.485399999999998</v>
       </c>
-      <c r="F25" s="82">
+      <c r="G25" s="82">
         <f>FQ!Z10</f>
         <v>29.4</v>
       </c>
-      <c r="G25" s="82">
+      <c r="H25" s="82">
         <f>FQ!Z11</f>
         <v>8.75</v>
       </c>
-      <c r="H25" s="85">
+      <c r="I25" s="85">
         <f>FQ!Z12</f>
         <v>359</v>
       </c>
-      <c r="I25" s="85">
+      <c r="J25" s="85">
         <f>FQ!Z13</f>
         <v>3.33</v>
       </c>
-      <c r="J25" s="80">
+      <c r="K25" s="80">
         <f>FQ!Z15</f>
         <v>0.25</v>
       </c>
-      <c r="K25" s="80">
+      <c r="L25" s="80">
         <f>FQ!Z16</f>
         <v>0.85519999999999996</v>
       </c>
-      <c r="L25" s="80">
+      <c r="M25" s="80">
         <f>FQ!Z17</f>
         <v>0.55669999999999997</v>
       </c>
-      <c r="M25" s="80">
+      <c r="N25" s="80">
         <f>FQ!Z18</f>
         <v>0.1042</v>
       </c>
-      <c r="N25" s="80">
+      <c r="O25" s="80">
         <f>FQ!Z19</f>
         <v>5.4695</v>
       </c>
-      <c r="O25" s="80">
+      <c r="P25" s="80">
         <f>FQ!Z20</f>
         <v>1.4240999999999999</v>
       </c>
-      <c r="P25" s="80">
+      <c r="Q25" s="80">
         <f>FQ!Z21</f>
         <v>72.051100000000005</v>
       </c>
-      <c r="Q25" s="80">
+      <c r="R25" s="80">
         <f>Carbono!Z7</f>
         <v>18.5</v>
       </c>
-      <c r="R25" s="80">
+      <c r="S25" s="80">
         <f>Carbono!Z4</f>
         <v>17</v>
       </c>
-      <c r="S25" s="80">
+      <c r="T25" s="80">
         <f>Carbono!Z8</f>
         <v>36.299999999999997</v>
       </c>
-      <c r="T25" s="106">
+      <c r="U25" s="106">
         <f>Carbono!Z5</f>
         <v>35.299999999999997</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A26" s="131" t="s">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="109" t="s">
         <v>95</v>
       </c>
       <c r="B26" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="82">
+      <c r="C26" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="82">
         <f>FQ!AA6</f>
         <v>57</v>
       </c>
-      <c r="D26" s="82">
+      <c r="E26" s="82">
         <f>FQ!AA7</f>
         <v>5.07</v>
       </c>
-      <c r="E26" s="82">
+      <c r="F26" s="82">
         <f>FQ!AA9</f>
         <v>69.485399999999998</v>
       </c>
-      <c r="F26" s="82">
+      <c r="G26" s="82">
         <f>FQ!AA10</f>
         <v>29.2</v>
       </c>
-      <c r="G26" s="82">
+      <c r="H26" s="82">
         <f>FQ!AA11</f>
         <v>8.85</v>
       </c>
-      <c r="H26" s="85">
+      <c r="I26" s="85">
         <f>FQ!AA12</f>
         <v>360</v>
       </c>
-      <c r="I26" s="85">
+      <c r="J26" s="85">
         <f>FQ!AA13</f>
         <v>2.73</v>
       </c>
-      <c r="J26" s="80">
+      <c r="K26" s="80">
         <f>FQ!AA15</f>
         <v>0.24800000000000003</v>
       </c>
-      <c r="K26" s="80">
+      <c r="L26" s="80">
         <f>FQ!AA16</f>
         <v>0.95409999999999995</v>
       </c>
-      <c r="L26" s="80">
+      <c r="M26" s="80">
         <f>FQ!AA17</f>
         <v>0.52569999999999995</v>
       </c>
-      <c r="M26" s="80">
+      <c r="N26" s="80">
         <f>FQ!AA18</f>
         <v>1.1122000000000001</v>
       </c>
-      <c r="N26" s="80">
+      <c r="O26" s="80">
         <f>FQ!AA19</f>
         <v>5.5541</v>
       </c>
-      <c r="O26" s="80">
+      <c r="P26" s="80">
         <f>FQ!AA20</f>
         <v>1.8016000000000001</v>
       </c>
-      <c r="P26" s="80">
+      <c r="Q26" s="80">
         <f>FQ!AA21</f>
         <v>61.953400000000002</v>
       </c>
-      <c r="Q26" s="80">
+      <c r="R26" s="80">
         <f>Carbono!AA7</f>
         <v>17.5</v>
       </c>
-      <c r="R26" s="80">
+      <c r="S26" s="80">
         <f>Carbono!AA4</f>
         <v>17.3</v>
       </c>
-      <c r="S26" s="80">
+      <c r="T26" s="80">
         <f>Carbono!AA8</f>
         <v>35.4</v>
       </c>
-      <c r="T26" s="106">
+      <c r="U26" s="106">
         <f>Carbono!AA5</f>
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A27" s="131" t="s">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="109" t="s">
         <v>95</v>
       </c>
       <c r="B27" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="82">
+      <c r="C27" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="82">
         <f>FQ!AB6</f>
         <v>56</v>
       </c>
-      <c r="D27" s="82">
+      <c r="E27" s="82">
         <f>FQ!AB7</f>
         <v>5.99</v>
       </c>
-      <c r="E27" s="82">
+      <c r="F27" s="82">
         <f>FQ!AB9</f>
         <v>73.245499999999993</v>
       </c>
-      <c r="F27" s="82">
+      <c r="G27" s="82">
         <f>FQ!AB10</f>
         <v>29.4</v>
       </c>
-      <c r="G27" s="82">
+      <c r="H27" s="82">
         <f>FQ!AB11</f>
         <v>8.91</v>
       </c>
-      <c r="H27" s="85">
+      <c r="I27" s="85">
         <f>FQ!AB12</f>
         <v>413</v>
       </c>
-      <c r="I27" s="85">
+      <c r="J27" s="85">
         <f>FQ!AB13</f>
         <v>4.8499999999999996</v>
       </c>
-      <c r="J27" s="80">
+      <c r="K27" s="80">
         <f>FQ!AB15</f>
         <v>0.26500000000000001</v>
       </c>
-      <c r="K27" s="80">
+      <c r="L27" s="80">
         <f>FQ!AB16</f>
         <v>0.77170000000000005</v>
       </c>
-      <c r="L27" s="80">
+      <c r="M27" s="80">
         <f>FQ!AB17</f>
         <v>0.89119999999999999</v>
       </c>
-      <c r="M27" s="80">
+      <c r="N27" s="80">
         <f>FQ!AB18</f>
         <v>0.25879999999999997</v>
       </c>
-      <c r="N27" s="80">
+      <c r="O27" s="80">
         <f>FQ!AB19</f>
         <v>4.3441000000000001</v>
       </c>
-      <c r="O27" s="80">
+      <c r="P27" s="80">
         <f>FQ!AB20</f>
         <v>1.4597</v>
       </c>
-      <c r="P27" s="80">
+      <c r="Q27" s="80">
         <f>FQ!AB21</f>
         <v>59.087299999999999</v>
       </c>
-      <c r="Q27" s="80">
+      <c r="R27" s="80">
         <f>Carbono!AB7</f>
         <v>24.8</v>
       </c>
-      <c r="R27" s="80">
+      <c r="S27" s="80">
         <f>Carbono!AB4</f>
         <v>16.600000000000001</v>
       </c>
-      <c r="S27" s="80">
+      <c r="T27" s="80">
         <f>Carbono!AB8</f>
         <v>41.3</v>
       </c>
-      <c r="T27" s="106">
+      <c r="U27" s="106">
         <f>Carbono!AB5</f>
         <v>32.9</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A28" s="131" t="s">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="109" t="s">
         <v>95</v>
       </c>
       <c r="B28" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="82">
+      <c r="C28" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="82">
         <f>FQ!AC6</f>
         <v>58</v>
       </c>
-      <c r="D28" s="82">
+      <c r="E28" s="82">
         <f>FQ!AC7</f>
         <v>5.51</v>
       </c>
-      <c r="E28" s="82">
+      <c r="F28" s="82">
         <f>FQ!AC9</f>
         <v>84.525800000000004</v>
       </c>
-      <c r="F28" s="82">
+      <c r="G28" s="82">
         <f>FQ!AC10</f>
         <v>29.2</v>
       </c>
-      <c r="G28" s="82">
+      <c r="H28" s="82">
         <f>FQ!AC11</f>
         <v>8.81</v>
       </c>
-      <c r="H28" s="85">
+      <c r="I28" s="85">
         <f>FQ!AC12</f>
         <v>359</v>
       </c>
-      <c r="I28" s="85">
+      <c r="J28" s="85">
         <f>FQ!AC13</f>
         <v>4.7</v>
       </c>
-      <c r="J28" s="80">
+      <c r="K28" s="80">
         <f>FQ!AC15</f>
         <v>0.26600000000000001</v>
       </c>
-      <c r="K28" s="80">
+      <c r="L28" s="80">
         <f>FQ!AC16</f>
         <v>0.78569999999999995</v>
       </c>
-      <c r="L28" s="80">
+      <c r="M28" s="80">
         <f>FQ!AC17</f>
         <v>0.93930000000000002</v>
       </c>
-      <c r="M28" s="80">
+      <c r="N28" s="80">
         <f>FQ!AC18</f>
         <v>0.2104</v>
       </c>
-      <c r="N28" s="80">
+      <c r="O28" s="80">
         <f>FQ!AC19</f>
         <v>4.0427</v>
       </c>
-      <c r="O28" s="80">
+      <c r="P28" s="80">
         <f>FQ!AC20</f>
         <v>1.5509999999999999</v>
       </c>
-      <c r="P28" s="80">
+      <c r="Q28" s="80">
         <f>FQ!AC21</f>
         <v>59.497300000000003</v>
       </c>
-      <c r="Q28" s="80">
+      <c r="R28" s="80">
         <f>Carbono!AC7</f>
         <v>18.7</v>
       </c>
-      <c r="R28" s="80">
+      <c r="S28" s="80">
         <f>Carbono!AC4</f>
         <v>15</v>
       </c>
-      <c r="S28" s="80">
+      <c r="T28" s="80">
         <f>Carbono!AC8</f>
         <v>35.200000000000003</v>
       </c>
-      <c r="T28" s="106">
+      <c r="U28" s="106">
         <f>Carbono!AC5</f>
         <v>31.3</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A29" s="131" t="s">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="109" t="s">
         <v>95</v>
       </c>
       <c r="B29" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="82">
+      <c r="C29" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="82">
         <f>FQ!AD6</f>
         <v>54</v>
       </c>
-      <c r="D29" s="82">
+      <c r="E29" s="82">
         <f>FQ!AD7</f>
         <v>5.31</v>
       </c>
-      <c r="E29" s="82">
+      <c r="F29" s="82">
         <f>FQ!AD9</f>
         <v>84.525800000000004</v>
       </c>
-      <c r="F29" s="82">
+      <c r="G29" s="82">
         <f>FQ!AD10</f>
         <v>29</v>
       </c>
-      <c r="G29" s="82">
+      <c r="H29" s="82">
         <f>FQ!AD11</f>
         <v>8.9600000000000009</v>
       </c>
-      <c r="H29" s="85">
+      <c r="I29" s="85">
         <f>FQ!AD12</f>
         <v>369</v>
       </c>
-      <c r="I29" s="85">
+      <c r="J29" s="85">
         <f>FQ!AD13</f>
         <v>2.89</v>
       </c>
-      <c r="J29" s="80">
+      <c r="K29" s="80">
         <f>FQ!AD15</f>
         <v>0.26100000000000001</v>
       </c>
-      <c r="K29" s="80">
+      <c r="L29" s="80">
         <f>FQ!AD16</f>
         <v>0.78029999999999999</v>
       </c>
-      <c r="L29" s="80">
+      <c r="M29" s="80">
         <f>FQ!AD17</f>
         <v>0.52110000000000001</v>
       </c>
-      <c r="M29" s="80">
+      <c r="N29" s="80">
         <f>FQ!AD18</f>
         <v>0.36599999999999999</v>
       </c>
-      <c r="N29" s="80">
+      <c r="O29" s="80">
         <f>FQ!AD19</f>
         <v>5.5282</v>
       </c>
-      <c r="O29" s="80">
+      <c r="P29" s="80">
         <f>FQ!AD20</f>
         <v>1.4242999999999999</v>
       </c>
-      <c r="P29" s="80">
+      <c r="Q29" s="80">
         <f>FQ!AD21</f>
         <v>69.312600000000003</v>
       </c>
-      <c r="Q29" s="80">
+      <c r="R29" s="80">
         <f>Carbono!AD7</f>
         <v>21.2</v>
       </c>
-      <c r="R29" s="80">
+      <c r="S29" s="80">
         <f>Carbono!AD4</f>
         <v>18.8</v>
       </c>
-      <c r="S29" s="80">
+      <c r="T29" s="80">
         <f>Carbono!AD8</f>
         <v>37.799999999999997</v>
       </c>
-      <c r="T29" s="106">
+      <c r="U29" s="106">
         <f>Carbono!AD5</f>
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A30" s="131" t="s">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="109" t="s">
         <v>96</v>
       </c>
       <c r="B30" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="82">
+      <c r="C30" s="106" t="str">
+        <f t="shared" ref="C30" si="3">IF(B30="Raw water","Raw water","-")</f>
+        <v>Raw water</v>
+      </c>
+      <c r="D30" s="82">
         <f>FQ!AE6</f>
         <v>51</v>
       </c>
-      <c r="D30" s="82">
+      <c r="E30" s="82">
         <f>FQ!AE7</f>
         <v>6.22</v>
       </c>
-      <c r="E30" s="82">
+      <c r="F30" s="82">
         <f>FQ!AE9</f>
         <v>65.725299999999976</v>
       </c>
-      <c r="F30" s="82">
+      <c r="G30" s="82">
         <f>FQ!AE10</f>
         <v>29.9</v>
       </c>
-      <c r="G30" s="82">
+      <c r="H30" s="82">
         <f>FQ!AE11</f>
         <v>8.6300000000000008</v>
       </c>
-      <c r="H30" s="85">
+      <c r="I30" s="85">
         <f>FQ!AE12</f>
         <v>410</v>
       </c>
-      <c r="I30" s="85">
+      <c r="J30" s="85">
         <f>FQ!AE13</f>
         <v>5.59</v>
       </c>
-      <c r="J30" s="80">
+      <c r="K30" s="80">
         <f>FQ!AE15</f>
         <v>0.253</v>
       </c>
-      <c r="K30" s="80">
+      <c r="L30" s="80">
         <f>FQ!AE16</f>
         <v>0.79649999999999999</v>
       </c>
-      <c r="L30" s="80">
+      <c r="M30" s="80">
         <f>FQ!AE17</f>
         <v>0.9113</v>
       </c>
-      <c r="M30" s="80">
+      <c r="N30" s="80">
         <f>FQ!AE18</f>
         <v>0.25979999999999998</v>
       </c>
-      <c r="N30" s="80">
+      <c r="O30" s="80">
         <f>FQ!AE19</f>
         <v>4.5345000000000004</v>
       </c>
-      <c r="O30" s="80">
+      <c r="P30" s="80">
         <f>FQ!AE20</f>
         <v>1.0965</v>
       </c>
-      <c r="P30" s="80">
+      <c r="Q30" s="80">
         <f>FQ!AE21</f>
         <v>59.707700000000003</v>
       </c>
-      <c r="Q30" s="80">
+      <c r="R30" s="80">
         <f>Carbono!AE7</f>
         <v>15.9</v>
       </c>
-      <c r="R30" s="80">
+      <c r="S30" s="80">
         <f>Carbono!AE4</f>
         <v>12.8</v>
       </c>
-      <c r="S30" s="80">
+      <c r="T30" s="80">
         <f>Carbono!AE8</f>
         <v>34.799999999999997</v>
       </c>
-      <c r="T30" s="106">
+      <c r="U30" s="106">
         <f>Carbono!AE5</f>
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A31" s="131" t="s">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="109" t="s">
         <v>96</v>
       </c>
       <c r="B31" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="82">
+      <c r="C31" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="82">
         <f>FQ!AF6</f>
         <v>52</v>
       </c>
-      <c r="D31" s="82">
+      <c r="E31" s="82">
         <f>FQ!AF7</f>
         <v>5.19</v>
       </c>
-      <c r="E31" s="82">
+      <c r="F31" s="82">
         <f>FQ!AF9</f>
         <v>69.485399999999998</v>
       </c>
-      <c r="F31" s="82">
+      <c r="G31" s="82">
         <f>FQ!AF10</f>
         <v>29</v>
       </c>
-      <c r="G31" s="82">
+      <c r="H31" s="82">
         <f>FQ!AF11</f>
         <v>8.6999999999999993</v>
       </c>
-      <c r="H31" s="85">
+      <c r="I31" s="85">
         <f>FQ!AF12</f>
         <v>358</v>
       </c>
-      <c r="I31" s="85">
+      <c r="J31" s="85">
         <f>FQ!AF13</f>
         <v>4.79</v>
       </c>
-      <c r="J31" s="80">
+      <c r="K31" s="80">
         <f>FQ!AF15</f>
         <v>0.251</v>
       </c>
-      <c r="K31" s="80">
+      <c r="L31" s="80">
         <f>FQ!AF16</f>
         <v>0.78849999999999998</v>
       </c>
-      <c r="L31" s="80">
+      <c r="M31" s="80">
         <f>FQ!AF17</f>
         <v>0.67730000000000001</v>
       </c>
-      <c r="M31" s="80">
+      <c r="N31" s="80">
         <f>FQ!AF18</f>
         <v>0.45760000000000001</v>
       </c>
-      <c r="N31" s="80">
+      <c r="O31" s="80">
         <f>FQ!AF19</f>
         <v>4.7939999999999996</v>
       </c>
-      <c r="O31" s="80">
+      <c r="P31" s="80">
         <f>FQ!AF20</f>
         <v>1.3775999999999999</v>
       </c>
-      <c r="P31" s="80">
+      <c r="Q31" s="80">
         <f>FQ!AF21</f>
         <v>62.449300000000001</v>
       </c>
-      <c r="Q31" s="80">
+      <c r="R31" s="80">
         <f>Carbono!AF7</f>
         <v>16.3</v>
       </c>
-      <c r="R31" s="80">
+      <c r="S31" s="80">
         <f>Carbono!AF4</f>
         <v>15</v>
       </c>
-      <c r="S31" s="80">
+      <c r="T31" s="80">
         <f>Carbono!AF8</f>
         <v>34.700000000000003</v>
       </c>
-      <c r="T31" s="106">
+      <c r="U31" s="106">
         <f>Carbono!AF5</f>
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A32" s="131" t="s">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="109" t="s">
         <v>96</v>
       </c>
       <c r="B32" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="82">
+      <c r="C32" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="82">
         <f>FQ!AG6</f>
         <v>62</v>
       </c>
-      <c r="D32" s="82">
+      <c r="E32" s="82">
         <f>FQ!AG7</f>
         <v>4.12</v>
       </c>
-      <c r="E32" s="82">
+      <c r="F32" s="82">
         <f>FQ!AG9</f>
         <v>77.005599999999987</v>
       </c>
-      <c r="F32" s="82">
+      <c r="G32" s="82">
         <f>FQ!AG10</f>
         <v>29.1</v>
       </c>
-      <c r="G32" s="82">
+      <c r="H32" s="82">
         <f>FQ!AG11</f>
         <v>8.85</v>
       </c>
-      <c r="H32" s="85">
+      <c r="I32" s="85">
         <f>FQ!AG12</f>
         <v>360</v>
       </c>
-      <c r="I32" s="85">
+      <c r="J32" s="85">
         <f>FQ!AG13</f>
         <v>3.53</v>
       </c>
-      <c r="J32" s="80">
+      <c r="K32" s="80">
         <f>FQ!AG15</f>
         <v>0.246</v>
       </c>
-      <c r="K32" s="80">
+      <c r="L32" s="80">
         <f>FQ!AG16</f>
         <v>0.76400000000000001</v>
       </c>
-      <c r="L32" s="80">
+      <c r="M32" s="80">
         <f>FQ!AG17</f>
         <v>0.79310000000000003</v>
       </c>
-      <c r="M32" s="80">
+      <c r="N32" s="80">
         <f>FQ!AG18</f>
         <v>0.62749999999999995</v>
       </c>
-      <c r="N32" s="80">
+      <c r="O32" s="80">
         <f>FQ!AG19</f>
         <v>4.1638000000000002</v>
       </c>
-      <c r="O32" s="80">
+      <c r="P32" s="80">
         <f>FQ!AG20</f>
         <v>1.1994</v>
       </c>
-      <c r="P32" s="80">
+      <c r="Q32" s="80">
         <f>FQ!AG21</f>
         <v>61.288899999999998</v>
       </c>
-      <c r="Q32" s="80">
+      <c r="R32" s="80">
         <f>Carbono!AG7</f>
         <v>16.7</v>
       </c>
-      <c r="R32" s="80">
+      <c r="S32" s="80">
         <f>Carbono!AG4</f>
         <v>14</v>
       </c>
-      <c r="S32" s="80">
+      <c r="T32" s="80">
         <f>Carbono!AG8</f>
         <v>35.1</v>
       </c>
-      <c r="T32" s="106">
+      <c r="U32" s="106">
         <f>Carbono!AG5</f>
         <v>31.7</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="131" t="s">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" s="109" t="s">
         <v>96</v>
       </c>
       <c r="B33" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="82">
+      <c r="C33" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="82">
         <f>FQ!AH6</f>
         <v>58</v>
       </c>
-      <c r="D33" s="82">
+      <c r="E33" s="82">
         <f>FQ!AH7</f>
         <v>5.78</v>
       </c>
-      <c r="E33" s="82">
+      <c r="F33" s="82">
         <f>FQ!AH9</f>
         <v>77.005599999999987</v>
       </c>
-      <c r="F33" s="82">
+      <c r="G33" s="82">
         <f>FQ!AH10</f>
         <v>28.5</v>
       </c>
-      <c r="G33" s="82">
+      <c r="H33" s="82">
         <f>FQ!AH11</f>
         <v>8.8699999999999992</v>
       </c>
-      <c r="H33" s="85">
+      <c r="I33" s="85">
         <f>FQ!AH12</f>
         <v>359</v>
       </c>
-      <c r="I33" s="85">
+      <c r="J33" s="85">
         <f>FQ!AH13</f>
         <v>3.7</v>
       </c>
-      <c r="J33" s="80">
+      <c r="K33" s="80">
         <f>FQ!AH15</f>
         <v>0.245</v>
       </c>
-      <c r="K33" s="80">
+      <c r="L33" s="80">
         <f>FQ!AH16</f>
         <v>0.79159999999999997</v>
       </c>
-      <c r="L33" s="80">
+      <c r="M33" s="80">
         <f>FQ!AH17</f>
         <v>0.68759999999999999</v>
       </c>
-      <c r="M33" s="80">
+      <c r="N33" s="80">
         <f>FQ!AH18</f>
         <v>0.35289999999999999</v>
       </c>
-      <c r="N33" s="80">
+      <c r="O33" s="80">
         <f>FQ!AH19</f>
         <v>4.8193000000000001</v>
       </c>
-      <c r="O33" s="80">
+      <c r="P33" s="80">
         <f>FQ!AH20</f>
         <v>1.3369</v>
       </c>
-      <c r="P33" s="80">
+      <c r="Q33" s="80">
         <f>FQ!AH21</f>
         <v>66.957599999999999</v>
       </c>
-      <c r="Q33" s="80">
+      <c r="R33" s="80">
         <f>Carbono!AH7</f>
         <v>16.7</v>
       </c>
-      <c r="R33" s="80">
+      <c r="S33" s="80">
         <f>Carbono!AH4</f>
         <v>12.7</v>
       </c>
-      <c r="S33" s="80">
+      <c r="T33" s="80">
         <f>Carbono!AH8</f>
         <v>34.799999999999997</v>
       </c>
-      <c r="T33" s="106">
+      <c r="U33" s="106">
         <f>Carbono!AH5</f>
         <v>30.6</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="131" t="s">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" s="109" t="s">
         <v>96</v>
       </c>
       <c r="B34" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="82">
+      <c r="C34" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="82">
         <f>FQ!AI6</f>
         <v>52.5</v>
       </c>
-      <c r="D34" s="82">
+      <c r="E34" s="82">
         <f>FQ!AI7</f>
         <v>5.77</v>
       </c>
-      <c r="E34" s="82">
+      <c r="F34" s="82">
         <f>FQ!AI9</f>
         <v>77.005599999999987</v>
       </c>
-      <c r="F34" s="82">
+      <c r="G34" s="82">
         <f>FQ!AI10</f>
         <v>28.9</v>
       </c>
-      <c r="G34" s="82">
+      <c r="H34" s="82">
         <f>FQ!AI11</f>
         <v>8.82</v>
       </c>
-      <c r="H34" s="85">
+      <c r="I34" s="85">
         <f>FQ!AI12</f>
         <v>361</v>
       </c>
-      <c r="I34" s="85">
+      <c r="J34" s="85">
         <f>FQ!AI13</f>
         <v>4.34</v>
       </c>
-      <c r="J34" s="80">
+      <c r="K34" s="80">
         <f>FQ!AI15</f>
         <v>0.26299999999999996</v>
       </c>
-      <c r="K34" s="80">
+      <c r="L34" s="80">
         <f>FQ!AI16</f>
         <v>0.7954</v>
       </c>
-      <c r="L34" s="80">
+      <c r="M34" s="80">
         <f>FQ!AI17</f>
         <v>0.59470000000000001</v>
       </c>
-      <c r="M34" s="80">
+      <c r="N34" s="80">
         <f>FQ!AI18</f>
         <v>0.59799999999999998</v>
       </c>
-      <c r="N34" s="80">
+      <c r="O34" s="80">
         <f>FQ!AI19</f>
         <v>4.6154999999999999</v>
       </c>
-      <c r="O34" s="80">
+      <c r="P34" s="80">
         <f>FQ!AI20</f>
         <v>1.3369</v>
       </c>
-      <c r="P34" s="80">
+      <c r="Q34" s="80">
         <f>FQ!AI21</f>
         <v>57.914400000000001</v>
       </c>
-      <c r="Q34" s="80">
+      <c r="R34" s="80">
         <f>Carbono!AI7</f>
         <v>18.3</v>
       </c>
-      <c r="R34" s="80">
+      <c r="S34" s="80">
         <f>Carbono!AI4</f>
         <v>14.7</v>
       </c>
-      <c r="S34" s="80">
+      <c r="T34" s="80">
         <f>Carbono!AI8</f>
         <v>35.299999999999997</v>
       </c>
-      <c r="T34" s="106">
+      <c r="U34" s="106">
         <f>Carbono!AI5</f>
         <v>31.5</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="131" t="s">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="109" t="s">
         <v>96</v>
       </c>
       <c r="B35" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="82">
+      <c r="C35" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="82">
         <f>FQ!AJ6</f>
         <v>59</v>
       </c>
-      <c r="D35" s="82">
+      <c r="E35" s="82">
         <f>FQ!AJ7</f>
         <v>4.5</v>
       </c>
-      <c r="E35" s="82">
+      <c r="F35" s="82">
         <f>FQ!AJ9</f>
         <v>73.245499999999993</v>
       </c>
-      <c r="F35" s="82">
+      <c r="G35" s="82">
         <f>FQ!AJ10</f>
         <v>29.2</v>
       </c>
-      <c r="G35" s="82">
+      <c r="H35" s="82">
         <f>FQ!AJ11</f>
         <v>8.92</v>
       </c>
-      <c r="H35" s="85">
+      <c r="I35" s="85">
         <f>FQ!AJ12</f>
         <v>361</v>
       </c>
-      <c r="I35" s="85">
+      <c r="J35" s="85">
         <f>FQ!AJ13</f>
         <v>3.91</v>
       </c>
-      <c r="J35" s="80">
+      <c r="K35" s="80">
         <f>FQ!AJ15</f>
         <v>0.26</v>
       </c>
-      <c r="K35" s="80">
+      <c r="L35" s="80">
         <f>FQ!AJ16</f>
         <v>0.78139999999999998</v>
       </c>
-      <c r="L35" s="80">
+      <c r="M35" s="80">
         <f>FQ!AJ17</f>
         <v>0.76149999999999995</v>
       </c>
-      <c r="M35" s="80">
+      <c r="N35" s="80">
         <f>FQ!AJ18</f>
         <v>0.56989999999999996</v>
       </c>
-      <c r="N35" s="80">
+      <c r="O35" s="80">
         <f>FQ!AJ19</f>
         <v>4.3737000000000004</v>
       </c>
-      <c r="O35" s="80">
+      <c r="P35" s="80">
         <f>FQ!AJ20</f>
         <v>1.1738</v>
       </c>
-      <c r="P35" s="80">
+      <c r="Q35" s="80">
         <f>FQ!AJ21</f>
         <v>50.448099999999997</v>
       </c>
-      <c r="Q35" s="80">
+      <c r="R35" s="80">
         <f>Carbono!AJ7</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="R35" s="80">
+      <c r="S35" s="80">
         <f>Carbono!AJ4</f>
         <v>16.899999999999999</v>
       </c>
-      <c r="S35" s="80">
+      <c r="T35" s="80">
         <f>Carbono!AJ8</f>
         <v>34.700000000000003</v>
       </c>
-      <c r="T35" s="106">
+      <c r="U35" s="106">
         <f>Carbono!AJ5</f>
         <v>34.299999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="131" t="s">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="109" t="s">
         <v>96</v>
       </c>
       <c r="B36" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="82">
+      <c r="C36" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="82">
         <f>FQ!AK6</f>
         <v>49</v>
       </c>
-      <c r="D36" s="82">
+      <c r="E36" s="82">
         <f>FQ!AK7</f>
         <v>4.26</v>
       </c>
-      <c r="E36" s="82">
+      <c r="F36" s="82">
         <f>FQ!AK9</f>
         <v>77.005599999999987</v>
       </c>
-      <c r="F36" s="82">
+      <c r="G36" s="82">
         <f>FQ!AK10</f>
         <v>28.8</v>
       </c>
-      <c r="G36" s="82">
+      <c r="H36" s="82">
         <f>FQ!AK11</f>
         <v>8.91</v>
       </c>
-      <c r="H36" s="85">
+      <c r="I36" s="85">
         <f>FQ!AK12</f>
         <v>370</v>
       </c>
-      <c r="I36" s="85">
+      <c r="J36" s="85">
         <f>FQ!AK13</f>
         <v>3.8</v>
       </c>
-      <c r="J36" s="80">
+      <c r="K36" s="80">
         <f>FQ!AK15</f>
         <v>0.26499999999999996</v>
       </c>
-      <c r="K36" s="80">
+      <c r="L36" s="80">
         <f>FQ!AK16</f>
         <v>0.79949999999999999</v>
       </c>
-      <c r="L36" s="80">
+      <c r="M36" s="80">
         <f>FQ!AK17</f>
         <v>0.28149999999999997</v>
       </c>
-      <c r="M36" s="80">
+      <c r="N36" s="80">
         <f>FQ!AK18</f>
         <v>0.43259999999999998</v>
       </c>
-      <c r="N36" s="80">
+      <c r="O36" s="80">
         <f>FQ!AK19</f>
         <v>4.7030000000000003</v>
       </c>
-      <c r="O36" s="80">
+      <c r="P36" s="80">
         <f>FQ!AK20</f>
         <v>1.3601000000000001</v>
       </c>
-      <c r="P36" s="80">
+      <c r="Q36" s="80">
         <f>FQ!AK21</f>
         <v>52.900199999999998</v>
       </c>
-      <c r="Q36" s="80">
+      <c r="R36" s="80">
         <f>Carbono!AK7</f>
         <v>19.100000000000001</v>
       </c>
-      <c r="R36" s="80">
+      <c r="S36" s="80">
         <f>Carbono!AK4</f>
         <v>18.2</v>
       </c>
-      <c r="S36" s="80">
+      <c r="T36" s="80">
         <f>Carbono!AK8</f>
         <v>37.4</v>
       </c>
-      <c r="T36" s="106">
+      <c r="U36" s="106">
         <f>Carbono!AK5</f>
         <v>35.9</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A37" s="131" t="s">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37" s="109" t="s">
         <v>97</v>
       </c>
       <c r="B37" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="82">
+      <c r="C37" s="106" t="str">
+        <f t="shared" ref="C37" si="4">IF(B37="Raw water","Raw water","-")</f>
+        <v>Raw water</v>
+      </c>
+      <c r="D37" s="82">
         <f>FQ!AL6</f>
         <v>47</v>
       </c>
-      <c r="D37" s="82">
+      <c r="E37" s="82">
         <f>FQ!AL7</f>
         <v>10.1</v>
       </c>
-      <c r="E37" s="82">
+      <c r="F37" s="82">
         <f>FQ!AL9</f>
         <v>84.525800000000004</v>
       </c>
-      <c r="F37" s="82">
+      <c r="G37" s="82">
         <f>FQ!AL10</f>
         <v>29.5</v>
       </c>
-      <c r="G37" s="82">
+      <c r="H37" s="82">
         <f>FQ!AL11</f>
         <v>8.73</v>
       </c>
-      <c r="H37" s="85">
+      <c r="I37" s="85">
         <f>FQ!AL12</f>
         <v>362</v>
       </c>
-      <c r="I37" s="85">
+      <c r="J37" s="85">
         <f>FQ!AL13</f>
         <v>3.86</v>
       </c>
-      <c r="J37" s="80">
+      <c r="K37" s="80">
         <f>FQ!AL15</f>
         <v>0.45700000000000002</v>
       </c>
-      <c r="K37" s="80">
+      <c r="L37" s="80">
         <f>FQ!AL16</f>
         <v>0.84050000000000002</v>
       </c>
-      <c r="L37" s="80">
+      <c r="M37" s="80">
         <f>FQ!AL17</f>
         <v>1.004</v>
       </c>
-      <c r="M37" s="80">
+      <c r="N37" s="80">
         <f>FQ!AL18</f>
         <v>0.30759999999999998</v>
       </c>
-      <c r="N37" s="80">
+      <c r="O37" s="80">
         <f>FQ!AL19</f>
         <v>4.8726000000000003</v>
       </c>
-      <c r="O37" s="80">
+      <c r="P37" s="80">
         <f>FQ!AL20</f>
         <v>1.5659000000000001</v>
       </c>
-      <c r="P37" s="80">
+      <c r="Q37" s="80">
         <f>FQ!AL21</f>
         <v>69.394099999999995</v>
       </c>
-      <c r="Q37" s="80">
+      <c r="R37" s="80">
         <f>Carbono!AL7</f>
         <v>11.2</v>
       </c>
-      <c r="R37" s="80">
+      <c r="S37" s="80">
         <f>Carbono!AL4</f>
         <v>10.6</v>
       </c>
-      <c r="S37" s="80">
+      <c r="T37" s="80">
         <f>Carbono!AL8</f>
         <v>23.8</v>
       </c>
-      <c r="T37" s="106">
+      <c r="U37" s="106">
         <f>Carbono!AL5</f>
         <v>22.4</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="131" t="s">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" s="109" t="s">
         <v>97</v>
       </c>
       <c r="B38" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="82">
+      <c r="C38" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="82">
         <f>FQ!AM6</f>
         <v>61</v>
       </c>
-      <c r="D38" s="82">
+      <c r="E38" s="82">
         <f>FQ!AM7</f>
         <v>6.06</v>
       </c>
-      <c r="E38" s="82">
+      <c r="F38" s="82">
         <f>FQ!AM9</f>
         <v>73.245499999999993</v>
       </c>
-      <c r="F38" s="82">
+      <c r="G38" s="82">
         <f>FQ!AM10</f>
         <v>30.2</v>
       </c>
-      <c r="G38" s="82">
+      <c r="H38" s="82">
         <f>FQ!AM11</f>
         <v>8.7200000000000006</v>
       </c>
-      <c r="H38" s="85">
+      <c r="I38" s="85">
         <f>FQ!AM12</f>
         <v>362</v>
       </c>
-      <c r="I38" s="85">
+      <c r="J38" s="85">
         <f>FQ!AM13</f>
         <v>3.54</v>
       </c>
-      <c r="J38" s="80">
+      <c r="K38" s="80">
         <f>FQ!AM15</f>
         <v>0.251</v>
       </c>
-      <c r="K38" s="80">
+      <c r="L38" s="80">
         <f>FQ!AM16</f>
         <v>0.80589999999999995</v>
       </c>
-      <c r="L38" s="80">
+      <c r="M38" s="80">
         <f>FQ!AM17</f>
         <v>0.79830000000000001</v>
       </c>
-      <c r="M38" s="80">
+      <c r="N38" s="80">
         <f>FQ!AM18</f>
         <v>0.30930000000000002</v>
       </c>
-      <c r="N38" s="80">
+      <c r="O38" s="80">
         <f>FQ!AM19</f>
         <v>4.6219000000000001</v>
       </c>
-      <c r="O38" s="80">
+      <c r="P38" s="80">
         <f>FQ!AM20</f>
         <v>1.3446</v>
       </c>
-      <c r="P38" s="80">
+      <c r="Q38" s="80">
         <f>FQ!AM21</f>
         <v>64.452299999999994</v>
       </c>
-      <c r="Q38" s="80">
+      <c r="R38" s="80">
         <f>Carbono!AM7</f>
         <v>10.5</v>
       </c>
-      <c r="R38" s="80">
+      <c r="S38" s="80">
         <f>Carbono!AM4</f>
         <v>11.9</v>
       </c>
-      <c r="S38" s="80">
+      <c r="T38" s="80">
         <f>Carbono!AM8</f>
         <v>23.5</v>
       </c>
-      <c r="T38" s="106">
+      <c r="U38" s="106">
         <f>Carbono!AM5</f>
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="131" t="s">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A39" s="109" t="s">
         <v>97</v>
       </c>
       <c r="B39" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="82">
+      <c r="C39" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="82">
         <f>FQ!AN6</f>
         <v>59</v>
       </c>
-      <c r="D39" s="82">
+      <c r="E39" s="82">
         <f>FQ!AN7</f>
         <v>5.35</v>
       </c>
-      <c r="E39" s="82">
+      <c r="F39" s="82">
         <f>FQ!AN9</f>
         <v>88.28589999999997</v>
       </c>
-      <c r="F39" s="82">
+      <c r="G39" s="82">
         <f>FQ!AN10</f>
         <v>29.2</v>
       </c>
-      <c r="G39" s="82">
+      <c r="H39" s="82">
         <f>FQ!AN11</f>
         <v>8.9</v>
       </c>
-      <c r="H39" s="85">
+      <c r="I39" s="85">
         <f>FQ!AN12</f>
         <v>364</v>
       </c>
-      <c r="I39" s="85">
+      <c r="J39" s="85">
         <f>FQ!AN13</f>
         <v>4.03</v>
       </c>
-      <c r="J39" s="80">
+      <c r="K39" s="80">
         <f>FQ!AN15</f>
         <v>0.26</v>
-      </c>
-      <c r="K39" s="80">
-        <f>FQ!AN17</f>
-        <v>0.78339999999999999</v>
       </c>
       <c r="L39" s="80">
         <f>FQ!AN17</f>
         <v>0.78339999999999999</v>
       </c>
       <c r="M39" s="80">
+        <f>FQ!AN17</f>
+        <v>0.78339999999999999</v>
+      </c>
+      <c r="N39" s="80">
         <f>FQ!AN18</f>
         <v>0.44359999999999999</v>
       </c>
-      <c r="N39" s="80">
+      <c r="O39" s="80">
         <f>FQ!AN19</f>
         <v>5.7550999999999997</v>
       </c>
-      <c r="O39" s="80">
+      <c r="P39" s="80">
         <f>FQ!AN20</f>
         <v>0.55789999999999995</v>
       </c>
-      <c r="P39" s="80">
+      <c r="Q39" s="80">
         <f>FQ!AN21</f>
         <v>64.231399999999994</v>
       </c>
-      <c r="Q39" s="80">
+      <c r="R39" s="80">
         <f>Carbono!AN7</f>
         <v>9.7799999999999994</v>
       </c>
-      <c r="R39" s="80">
+      <c r="S39" s="80">
         <f>Carbono!AN4</f>
         <v>9.5500000000000007</v>
       </c>
-      <c r="S39" s="80">
+      <c r="T39" s="80">
         <f>Carbono!AN8</f>
         <v>22.4</v>
       </c>
-      <c r="T39" s="106">
+      <c r="U39" s="106">
         <f>Carbono!AN5</f>
         <v>22.4</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A40" s="131" t="s">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40" s="109" t="s">
         <v>97</v>
       </c>
       <c r="B40" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="C40" s="82">
+      <c r="C40" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="82">
         <f>FQ!AO6</f>
         <v>52.5</v>
       </c>
-      <c r="D40" s="82">
+      <c r="E40" s="82">
         <f>FQ!AO7</f>
         <v>6.51</v>
       </c>
-      <c r="E40" s="82">
+      <c r="F40" s="82">
         <f>FQ!AO9</f>
         <v>69.485399999999998</v>
       </c>
-      <c r="F40" s="82">
+      <c r="G40" s="82">
         <f>FQ!AO10</f>
         <v>29</v>
       </c>
-      <c r="G40" s="82">
+      <c r="H40" s="82">
         <f>FQ!AO11</f>
         <v>9.02</v>
       </c>
-      <c r="H40" s="85">
+      <c r="I40" s="85">
         <f>FQ!AO12</f>
         <v>363</v>
       </c>
-      <c r="I40" s="85">
+      <c r="J40" s="85">
         <f>FQ!AO13</f>
         <v>3.64</v>
       </c>
-      <c r="J40" s="80">
+      <c r="K40" s="80">
         <f>FQ!AO15</f>
         <v>0.24199999999999999</v>
       </c>
-      <c r="K40" s="80">
+      <c r="L40" s="80">
         <f>FQ!AO16</f>
         <v>0.80130000000000001</v>
       </c>
-      <c r="L40" s="80">
+      <c r="M40" s="80">
         <f>FQ!AO17</f>
         <v>1.6014999999999999</v>
       </c>
-      <c r="M40" s="80">
+      <c r="N40" s="80">
         <f>FQ!AO18</f>
         <v>0.57030000000000003</v>
       </c>
-      <c r="N40" s="80">
+      <c r="O40" s="80">
         <f>FQ!AO19</f>
         <v>4.3563999999999998</v>
       </c>
-      <c r="O40" s="80">
+      <c r="P40" s="80">
         <f>FQ!AO20</f>
         <v>1.3051999999999999</v>
       </c>
-      <c r="P40" s="80">
+      <c r="Q40" s="80">
         <f>FQ!AO21</f>
         <v>69.578299999999999</v>
       </c>
-      <c r="Q40" s="80">
+      <c r="R40" s="80">
         <f>Carbono!AO7</f>
         <v>10.8</v>
       </c>
-      <c r="R40" s="80">
+      <c r="S40" s="80">
         <f>Carbono!AO4</f>
         <v>8.2200000000000006</v>
       </c>
-      <c r="S40" s="80">
+      <c r="T40" s="80">
         <f>Carbono!AO8</f>
         <v>23.4</v>
       </c>
-      <c r="T40" s="106">
+      <c r="U40" s="106">
         <f>Carbono!AO5</f>
         <v>20.9</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A41" s="131" t="s">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41" s="109" t="s">
         <v>97</v>
       </c>
       <c r="B41" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="82">
+      <c r="C41" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="82">
         <f>FQ!AP6</f>
         <v>51</v>
       </c>
-      <c r="D41" s="82">
+      <c r="E41" s="82">
         <f>FQ!AP7</f>
         <v>7.27</v>
       </c>
-      <c r="E41" s="82">
+      <c r="F41" s="82">
         <f>FQ!AP9</f>
         <v>77.005599999999987</v>
       </c>
-      <c r="F41" s="82">
+      <c r="G41" s="82">
         <f>FQ!AP10</f>
         <v>29</v>
       </c>
-      <c r="G41" s="82">
+      <c r="H41" s="82">
         <f>FQ!AP11</f>
         <v>8.82</v>
       </c>
-      <c r="H41" s="85">
+      <c r="I41" s="85">
         <f>FQ!AP12</f>
         <v>365</v>
       </c>
-      <c r="I41" s="85">
+      <c r="J41" s="85">
         <f>FQ!AP13</f>
         <v>6.3</v>
       </c>
-      <c r="J41" s="80">
+      <c r="K41" s="80">
         <f>FQ!AP15</f>
         <v>0.26100000000000001</v>
       </c>
-      <c r="K41" s="80">
+      <c r="L41" s="80">
         <f>FQ!AP16</f>
         <v>0.77569999999999995</v>
       </c>
-      <c r="L41" s="80">
+      <c r="M41" s="80">
         <f>FQ!AP17</f>
         <v>0.84140000000000004</v>
       </c>
-      <c r="M41" s="80">
+      <c r="N41" s="80">
         <f>FQ!AP18</f>
         <v>0.49640000000000001</v>
       </c>
-      <c r="N41" s="80">
+      <c r="O41" s="80">
         <f>FQ!AP19</f>
         <v>5.3734000000000002</v>
       </c>
-      <c r="O41" s="80">
+      <c r="P41" s="80">
         <f>FQ!AP20</f>
         <v>1.5755999999999999</v>
       </c>
-      <c r="P41" s="80">
+      <c r="Q41" s="80">
         <f>FQ!AP21</f>
         <v>76.540999999999997</v>
       </c>
-      <c r="Q41" s="80">
+      <c r="R41" s="80">
         <f>Carbono!AP7</f>
         <v>12.1</v>
       </c>
-      <c r="R41" s="80">
+      <c r="S41" s="80">
         <f>Carbono!AP4</f>
         <v>11</v>
       </c>
-      <c r="S41" s="80">
+      <c r="T41" s="80">
         <f>Carbono!AP8</f>
         <v>25.4</v>
       </c>
-      <c r="T41" s="106">
+      <c r="U41" s="106">
         <f>Carbono!AP5</f>
         <v>23.4</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A42" s="131" t="s">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42" s="109" t="s">
         <v>97</v>
       </c>
       <c r="B42" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="82">
+      <c r="C42" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="82">
         <f>FQ!AQ6</f>
         <v>55</v>
       </c>
-      <c r="D42" s="82">
+      <c r="E42" s="82">
         <f>FQ!AQ7</f>
         <v>5.17</v>
       </c>
-      <c r="E42" s="82">
+      <c r="F42" s="82">
         <f>FQ!AQ9</f>
         <v>88.28589999999997</v>
       </c>
-      <c r="F42" s="82">
+      <c r="G42" s="82">
         <f>FQ!AQ10</f>
         <v>29.6</v>
       </c>
-      <c r="G42" s="82">
+      <c r="H42" s="82">
         <f>FQ!AQ11</f>
         <v>8.8000000000000007</v>
       </c>
-      <c r="H42" s="85">
+      <c r="I42" s="85">
         <f>FQ!AQ12</f>
         <v>366</v>
       </c>
-      <c r="I42" s="85">
+      <c r="J42" s="85">
         <f>FQ!AQ13</f>
         <v>4.7300000000000004</v>
       </c>
-      <c r="J42" s="80">
+      <c r="K42" s="80">
         <f>FQ!AQ15</f>
         <v>0.25900000000000001</v>
       </c>
-      <c r="K42" s="80">
+      <c r="L42" s="80">
         <f>FQ!AQ16</f>
         <v>0.99839999999999995</v>
       </c>
-      <c r="L42" s="80">
+      <c r="M42" s="80">
         <f>FQ!AQ17</f>
         <v>0.76470000000000005</v>
       </c>
-      <c r="M42" s="80">
+      <c r="N42" s="80">
         <f>FQ!AQ18</f>
         <v>0.51180000000000003</v>
       </c>
-      <c r="N42" s="80">
+      <c r="O42" s="80">
         <f>FQ!AQ19</f>
         <v>4.3349000000000002</v>
       </c>
-      <c r="O42" s="80">
+      <c r="P42" s="80">
         <f>FQ!AQ20</f>
         <v>1.4623999999999999</v>
       </c>
-      <c r="P42" s="80">
+      <c r="Q42" s="80">
         <f>FQ!AQ21</f>
         <v>64.367900000000006</v>
       </c>
-      <c r="Q42" s="80">
+      <c r="R42" s="80">
         <f>Carbono!AQ7</f>
         <v>11.4</v>
       </c>
-      <c r="R42" s="80">
+      <c r="S42" s="80">
         <f>Carbono!AQ4</f>
         <v>10.5</v>
       </c>
-      <c r="S42" s="80">
+      <c r="T42" s="80">
         <f>Carbono!AQ8</f>
         <v>24.3</v>
       </c>
-      <c r="T42" s="106">
+      <c r="U42" s="106">
         <f>Carbono!AQ5</f>
         <v>23.2</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A43" s="131" t="s">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43" s="109" t="s">
         <v>97</v>
       </c>
       <c r="B43" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="82">
+      <c r="C43" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="D43" s="82">
         <f>FQ!AR6</f>
         <v>36.5</v>
       </c>
-      <c r="D43" s="82">
+      <c r="E43" s="82">
         <f>FQ!AR7</f>
         <v>10.1</v>
       </c>
-      <c r="E43" s="82">
+      <c r="F43" s="82">
         <f>FQ!AR9</f>
         <v>77.005599999999987</v>
       </c>
-      <c r="F43" s="82">
+      <c r="G43" s="82">
         <f>FQ!AR10</f>
         <v>28.9</v>
       </c>
-      <c r="G43" s="82">
+      <c r="H43" s="82">
         <f>FQ!AR11</f>
         <v>9.3000000000000007</v>
       </c>
-      <c r="H43" s="85">
+      <c r="I43" s="85">
         <f>FQ!AR12</f>
         <v>437</v>
       </c>
-      <c r="I43" s="85">
+      <c r="J43" s="85">
         <f>FQ!AR13</f>
         <v>4.2</v>
       </c>
-      <c r="J43" s="80">
+      <c r="K43" s="80">
         <f>FQ!AR15</f>
         <v>0.26200000000000001</v>
       </c>
-      <c r="K43" s="80">
+      <c r="L43" s="80">
         <f>FQ!AR16</f>
         <v>0.8377</v>
       </c>
-      <c r="L43" s="80">
+      <c r="M43" s="80">
         <f>FQ!AR17</f>
         <v>0.98519999999999996</v>
       </c>
-      <c r="M43" s="80">
+      <c r="N43" s="80">
         <f>FQ!AR18</f>
         <v>0.40589999999999998</v>
       </c>
-      <c r="N43" s="80">
+      <c r="O43" s="80">
         <f>FQ!AR19</f>
         <v>5.0883000000000003</v>
       </c>
-      <c r="O43" s="80">
+      <c r="P43" s="80">
         <f>FQ!AR20</f>
         <v>1.4414</v>
       </c>
-      <c r="P43" s="80">
+      <c r="Q43" s="80">
         <f>FQ!AR21</f>
         <v>72.276200000000003</v>
       </c>
-      <c r="Q43" s="80">
+      <c r="R43" s="80">
         <f>Carbono!AR7</f>
         <v>14.6</v>
       </c>
-      <c r="R43" s="80">
+      <c r="S43" s="80">
         <f>Carbono!AR4</f>
         <v>12.1</v>
       </c>
-      <c r="S43" s="80">
+      <c r="T43" s="80">
         <f>Carbono!AR8</f>
         <v>27.1</v>
       </c>
-      <c r="T43" s="106">
+      <c r="U43" s="106">
         <f>Carbono!AR5</f>
         <v>23.8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J43"/>
+  <autoFilter ref="A1:K43" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AE116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -34406,77 +34567,77 @@
       <c r="A1" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="130" t="s">
+      <c r="B1" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="129" t="str">
-        <f>DATASETFQ!D1</f>
-        <v>Turbidity (uT)</v>
-      </c>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129" t="str">
+      <c r="C1" s="131"/>
+      <c r="D1" s="128" t="str">
         <f>DATASETFQ!E1</f>
-        <v>True color (uH)</v>
-      </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129" t="str">
+        <v xml:space="preserve">Turbidity </v>
+      </c>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128" t="str">
         <f>DATASETFQ!F1</f>
-        <v>Temperature (°C)</v>
-      </c>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129" t="str">
+        <v>TC</v>
+      </c>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128" t="str">
         <f>DATASETFQ!G1</f>
+        <v>Temperature</v>
+      </c>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128" t="str">
+        <f>DATASETFQ!H1</f>
         <v>pH</v>
       </c>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129" t="str">
-        <f>DATASETFQ!H1</f>
-        <v>Conductivity (µS/cm)</v>
-      </c>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129" t="str">
+      <c r="K1" s="128"/>
+      <c r="L1" s="128" t="str">
         <f>DATASETFQ!I1</f>
-        <v>Dissolved oxygen  (mg/L)</v>
-      </c>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129" t="str">
+        <v>Conductivity</v>
+      </c>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128" t="str">
         <f>DATASETFQ!J1</f>
-        <v>Organic matter (254 Abs)</v>
-      </c>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129" t="str">
+        <v>DO</v>
+      </c>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128" t="str">
         <f>DATASETFQ!K1</f>
-        <v>Nitrite (mg/L)</v>
-      </c>
-      <c r="S1" s="129"/>
-      <c r="T1" s="129" t="str">
+        <v>254um</v>
+      </c>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128" t="str">
         <f>DATASETFQ!L1</f>
-        <v>Nitrate (mg/L)</v>
-      </c>
-      <c r="U1" s="129"/>
-      <c r="V1" s="129" t="str">
+        <v>Nitrite</v>
+      </c>
+      <c r="S1" s="128"/>
+      <c r="T1" s="128" t="str">
         <f>DATASETFQ!M1</f>
-        <v>Orthophosphate (mg/L)</v>
-      </c>
-      <c r="W1" s="129"/>
-      <c r="X1" s="129" t="str">
+        <v>Nitrate</v>
+      </c>
+      <c r="U1" s="128"/>
+      <c r="V1" s="128" t="str">
         <f>DATASETFQ!N1</f>
-        <v>Sulfate (mg/L)</v>
-      </c>
-      <c r="Y1" s="129"/>
-      <c r="Z1" s="129" t="str">
+        <v>Orthophosphate</v>
+      </c>
+      <c r="W1" s="128"/>
+      <c r="X1" s="128" t="str">
         <f>DATASETFQ!O1</f>
-        <v>Fluoride (mg/L)</v>
-      </c>
-      <c r="AA1" s="129"/>
-      <c r="AB1" s="129" t="str">
+        <v>Sulfate</v>
+      </c>
+      <c r="Y1" s="128"/>
+      <c r="Z1" s="128" t="str">
         <f>DATASETFQ!P1</f>
-        <v>Chloride (mg/L)</v>
-      </c>
-      <c r="AC1" s="129"/>
-      <c r="AD1" s="128"/>
-      <c r="AE1" s="128"/>
+        <v>Fluoride</v>
+      </c>
+      <c r="AA1" s="128"/>
+      <c r="AB1" s="128" t="str">
+        <f>DATASETFQ!Q1</f>
+        <v>Chloride</v>
+      </c>
+      <c r="AC1" s="128"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="86"/>
@@ -34566,349 +34727,349 @@
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="130" t="s">
         <v>79</v>
       </c>
       <c r="B3" s="98">
-        <f>DATASETFQ!C6</f>
+        <f>DATASETFQ!D6</f>
         <v>50</v>
       </c>
       <c r="C3" s="98">
-        <f>DATASETFQ!C3</f>
+        <f>DATASETFQ!D3</f>
         <v>49</v>
       </c>
       <c r="D3" s="97">
-        <f>DATASETFQ!D6</f>
+        <f>DATASETFQ!E6</f>
         <v>6.55</v>
       </c>
       <c r="E3" s="97">
-        <f>DATASETFQ!D3</f>
+        <f>DATASETFQ!E3</f>
         <v>6.71</v>
       </c>
       <c r="F3" s="97">
-        <f>DATASETFQ!E6</f>
+        <f>DATASETFQ!F6</f>
         <v>65.725299999999976</v>
       </c>
       <c r="G3" s="98">
-        <f>DATASETFQ!E3</f>
+        <f>DATASETFQ!F3</f>
         <v>65.725299999999976</v>
       </c>
       <c r="H3" s="97">
-        <f>DATASETFQ!F6</f>
+        <f>DATASETFQ!G6</f>
         <v>28.6</v>
       </c>
       <c r="I3" s="97">
-        <f>DATASETFQ!F3</f>
+        <f>DATASETFQ!G3</f>
         <v>30.2</v>
       </c>
       <c r="J3" s="97">
-        <f>DATASETFQ!G6</f>
+        <f>DATASETFQ!H6</f>
         <v>8.7799999999999994</v>
       </c>
       <c r="K3" s="97">
-        <f>DATASETFQ!G3</f>
+        <f>DATASETFQ!H3</f>
         <v>8.6999999999999993</v>
       </c>
       <c r="L3" s="101">
-        <f>DATASETFQ!H6</f>
+        <f>DATASETFQ!I6</f>
         <v>399</v>
       </c>
       <c r="M3" s="101">
-        <f>DATASETFQ!H3</f>
+        <f>DATASETFQ!I3</f>
         <v>403</v>
       </c>
       <c r="N3" s="98">
-        <f>DATASETFQ!I6</f>
+        <f>DATASETFQ!J6</f>
         <v>5.85</v>
       </c>
       <c r="O3" s="98">
-        <f>DATASETFQ!I3</f>
+        <f>DATASETFQ!J3</f>
         <v>6.3</v>
       </c>
       <c r="P3" s="102">
-        <f>DATASETFQ!J6</f>
+        <f>DATASETFQ!K6</f>
         <v>0.26</v>
       </c>
       <c r="Q3" s="102">
-        <f>DATASETFQ!J3</f>
+        <f>DATASETFQ!K3</f>
         <v>0.26</v>
       </c>
       <c r="R3" s="27">
-        <f>DATASETFQ!K6</f>
+        <f>DATASETFQ!L6</f>
         <v>0.80249999999999999</v>
       </c>
       <c r="S3" s="27">
-        <f>DATASETFQ!K3</f>
+        <f>DATASETFQ!L3</f>
         <v>0.87139999999999995</v>
       </c>
       <c r="T3" s="96">
-        <f>DATASETFQ!L6</f>
+        <f>DATASETFQ!M6</f>
         <v>1.0615000000000001</v>
       </c>
       <c r="U3" s="96">
-        <f>DATASETFQ!L3</f>
+        <f>DATASETFQ!M3</f>
         <v>0.57899999999999996</v>
       </c>
       <c r="V3" s="96">
-        <f>DATASETFQ!M6</f>
+        <f>DATASETFQ!N6</f>
         <v>0.53520000000000001</v>
       </c>
       <c r="W3" s="96">
-        <f>DATASETFQ!M3</f>
+        <f>DATASETFQ!N3</f>
         <v>0.70409999999999995</v>
       </c>
       <c r="X3" s="96">
-        <f>DATASETFQ!N6</f>
+        <f>DATASETFQ!O6</f>
         <v>4.8273999999999999</v>
       </c>
       <c r="Y3" s="96">
-        <f>DATASETFQ!N3</f>
+        <f>DATASETFQ!O3</f>
         <v>4.7336999999999998</v>
       </c>
       <c r="Z3" s="27">
-        <f>DATASETFQ!O6</f>
+        <f>DATASETFQ!P6</f>
         <v>2.1755</v>
       </c>
       <c r="AA3" s="27">
-        <f>DATASETFQ!O3</f>
+        <f>DATASETFQ!P3</f>
         <v>1.5610999999999999</v>
       </c>
       <c r="AB3" s="27">
-        <f>DATASETFQ!P6</f>
+        <f>DATASETFQ!Q6</f>
         <v>58.375599999999999</v>
       </c>
       <c r="AC3" s="27">
-        <f>DATASETFQ!P3</f>
+        <f>DATASETFQ!Q3</f>
         <v>56.581400000000002</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A4" s="127"/>
+      <c r="A4" s="130"/>
       <c r="B4" s="98">
-        <f>DATASETFQ!C7</f>
+        <f>DATASETFQ!D7</f>
         <v>49</v>
       </c>
       <c r="C4" s="98">
-        <f>DATASETFQ!C4</f>
+        <f>DATASETFQ!D4</f>
         <v>47</v>
       </c>
       <c r="D4" s="97">
-        <f>DATASETFQ!D7</f>
+        <f>DATASETFQ!E7</f>
         <v>6.5</v>
       </c>
       <c r="E4" s="97">
-        <f>DATASETFQ!D4</f>
+        <f>DATASETFQ!E4</f>
         <v>7.74</v>
       </c>
       <c r="F4" s="97">
-        <f>DATASETFQ!E7</f>
+        <f>DATASETFQ!F7</f>
         <v>65.725299999999976</v>
       </c>
       <c r="G4" s="98">
-        <f>DATASETFQ!E4</f>
+        <f>DATASETFQ!F4</f>
         <v>77.005599999999987</v>
       </c>
       <c r="H4" s="97">
-        <f>DATASETFQ!F7</f>
+        <f>DATASETFQ!G7</f>
         <v>28.8</v>
       </c>
       <c r="I4" s="97">
-        <f>DATASETFQ!F4</f>
+        <f>DATASETFQ!G4</f>
         <v>28.8</v>
       </c>
       <c r="J4" s="97">
-        <f>DATASETFQ!G7</f>
+        <f>DATASETFQ!H7</f>
         <v>8.84</v>
       </c>
       <c r="K4" s="97">
-        <f>DATASETFQ!G4</f>
+        <f>DATASETFQ!H4</f>
         <v>8.8800000000000008</v>
       </c>
       <c r="L4" s="101">
-        <f>DATASETFQ!H7</f>
+        <f>DATASETFQ!I7</f>
         <v>399</v>
       </c>
       <c r="M4" s="101">
-        <f>DATASETFQ!H4</f>
+        <f>DATASETFQ!I4</f>
         <v>400</v>
       </c>
       <c r="N4" s="98">
-        <f>DATASETFQ!I7</f>
+        <f>DATASETFQ!J7</f>
         <v>7.2</v>
       </c>
       <c r="O4" s="98">
-        <f>DATASETFQ!I4</f>
+        <f>DATASETFQ!J4</f>
         <v>7.9</v>
       </c>
       <c r="P4" s="102">
-        <f>DATASETFQ!J7</f>
+        <f>DATASETFQ!K7</f>
         <v>0.26</v>
       </c>
       <c r="Q4" s="102">
-        <f>DATASETFQ!J4</f>
+        <f>DATASETFQ!K4</f>
         <v>0.26500000000000001</v>
       </c>
       <c r="R4" s="27">
-        <f>DATASETFQ!K7</f>
+        <f>DATASETFQ!L7</f>
         <v>0.76559999999999995</v>
       </c>
       <c r="S4" s="27">
-        <f>DATASETFQ!K4</f>
+        <f>DATASETFQ!L4</f>
         <v>0.90600000000000003</v>
       </c>
       <c r="T4" s="96">
-        <f>DATASETFQ!L7</f>
+        <f>DATASETFQ!M7</f>
         <v>0.871</v>
       </c>
       <c r="U4" s="96">
-        <f>DATASETFQ!L4</f>
+        <f>DATASETFQ!M4</f>
         <v>0.55220000000000002</v>
       </c>
       <c r="V4" s="96">
-        <f>DATASETFQ!M7</f>
+        <f>DATASETFQ!N7</f>
         <v>0.65349999999999997</v>
       </c>
       <c r="W4" s="96">
-        <f>DATASETFQ!M4</f>
+        <f>DATASETFQ!N4</f>
         <v>0.43890000000000001</v>
       </c>
       <c r="X4" s="96">
-        <f>DATASETFQ!N7</f>
+        <f>DATASETFQ!O7</f>
         <v>4.5176999999999996</v>
       </c>
       <c r="Y4" s="96">
-        <f>DATASETFQ!N4</f>
+        <f>DATASETFQ!O4</f>
         <v>4.6551999999999998</v>
       </c>
       <c r="Z4" s="27">
-        <f>DATASETFQ!O7</f>
+        <f>DATASETFQ!P7</f>
         <v>2.3616999999999999</v>
       </c>
       <c r="AA4" s="27">
-        <f>DATASETFQ!O4</f>
+        <f>DATASETFQ!P4</f>
         <v>2.0253999999999999</v>
       </c>
       <c r="AB4" s="27">
-        <f>DATASETFQ!P7</f>
+        <f>DATASETFQ!Q7</f>
         <v>58.484699999999997</v>
       </c>
       <c r="AC4" s="27">
-        <f>DATASETFQ!P4</f>
+        <f>DATASETFQ!Q4</f>
         <v>58.273600000000002</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A5" s="127"/>
+      <c r="A5" s="130"/>
       <c r="B5" s="98">
-        <f>DATASETFQ!C8</f>
+        <f>DATASETFQ!D8</f>
         <v>54</v>
       </c>
       <c r="C5" s="98">
-        <f>DATASETFQ!C5</f>
+        <f>DATASETFQ!D5</f>
         <v>46</v>
       </c>
       <c r="D5" s="97">
-        <f>DATASETFQ!D8</f>
+        <f>DATASETFQ!E8</f>
         <v>6.95</v>
       </c>
       <c r="E5" s="97">
-        <f>DATASETFQ!D5</f>
+        <f>DATASETFQ!E5</f>
         <v>6.66</v>
       </c>
       <c r="F5" s="97">
-        <f>DATASETFQ!E8</f>
+        <f>DATASETFQ!F8</f>
         <v>65.725299999999976</v>
       </c>
       <c r="G5" s="98">
-        <f>DATASETFQ!E5</f>
+        <f>DATASETFQ!F5</f>
         <v>65.725299999999976</v>
       </c>
       <c r="H5" s="97">
-        <f>DATASETFQ!F8</f>
+        <f>DATASETFQ!G8</f>
         <v>28.7</v>
       </c>
       <c r="I5" s="97">
-        <f>DATASETFQ!F5</f>
+        <f>DATASETFQ!G5</f>
         <v>28.6</v>
       </c>
       <c r="J5" s="97">
-        <f>DATASETFQ!G8</f>
+        <f>DATASETFQ!H8</f>
         <v>8.92</v>
       </c>
       <c r="K5" s="97">
-        <f>DATASETFQ!G5</f>
+        <f>DATASETFQ!H5</f>
         <v>8.7899999999999991</v>
       </c>
       <c r="L5" s="101">
-        <f>DATASETFQ!H8</f>
+        <f>DATASETFQ!I8</f>
         <v>401</v>
       </c>
       <c r="M5" s="101">
-        <f>DATASETFQ!H5</f>
+        <f>DATASETFQ!I5</f>
         <v>402</v>
       </c>
       <c r="N5" s="98">
-        <f>DATASETFQ!I8</f>
+        <f>DATASETFQ!J8</f>
         <v>8.9</v>
       </c>
       <c r="O5" s="98">
-        <f>DATASETFQ!I5</f>
+        <f>DATASETFQ!J5</f>
         <v>9.1999999999999993</v>
       </c>
       <c r="P5" s="102">
-        <f>DATASETFQ!J8</f>
+        <f>DATASETFQ!K8</f>
         <v>0.26800000000000002</v>
       </c>
       <c r="Q5" s="102">
-        <f>DATASETFQ!J5</f>
+        <f>DATASETFQ!K5</f>
         <v>0.26500000000000001</v>
       </c>
       <c r="R5" s="27">
-        <f>DATASETFQ!K8</f>
+        <f>DATASETFQ!L8</f>
         <v>0.73929999999999996</v>
       </c>
       <c r="S5" s="27">
-        <f>DATASETFQ!K5</f>
+        <f>DATASETFQ!L5</f>
         <v>0.73919999999999997</v>
       </c>
       <c r="T5" s="96">
-        <f>DATASETFQ!L8</f>
+        <f>DATASETFQ!M8</f>
         <v>0.52039999999999997</v>
       </c>
       <c r="U5" s="96">
-        <f>DATASETFQ!L5</f>
+        <f>DATASETFQ!M5</f>
         <v>1.1248</v>
       </c>
       <c r="V5" s="96">
-        <f>DATASETFQ!M8</f>
+        <f>DATASETFQ!N8</f>
         <v>0.4501</v>
       </c>
       <c r="W5" s="96">
-        <f>DATASETFQ!M5</f>
+        <f>DATASETFQ!N5</f>
         <v>0.94010000000000005</v>
       </c>
       <c r="X5" s="96">
-        <f>DATASETFQ!N8</f>
+        <f>DATASETFQ!O8</f>
         <v>5.1924999999999999</v>
       </c>
       <c r="Y5" s="96">
-        <f>DATASETFQ!N5</f>
+        <f>DATASETFQ!O5</f>
         <v>4.8212999999999999</v>
       </c>
       <c r="Z5" s="27">
-        <f>DATASETFQ!O8</f>
+        <f>DATASETFQ!P8</f>
         <v>1.7332000000000001</v>
       </c>
       <c r="AA5" s="27">
-        <f>DATASETFQ!O5</f>
+        <f>DATASETFQ!P5</f>
         <v>1.6449</v>
       </c>
       <c r="AB5" s="27">
-        <f>DATASETFQ!P8</f>
+        <f>DATASETFQ!Q8</f>
         <v>62.265500000000003</v>
       </c>
       <c r="AC5" s="27">
-        <f>DATASETFQ!P5</f>
+        <f>DATASETFQ!Q5</f>
         <v>59.770800000000001</v>
       </c>
     </row>
@@ -36317,349 +36478,349 @@
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="127" t="s">
+      <c r="A18" s="130" t="s">
         <v>65</v>
       </c>
       <c r="B18" s="97">
-        <f>DATASETFQ!C13</f>
+        <f>DATASETFQ!D13</f>
         <v>47</v>
       </c>
       <c r="C18" s="97">
-        <f>DATASETFQ!C10</f>
+        <f>DATASETFQ!D10</f>
         <v>98</v>
       </c>
       <c r="D18" s="97">
-        <f>DATASETFQ!D13</f>
+        <f>DATASETFQ!E13</f>
         <v>6.25</v>
       </c>
       <c r="E18" s="97">
-        <f>DATASETFQ!D10</f>
+        <f>DATASETFQ!E10</f>
         <v>3.59</v>
       </c>
       <c r="F18" s="97">
-        <f>DATASETFQ!E13</f>
+        <f>DATASETFQ!F13</f>
         <v>65.725299999999976</v>
       </c>
       <c r="G18" s="97">
-        <f>DATASETFQ!E10</f>
+        <f>DATASETFQ!F10</f>
         <v>61.965199999999982</v>
       </c>
       <c r="H18" s="97">
-        <f>DATASETFQ!F13</f>
+        <f>DATASETFQ!G13</f>
         <v>29.9</v>
       </c>
       <c r="I18" s="97">
-        <f>DATASETFQ!F10</f>
+        <f>DATASETFQ!G10</f>
         <v>30.2</v>
       </c>
       <c r="J18" s="97">
-        <f>DATASETFQ!G13</f>
+        <f>DATASETFQ!H13</f>
         <v>9.9700000000000006</v>
       </c>
       <c r="K18" s="97">
-        <f>DATASETFQ!G10</f>
+        <f>DATASETFQ!H10</f>
         <v>9.82</v>
       </c>
       <c r="L18" s="101">
-        <f>DATASETFQ!H13</f>
+        <f>DATASETFQ!I13</f>
         <v>405</v>
       </c>
       <c r="M18" s="101">
-        <f>DATASETFQ!H10</f>
+        <f>DATASETFQ!I10</f>
         <v>408</v>
       </c>
       <c r="N18" s="97">
-        <f>DATASETFQ!I13</f>
+        <f>DATASETFQ!J13</f>
         <v>5.96</v>
       </c>
       <c r="O18" s="97">
-        <f>DATASETFQ!I10</f>
+        <f>DATASETFQ!J10</f>
         <v>2.39</v>
       </c>
       <c r="P18" s="27">
-        <f>DATASETFQ!J13</f>
+        <f>DATASETFQ!K13</f>
         <v>0.25800000000000001</v>
       </c>
       <c r="Q18" s="27">
-        <f>DATASETFQ!J10</f>
+        <f>DATASETFQ!K10</f>
         <v>0.24800000000000003</v>
       </c>
       <c r="R18" s="27">
-        <f>DATASETFQ!K13</f>
+        <f>DATASETFQ!L13</f>
         <v>0.76500000000000001</v>
       </c>
       <c r="S18" s="96">
-        <f>DATASETFQ!K10</f>
+        <f>DATASETFQ!L10</f>
         <v>0.76390000000000002</v>
       </c>
       <c r="T18" s="27">
-        <f>DATASETFQ!L13</f>
+        <f>DATASETFQ!M13</f>
         <v>0.70109999999999995</v>
       </c>
       <c r="U18" s="27">
-        <f>DATASETFQ!L10</f>
+        <f>DATASETFQ!M10</f>
         <v>0.46479999999999999</v>
       </c>
       <c r="V18" s="96">
-        <f>DATASETFQ!M13</f>
+        <f>DATASETFQ!N13</f>
         <v>0.70620000000000005</v>
       </c>
       <c r="W18" s="96">
-        <f>DATASETFQ!M10</f>
+        <f>DATASETFQ!N10</f>
         <v>0.80900000000000005</v>
       </c>
       <c r="X18" s="96">
-        <f>DATASETFQ!N13</f>
+        <f>DATASETFQ!O13</f>
         <v>4.5880999999999998</v>
       </c>
       <c r="Y18" s="96">
-        <f>DATASETFQ!N10</f>
+        <f>DATASETFQ!O10</f>
         <v>4.4001000000000001</v>
       </c>
       <c r="Z18" s="96">
-        <f>DATASETFQ!O13</f>
+        <f>DATASETFQ!P13</f>
         <v>1.3360000000000001</v>
       </c>
       <c r="AA18" s="96">
-        <f>DATASETFQ!O10</f>
+        <f>DATASETFQ!P10</f>
         <v>1.4032</v>
       </c>
       <c r="AB18" s="96">
-        <f>DATASETFQ!P13</f>
+        <f>DATASETFQ!Q13</f>
         <v>60.860700000000001</v>
       </c>
       <c r="AC18" s="96">
-        <f>DATASETFQ!P10</f>
+        <f>DATASETFQ!Q10</f>
         <v>59.817100000000003</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A19" s="127"/>
+      <c r="A19" s="130"/>
       <c r="B19" s="97">
-        <f>DATASETFQ!C14</f>
+        <f>DATASETFQ!D14</f>
         <v>54</v>
       </c>
       <c r="C19" s="97">
-        <f>DATASETFQ!C11</f>
+        <f>DATASETFQ!D11</f>
         <v>92</v>
       </c>
       <c r="D19" s="97">
-        <f>DATASETFQ!D14</f>
+        <f>DATASETFQ!E14</f>
         <v>5.91</v>
       </c>
       <c r="E19" s="97">
-        <f>DATASETFQ!D11</f>
+        <f>DATASETFQ!E11</f>
         <v>4.3099999999999996</v>
       </c>
       <c r="F19" s="97">
-        <f>DATASETFQ!E14</f>
+        <f>DATASETFQ!F14</f>
         <v>69.485399999999998</v>
       </c>
       <c r="G19" s="97">
-        <f>DATASETFQ!E11</f>
+        <f>DATASETFQ!F11</f>
         <v>80.76570000000001</v>
       </c>
       <c r="H19" s="97">
-        <f>DATASETFQ!F14</f>
+        <f>DATASETFQ!G14</f>
         <v>29.4</v>
       </c>
       <c r="I19" s="97">
-        <f>DATASETFQ!F11</f>
+        <f>DATASETFQ!G11</f>
         <v>29.4</v>
       </c>
       <c r="J19" s="97">
-        <f>DATASETFQ!G14</f>
+        <f>DATASETFQ!H14</f>
         <v>9.64</v>
       </c>
       <c r="K19" s="97">
-        <f>DATASETFQ!G11</f>
+        <f>DATASETFQ!H11</f>
         <v>9.52</v>
       </c>
       <c r="L19" s="101">
-        <f>DATASETFQ!H14</f>
+        <f>DATASETFQ!I14</f>
         <v>407</v>
       </c>
       <c r="M19" s="101">
-        <f>DATASETFQ!H11</f>
+        <f>DATASETFQ!I11</f>
         <v>411</v>
       </c>
       <c r="N19" s="97">
-        <f>DATASETFQ!I14</f>
+        <f>DATASETFQ!J14</f>
         <v>6.26</v>
       </c>
       <c r="O19" s="97">
-        <f>DATASETFQ!I11</f>
+        <f>DATASETFQ!J11</f>
         <v>4.5</v>
       </c>
       <c r="P19" s="27">
-        <f>DATASETFQ!J14</f>
+        <f>DATASETFQ!K14</f>
         <v>0.25700000000000001</v>
       </c>
       <c r="Q19" s="96">
-        <f>DATASETFQ!J11</f>
+        <f>DATASETFQ!K11</f>
         <v>0.26</v>
       </c>
       <c r="R19" s="96">
-        <f>DATASETFQ!K14</f>
+        <f>DATASETFQ!L14</f>
         <v>0.80710000000000004</v>
       </c>
       <c r="S19" s="96">
-        <f>DATASETFQ!K11</f>
+        <f>DATASETFQ!L11</f>
         <v>0.75870000000000004</v>
       </c>
       <c r="T19" s="27">
-        <f>DATASETFQ!L14</f>
+        <f>DATASETFQ!M14</f>
         <v>0.67369999999999997</v>
       </c>
       <c r="U19" s="27">
-        <f>DATASETFQ!L11</f>
+        <f>DATASETFQ!M11</f>
         <v>0.35680000000000001</v>
       </c>
       <c r="V19" s="96">
-        <f>DATASETFQ!M14</f>
+        <f>DATASETFQ!N14</f>
         <v>0.76049999999999995</v>
       </c>
       <c r="W19" s="96">
-        <f>DATASETFQ!M11</f>
+        <f>DATASETFQ!N11</f>
         <v>0.84719999999999995</v>
       </c>
       <c r="X19" s="96">
-        <f>DATASETFQ!N14</f>
+        <f>DATASETFQ!O14</f>
         <v>4.1154000000000002</v>
       </c>
       <c r="Y19" s="96">
-        <f>DATASETFQ!N11</f>
+        <f>DATASETFQ!O11</f>
         <v>4.8349000000000002</v>
       </c>
       <c r="Z19" s="96">
-        <f>DATASETFQ!O14</f>
+        <f>DATASETFQ!P14</f>
         <v>1.5626</v>
       </c>
       <c r="AA19" s="96">
-        <f>DATASETFQ!O11</f>
+        <f>DATASETFQ!P11</f>
         <v>1.6830000000000001</v>
       </c>
       <c r="AB19" s="96">
-        <f>DATASETFQ!P14</f>
+        <f>DATASETFQ!Q14</f>
         <v>58.408799999999999</v>
       </c>
       <c r="AC19" s="96">
-        <f>DATASETFQ!P11</f>
+        <f>DATASETFQ!Q11</f>
         <v>62.652799999999999</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" s="127"/>
+      <c r="A20" s="130"/>
       <c r="B20" s="97">
-        <f>DATASETFQ!C15</f>
+        <f>DATASETFQ!D15</f>
         <v>56</v>
       </c>
       <c r="C20" s="97">
-        <f>DATASETFQ!C12</f>
+        <f>DATASETFQ!D12</f>
         <v>95</v>
       </c>
       <c r="D20" s="97">
-        <f>DATASETFQ!D15</f>
+        <f>DATASETFQ!E15</f>
         <v>5.97</v>
       </c>
       <c r="E20" s="97">
-        <f>DATASETFQ!D12</f>
+        <f>DATASETFQ!E12</f>
         <v>3.59</v>
       </c>
       <c r="F20" s="97">
-        <f>DATASETFQ!E15</f>
+        <f>DATASETFQ!F15</f>
         <v>80.76570000000001</v>
       </c>
       <c r="G20" s="97">
-        <f>DATASETFQ!E12</f>
+        <f>DATASETFQ!F12</f>
         <v>61.965199999999982</v>
       </c>
       <c r="H20" s="97">
-        <f>DATASETFQ!F15</f>
+        <f>DATASETFQ!G15</f>
         <v>29.3</v>
       </c>
       <c r="I20" s="97">
-        <f>DATASETFQ!F12</f>
+        <f>DATASETFQ!G12</f>
         <v>29.3</v>
       </c>
       <c r="J20" s="97">
-        <f>DATASETFQ!G15</f>
+        <f>DATASETFQ!H15</f>
         <v>9.58</v>
       </c>
       <c r="K20" s="97">
-        <f>DATASETFQ!G12</f>
+        <f>DATASETFQ!H12</f>
         <v>9.5500000000000007</v>
       </c>
       <c r="L20" s="101">
-        <f>DATASETFQ!H15</f>
+        <f>DATASETFQ!I15</f>
         <v>408</v>
       </c>
       <c r="M20" s="101">
-        <f>DATASETFQ!H12</f>
+        <f>DATASETFQ!I12</f>
         <v>410</v>
       </c>
       <c r="N20" s="97">
-        <f>DATASETFQ!I15</f>
+        <f>DATASETFQ!J15</f>
         <v>6.3</v>
       </c>
       <c r="O20" s="97">
-        <f>DATASETFQ!I12</f>
+        <f>DATASETFQ!J12</f>
         <v>2.74</v>
       </c>
       <c r="P20" s="96">
-        <f>DATASETFQ!J15</f>
+        <f>DATASETFQ!K15</f>
         <v>0.26</v>
       </c>
       <c r="Q20" s="27">
-        <f>DATASETFQ!J12</f>
+        <f>DATASETFQ!K12</f>
         <v>0.24900000000000003</v>
       </c>
       <c r="R20" s="96">
-        <f>DATASETFQ!K15</f>
+        <f>DATASETFQ!L15</f>
         <v>0.747</v>
       </c>
       <c r="S20" s="96">
-        <f>DATASETFQ!K12</f>
+        <f>DATASETFQ!L12</f>
         <v>0.75329999999999997</v>
       </c>
       <c r="T20" s="27">
-        <f>DATASETFQ!L15</f>
+        <f>DATASETFQ!M15</f>
         <v>0.75319999999999998</v>
       </c>
       <c r="U20" s="27">
-        <f>DATASETFQ!L12</f>
+        <f>DATASETFQ!M12</f>
         <v>0.42349999999999999</v>
       </c>
       <c r="V20" s="96">
-        <f>DATASETFQ!M15</f>
+        <f>DATASETFQ!N15</f>
         <v>0.94359999999999999</v>
       </c>
       <c r="W20" s="96">
-        <f>DATASETFQ!M12</f>
+        <f>DATASETFQ!N12</f>
         <v>1.1455</v>
       </c>
       <c r="X20" s="96">
-        <f>DATASETFQ!N15</f>
+        <f>DATASETFQ!O15</f>
         <v>4.7203999999999997</v>
       </c>
       <c r="Y20" s="96">
-        <f>DATASETFQ!N12</f>
+        <f>DATASETFQ!O12</f>
         <v>4.5641999999999996</v>
       </c>
       <c r="Z20" s="96">
-        <f>DATASETFQ!O15</f>
+        <f>DATASETFQ!P15</f>
         <v>1.8501000000000001</v>
       </c>
       <c r="AA20" s="96">
-        <f>DATASETFQ!O12</f>
+        <f>DATASETFQ!P12</f>
         <v>1.3775999999999999</v>
       </c>
       <c r="AB20" s="96">
-        <f>DATASETFQ!P15</f>
+        <f>DATASETFQ!Q15</f>
         <v>61.5443</v>
       </c>
       <c r="AC20" s="96">
-        <f>DATASETFQ!P12</f>
+        <f>DATASETFQ!Q12</f>
         <v>59.613399999999999</v>
       </c>
     </row>
@@ -38068,350 +38229,350 @@
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A33" s="127" t="str">
+      <c r="A33" s="130" t="str">
         <f>FQ!R3</f>
         <v>168 hours after application (25/10/2019)</v>
       </c>
       <c r="B33" s="97">
-        <f>DATASETFQ!C20</f>
+        <f>DATASETFQ!D20</f>
         <v>51</v>
       </c>
       <c r="C33" s="97">
-        <f>DATASETFQ!C17</f>
+        <f>DATASETFQ!D17</f>
         <v>80</v>
       </c>
       <c r="D33" s="97">
-        <f>DATASETFQ!D20</f>
+        <f>DATASETFQ!E20</f>
         <v>4.59</v>
       </c>
       <c r="E33" s="97">
-        <f>DATASETFQ!D17</f>
+        <f>DATASETFQ!E17</f>
         <v>2.95</v>
       </c>
       <c r="F33" s="97">
-        <f>DATASETFQ!E20</f>
+        <f>DATASETFQ!F20</f>
         <v>95.806099999999986</v>
       </c>
       <c r="G33" s="97">
-        <f>DATASETFQ!E17</f>
+        <f>DATASETFQ!F17</f>
         <v>122.1268</v>
       </c>
       <c r="H33" s="97">
-        <f>DATASETFQ!F20</f>
+        <f>DATASETFQ!G20</f>
         <v>28.9</v>
       </c>
       <c r="I33" s="97">
-        <f>DATASETFQ!F17</f>
+        <f>DATASETFQ!G17</f>
         <v>29.9</v>
       </c>
       <c r="J33" s="97">
-        <f>DATASETFQ!G20</f>
+        <f>DATASETFQ!H20</f>
         <v>8.6300000000000008</v>
       </c>
       <c r="K33" s="97">
-        <f>DATASETFQ!G17</f>
+        <f>DATASETFQ!H17</f>
         <v>8.14</v>
       </c>
       <c r="L33" s="97">
-        <f>DATASETFQ!H20</f>
+        <f>DATASETFQ!I20</f>
         <v>408</v>
       </c>
       <c r="M33" s="97">
-        <f>DATASETFQ!H17</f>
+        <f>DATASETFQ!I17</f>
         <v>401</v>
       </c>
       <c r="N33" s="97">
-        <f>DATASETFQ!I20</f>
+        <f>DATASETFQ!J20</f>
         <v>3.22</v>
       </c>
       <c r="O33" s="97">
-        <f>DATASETFQ!I17</f>
+        <f>DATASETFQ!J17</f>
         <v>4.4400000000000004</v>
       </c>
       <c r="P33" s="96">
-        <f>DATASETFQ!J20</f>
+        <f>DATASETFQ!K20</f>
         <v>0.27300000000000002</v>
       </c>
       <c r="Q33" s="96">
-        <f>DATASETFQ!J17</f>
+        <f>DATASETFQ!K17</f>
         <v>0.27</v>
       </c>
       <c r="R33" s="96">
-        <f>DATASETFQ!K20</f>
+        <f>DATASETFQ!L20</f>
         <v>0.79769999999999996</v>
       </c>
       <c r="S33" s="96">
-        <f>DATASETFQ!K17</f>
+        <f>DATASETFQ!L17</f>
         <v>0.745</v>
       </c>
       <c r="T33" s="96">
-        <f>DATASETFQ!L20</f>
+        <f>DATASETFQ!M20</f>
         <v>0.60460000000000003</v>
       </c>
       <c r="U33" s="96">
-        <f>DATASETFQ!L17</f>
+        <f>DATASETFQ!M17</f>
         <v>0.71679999999999999</v>
       </c>
       <c r="V33" s="96">
-        <f>DATASETFQ!M20</f>
+        <f>DATASETFQ!N20</f>
         <v>0.65229999999999999</v>
       </c>
       <c r="W33" s="96">
-        <f>DATASETFQ!M17</f>
+        <f>DATASETFQ!N17</f>
         <v>0.72719999999999996</v>
       </c>
       <c r="X33" s="96">
-        <f>DATASETFQ!N20</f>
+        <f>DATASETFQ!O20</f>
         <v>4.1092000000000004</v>
       </c>
       <c r="Y33" s="96">
-        <f>DATASETFQ!N17</f>
+        <f>DATASETFQ!O17</f>
         <v>4.0073999999999996</v>
       </c>
       <c r="Z33" s="96">
-        <f>DATASETFQ!O20</f>
+        <f>DATASETFQ!P20</f>
         <v>1.6512</v>
       </c>
       <c r="AA33" s="96">
-        <f>DATASETFQ!O17</f>
+        <f>DATASETFQ!P17</f>
         <v>1.6102000000000001</v>
       </c>
       <c r="AB33" s="96">
-        <f>DATASETFQ!P20</f>
+        <f>DATASETFQ!Q20</f>
         <v>48.6389</v>
       </c>
       <c r="AC33" s="96">
-        <f>DATASETFQ!P17</f>
+        <f>DATASETFQ!Q17</f>
         <v>59.7072</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A34" s="127"/>
+      <c r="A34" s="130"/>
       <c r="B34" s="97">
-        <f>DATASETFQ!C21</f>
+        <f>DATASETFQ!D21</f>
         <v>53</v>
       </c>
       <c r="C34" s="97">
-        <f>DATASETFQ!C18</f>
+        <f>DATASETFQ!D18</f>
         <v>115</v>
       </c>
       <c r="D34" s="97">
-        <f>DATASETFQ!D21</f>
+        <f>DATASETFQ!E21</f>
         <v>3.59</v>
       </c>
       <c r="E34" s="97">
-        <f>DATASETFQ!D18</f>
+        <f>DATASETFQ!E18</f>
         <v>2.67</v>
       </c>
       <c r="F34" s="97">
-        <f>DATASETFQ!E21</f>
+        <f>DATASETFQ!F21</f>
         <v>69.485399999999998</v>
       </c>
       <c r="G34" s="97">
-        <f>DATASETFQ!E18</f>
+        <f>DATASETFQ!F18</f>
         <v>46.924800000000005</v>
       </c>
       <c r="H34" s="97">
-        <f>DATASETFQ!F21</f>
+        <f>DATASETFQ!G21</f>
         <v>28.9</v>
       </c>
       <c r="I34" s="97">
-        <f>DATASETFQ!F18</f>
+        <f>DATASETFQ!G18</f>
         <v>29.1</v>
       </c>
       <c r="J34" s="97">
-        <f>DATASETFQ!G21</f>
+        <f>DATASETFQ!H21</f>
         <v>8.49</v>
       </c>
       <c r="K34" s="97">
-        <f>DATASETFQ!G18</f>
+        <f>DATASETFQ!H18</f>
         <v>8.16</v>
       </c>
       <c r="L34" s="97">
-        <f>DATASETFQ!H21</f>
+        <f>DATASETFQ!I21</f>
         <v>408</v>
       </c>
       <c r="M34" s="97">
-        <f>DATASETFQ!H18</f>
+        <f>DATASETFQ!I18</f>
         <v>416</v>
       </c>
       <c r="N34" s="97">
-        <f>DATASETFQ!I21</f>
+        <f>DATASETFQ!J21</f>
         <v>3.24</v>
       </c>
       <c r="O34" s="97">
-        <f>DATASETFQ!I18</f>
+        <f>DATASETFQ!J18</f>
         <v>2.3199999999999998</v>
       </c>
       <c r="P34" s="96">
-        <f>DATASETFQ!J21</f>
+        <f>DATASETFQ!K21</f>
         <v>0.25600000000000001</v>
       </c>
       <c r="Q34" s="96">
-        <f>DATASETFQ!J18</f>
+        <f>DATASETFQ!K18</f>
         <v>0.23900000000000002</v>
       </c>
       <c r="R34" s="96">
-        <f>DATASETFQ!K21</f>
+        <f>DATASETFQ!L21</f>
         <v>0.79600000000000004</v>
       </c>
       <c r="S34" s="96">
-        <f>DATASETFQ!K18</f>
+        <f>DATASETFQ!L18</f>
         <v>0.77880000000000005</v>
       </c>
       <c r="T34" s="96">
-        <f>DATASETFQ!L21</f>
+        <f>DATASETFQ!M21</f>
         <v>0.65920000000000001</v>
       </c>
       <c r="U34" s="96">
-        <f>DATASETFQ!L18</f>
+        <f>DATASETFQ!M18</f>
         <v>0.47549999999999998</v>
       </c>
       <c r="V34" s="96">
-        <f>DATASETFQ!M21</f>
+        <f>DATASETFQ!N21</f>
         <v>0.67879999999999996</v>
       </c>
       <c r="W34" s="96">
-        <f>DATASETFQ!M18</f>
+        <f>DATASETFQ!N18</f>
         <v>0.75960000000000005</v>
       </c>
       <c r="X34" s="96">
-        <f>DATASETFQ!N21</f>
+        <f>DATASETFQ!O21</f>
         <v>5.1631999999999998</v>
       </c>
       <c r="Y34" s="96">
-        <f>DATASETFQ!N18</f>
+        <f>DATASETFQ!O18</f>
         <v>4.3411999999999997</v>
       </c>
       <c r="Z34" s="96">
-        <f>DATASETFQ!O21</f>
+        <f>DATASETFQ!P21</f>
         <v>1.5498000000000001</v>
       </c>
       <c r="AA34" s="96">
-        <f>DATASETFQ!O18</f>
+        <f>DATASETFQ!P18</f>
         <v>1.6574</v>
       </c>
       <c r="AB34" s="96">
-        <f>DATASETFQ!P21</f>
+        <f>DATASETFQ!Q21</f>
         <v>51.985799999999998</v>
       </c>
       <c r="AC34" s="96">
-        <f>DATASETFQ!P18</f>
+        <f>DATASETFQ!Q18</f>
         <v>60.132100000000001</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A35" s="127"/>
+      <c r="A35" s="130"/>
       <c r="B35" s="97">
-        <f>DATASETFQ!C22</f>
+        <f>DATASETFQ!D22</f>
         <v>56</v>
       </c>
       <c r="C35" s="97">
-        <f>DATASETFQ!C19</f>
+        <f>DATASETFQ!D19</f>
         <v>94</v>
       </c>
       <c r="D35" s="97">
-        <f>DATASETFQ!D22</f>
+        <f>DATASETFQ!E22</f>
         <v>3.83</v>
       </c>
       <c r="E35" s="97">
-        <f>DATASETFQ!D19</f>
+        <f>DATASETFQ!E19</f>
         <v>1.49</v>
       </c>
       <c r="F35" s="97">
-        <f>DATASETFQ!E22</f>
+        <f>DATASETFQ!F22</f>
         <v>92.045999999999992</v>
       </c>
       <c r="G35" s="97">
-        <f>DATASETFQ!E19</f>
+        <f>DATASETFQ!F19</f>
         <v>125.88690000000003</v>
       </c>
       <c r="H35" s="97">
-        <f>DATASETFQ!F22</f>
+        <f>DATASETFQ!G22</f>
         <v>29</v>
       </c>
       <c r="I35" s="97">
-        <f>DATASETFQ!F19</f>
+        <f>DATASETFQ!G19</f>
         <v>29.2</v>
       </c>
       <c r="J35" s="97">
-        <f>DATASETFQ!G22</f>
+        <f>DATASETFQ!H22</f>
         <v>8.7200000000000006</v>
       </c>
       <c r="K35" s="97">
-        <f>DATASETFQ!G19</f>
+        <f>DATASETFQ!H19</f>
         <v>8.3699999999999992</v>
       </c>
       <c r="L35" s="97">
-        <f>DATASETFQ!H22</f>
+        <f>DATASETFQ!I22</f>
         <v>412</v>
       </c>
       <c r="M35" s="97">
-        <f>DATASETFQ!H19</f>
+        <f>DATASETFQ!I19</f>
         <v>415</v>
       </c>
       <c r="N35" s="97">
-        <f>DATASETFQ!I22</f>
+        <f>DATASETFQ!J22</f>
         <v>3.06</v>
       </c>
       <c r="O35" s="97">
-        <f>DATASETFQ!I19</f>
+        <f>DATASETFQ!J19</f>
         <v>2.4500000000000002</v>
       </c>
       <c r="P35" s="96">
-        <f>DATASETFQ!J22</f>
+        <f>DATASETFQ!K22</f>
         <v>0.26100000000000001</v>
       </c>
       <c r="Q35" s="96">
-        <f>DATASETFQ!J19</f>
+        <f>DATASETFQ!K19</f>
         <v>0.26700000000000002</v>
       </c>
       <c r="R35" s="96">
-        <f>DATASETFQ!K22</f>
+        <f>DATASETFQ!L22</f>
         <v>0.75970000000000004</v>
       </c>
       <c r="S35" s="96">
-        <f>DATASETFQ!K19</f>
+        <f>DATASETFQ!L19</f>
         <v>0.77290000000000003</v>
       </c>
       <c r="T35" s="96">
-        <f>DATASETFQ!L22</f>
+        <f>DATASETFQ!M22</f>
         <v>0.58220000000000005</v>
       </c>
       <c r="U35" s="96">
-        <f>DATASETFQ!L19</f>
+        <f>DATASETFQ!M19</f>
         <v>0.63370000000000004</v>
       </c>
       <c r="V35" s="96">
-        <f>DATASETFQ!M22</f>
+        <f>DATASETFQ!N22</f>
         <v>0.6784</v>
       </c>
       <c r="W35" s="96">
-        <f>DATASETFQ!M19</f>
+        <f>DATASETFQ!N19</f>
         <v>0.76259999999999994</v>
       </c>
       <c r="X35" s="96">
-        <f>DATASETFQ!N22</f>
+        <f>DATASETFQ!O22</f>
         <v>4.5148999999999999</v>
       </c>
       <c r="Y35" s="96">
-        <f>DATASETFQ!N19</f>
+        <f>DATASETFQ!O19</f>
         <v>4.1786000000000003</v>
       </c>
       <c r="Z35" s="96">
-        <f>DATASETFQ!O22</f>
+        <f>DATASETFQ!P22</f>
         <v>1.9637</v>
       </c>
       <c r="AA35" s="96">
-        <f>DATASETFQ!O19</f>
+        <f>DATASETFQ!P19</f>
         <v>0</v>
       </c>
       <c r="AB35" s="96">
-        <f>DATASETFQ!P22</f>
+        <f>DATASETFQ!Q22</f>
         <v>63.304600000000001</v>
       </c>
       <c r="AC35" s="96">
-        <f>DATASETFQ!P19</f>
+        <f>DATASETFQ!Q19</f>
         <v>58.345599999999997</v>
       </c>
     </row>
@@ -39820,350 +39981,350 @@
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A48" s="127" t="str">
+      <c r="A48" s="130" t="str">
         <f>FQ!Y3</f>
         <v>336 hours after application (01/11/2019)</v>
       </c>
       <c r="B48" s="97">
-        <f>DATASETFQ!C27</f>
+        <f>DATASETFQ!D27</f>
         <v>56</v>
       </c>
       <c r="C48" s="97">
-        <f>DATASETFQ!C24</f>
+        <f>DATASETFQ!D24</f>
         <v>51.5</v>
       </c>
       <c r="D48" s="97">
-        <f>DATASETFQ!D27</f>
+        <f>DATASETFQ!E27</f>
         <v>5.99</v>
       </c>
       <c r="E48" s="97">
-        <f>DATASETFQ!D24</f>
+        <f>DATASETFQ!E24</f>
         <v>4.8099999999999996</v>
       </c>
       <c r="F48" s="97">
-        <f>DATASETFQ!E27</f>
+        <f>DATASETFQ!F27</f>
         <v>73.245499999999993</v>
       </c>
       <c r="G48" s="97">
-        <f>DATASETFQ!E24</f>
+        <f>DATASETFQ!F24</f>
         <v>69.485399999999998</v>
       </c>
       <c r="H48" s="97">
-        <f>DATASETFQ!F27</f>
+        <f>DATASETFQ!G27</f>
         <v>29.4</v>
       </c>
       <c r="I48" s="97">
-        <f>DATASETFQ!F24</f>
+        <f>DATASETFQ!G24</f>
         <v>30.6</v>
       </c>
       <c r="J48" s="97">
-        <f>DATASETFQ!G27</f>
+        <f>DATASETFQ!H27</f>
         <v>8.91</v>
       </c>
       <c r="K48" s="97">
-        <f>DATASETFQ!G24</f>
+        <f>DATASETFQ!H24</f>
         <v>8.9</v>
       </c>
       <c r="L48" s="97">
-        <f>DATASETFQ!H27</f>
+        <f>DATASETFQ!I27</f>
         <v>413</v>
       </c>
       <c r="M48" s="97">
-        <f>DATASETFQ!H24</f>
+        <f>DATASETFQ!I24</f>
         <v>359</v>
       </c>
       <c r="N48" s="97">
-        <f>DATASETFQ!I27</f>
+        <f>DATASETFQ!J27</f>
         <v>4.8499999999999996</v>
       </c>
       <c r="O48" s="97">
-        <f>DATASETFQ!I24</f>
+        <f>DATASETFQ!J24</f>
         <v>3.19</v>
       </c>
       <c r="P48" s="97">
-        <f>DATASETFQ!J27</f>
+        <f>DATASETFQ!K27</f>
         <v>0.26500000000000001</v>
       </c>
       <c r="Q48" s="97">
-        <f>DATASETFQ!J24</f>
+        <f>DATASETFQ!K24</f>
         <v>0.252</v>
       </c>
       <c r="R48" s="97">
-        <f>DATASETFQ!K27</f>
+        <f>DATASETFQ!L27</f>
         <v>0.77170000000000005</v>
       </c>
       <c r="S48" s="97">
-        <f>DATASETFQ!K24</f>
+        <f>DATASETFQ!L24</f>
         <v>0.83840000000000003</v>
       </c>
       <c r="T48" s="97">
-        <f>DATASETFQ!L27</f>
+        <f>DATASETFQ!M27</f>
         <v>0.89119999999999999</v>
       </c>
       <c r="U48" s="97">
-        <f>DATASETFQ!L24</f>
+        <f>DATASETFQ!M24</f>
         <v>0.4763</v>
       </c>
       <c r="V48" s="97">
-        <f>DATASETFQ!M27</f>
+        <f>DATASETFQ!N27</f>
         <v>0.25879999999999997</v>
       </c>
       <c r="W48" s="97">
-        <f>DATASETFQ!M24</f>
+        <f>DATASETFQ!N24</f>
         <v>0.31490000000000001</v>
       </c>
       <c r="X48" s="97">
-        <f>DATASETFQ!N27</f>
+        <f>DATASETFQ!O27</f>
         <v>4.3441000000000001</v>
       </c>
       <c r="Y48" s="97">
-        <f>DATASETFQ!N24</f>
+        <f>DATASETFQ!O24</f>
         <v>5.1814</v>
       </c>
       <c r="Z48" s="97">
-        <f>DATASETFQ!O27</f>
+        <f>DATASETFQ!P27</f>
         <v>1.4597</v>
       </c>
       <c r="AA48" s="97">
-        <f>DATASETFQ!O24</f>
+        <f>DATASETFQ!P24</f>
         <v>1.3855</v>
       </c>
       <c r="AB48" s="97">
-        <f>DATASETFQ!P27</f>
+        <f>DATASETFQ!Q27</f>
         <v>59.087299999999999</v>
       </c>
       <c r="AC48" s="97">
-        <f>DATASETFQ!P24</f>
+        <f>DATASETFQ!Q24</f>
         <v>70.697199999999995</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A49" s="127"/>
+      <c r="A49" s="130"/>
       <c r="B49" s="97">
-        <f>DATASETFQ!C28</f>
+        <f>DATASETFQ!D28</f>
         <v>58</v>
       </c>
       <c r="C49" s="97">
-        <f>DATASETFQ!C25</f>
+        <f>DATASETFQ!D25</f>
         <v>67</v>
       </c>
       <c r="D49" s="97">
-        <f>DATASETFQ!D28</f>
+        <f>DATASETFQ!E28</f>
         <v>5.51</v>
       </c>
       <c r="E49" s="97">
-        <f>DATASETFQ!D25</f>
+        <f>DATASETFQ!E25</f>
         <v>4.2300000000000004</v>
       </c>
       <c r="F49" s="97">
-        <f>DATASETFQ!E28</f>
+        <f>DATASETFQ!F28</f>
         <v>84.525800000000004</v>
       </c>
       <c r="G49" s="97">
-        <f>DATASETFQ!E25</f>
+        <f>DATASETFQ!F25</f>
         <v>69.485399999999998</v>
       </c>
       <c r="H49" s="97">
-        <f>DATASETFQ!F28</f>
+        <f>DATASETFQ!G28</f>
         <v>29.2</v>
       </c>
       <c r="I49" s="97">
-        <f>DATASETFQ!F25</f>
+        <f>DATASETFQ!G25</f>
         <v>29.4</v>
       </c>
       <c r="J49" s="97">
-        <f>DATASETFQ!G28</f>
+        <f>DATASETFQ!H28</f>
         <v>8.81</v>
       </c>
       <c r="K49" s="97">
-        <f>DATASETFQ!G25</f>
+        <f>DATASETFQ!H25</f>
         <v>8.75</v>
       </c>
       <c r="L49" s="97">
-        <f>DATASETFQ!H28</f>
+        <f>DATASETFQ!I28</f>
         <v>359</v>
       </c>
       <c r="M49" s="97">
-        <f>DATASETFQ!H25</f>
+        <f>DATASETFQ!I25</f>
         <v>359</v>
       </c>
       <c r="N49" s="97">
-        <f>DATASETFQ!I28</f>
+        <f>DATASETFQ!J28</f>
         <v>4.7</v>
       </c>
       <c r="O49" s="97">
-        <f>DATASETFQ!I25</f>
+        <f>DATASETFQ!J25</f>
         <v>3.33</v>
       </c>
       <c r="P49" s="97">
-        <f>DATASETFQ!J28</f>
+        <f>DATASETFQ!K28</f>
         <v>0.26600000000000001</v>
       </c>
       <c r="Q49" s="97">
-        <f>DATASETFQ!J25</f>
+        <f>DATASETFQ!K25</f>
         <v>0.25</v>
       </c>
       <c r="R49" s="97">
-        <f>DATASETFQ!K28</f>
+        <f>DATASETFQ!L28</f>
         <v>0.78569999999999995</v>
       </c>
       <c r="S49" s="97">
-        <f>DATASETFQ!K25</f>
+        <f>DATASETFQ!L25</f>
         <v>0.85519999999999996</v>
       </c>
       <c r="T49" s="97">
-        <f>DATASETFQ!L28</f>
+        <f>DATASETFQ!M28</f>
         <v>0.93930000000000002</v>
       </c>
       <c r="U49" s="97">
-        <f>DATASETFQ!L25</f>
+        <f>DATASETFQ!M25</f>
         <v>0.55669999999999997</v>
       </c>
       <c r="V49" s="97">
-        <f>DATASETFQ!M28</f>
+        <f>DATASETFQ!N28</f>
         <v>0.2104</v>
       </c>
       <c r="W49" s="97">
-        <f>DATASETFQ!M25</f>
+        <f>DATASETFQ!N25</f>
         <v>0.1042</v>
       </c>
       <c r="X49" s="97">
-        <f>DATASETFQ!N28</f>
+        <f>DATASETFQ!O28</f>
         <v>4.0427</v>
       </c>
       <c r="Y49" s="97">
-        <f>DATASETFQ!N25</f>
+        <f>DATASETFQ!O25</f>
         <v>5.4695</v>
       </c>
       <c r="Z49" s="97">
-        <f>DATASETFQ!O28</f>
+        <f>DATASETFQ!P28</f>
         <v>1.5509999999999999</v>
       </c>
       <c r="AA49" s="97">
-        <f>DATASETFQ!O25</f>
+        <f>DATASETFQ!P25</f>
         <v>1.4240999999999999</v>
       </c>
       <c r="AB49" s="97">
-        <f>DATASETFQ!P28</f>
+        <f>DATASETFQ!Q28</f>
         <v>59.497300000000003</v>
       </c>
       <c r="AC49" s="97">
-        <f>DATASETFQ!P25</f>
+        <f>DATASETFQ!Q25</f>
         <v>72.051100000000005</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A50" s="127"/>
+      <c r="A50" s="130"/>
       <c r="B50" s="97">
-        <f>DATASETFQ!C29</f>
+        <f>DATASETFQ!D29</f>
         <v>54</v>
       </c>
       <c r="C50" s="97">
-        <f>DATASETFQ!C26</f>
+        <f>DATASETFQ!D26</f>
         <v>57</v>
       </c>
       <c r="D50" s="97">
-        <f>DATASETFQ!D29</f>
+        <f>DATASETFQ!E29</f>
         <v>5.31</v>
       </c>
       <c r="E50" s="97">
-        <f>DATASETFQ!D26</f>
+        <f>DATASETFQ!E26</f>
         <v>5.07</v>
       </c>
       <c r="F50" s="97">
-        <f>DATASETFQ!E29</f>
+        <f>DATASETFQ!F29</f>
         <v>84.525800000000004</v>
       </c>
       <c r="G50" s="97">
-        <f>DATASETFQ!E26</f>
+        <f>DATASETFQ!F26</f>
         <v>69.485399999999998</v>
       </c>
       <c r="H50" s="97">
-        <f>DATASETFQ!F29</f>
+        <f>DATASETFQ!G29</f>
         <v>29</v>
       </c>
       <c r="I50" s="97">
-        <f>DATASETFQ!F26</f>
+        <f>DATASETFQ!G26</f>
         <v>29.2</v>
       </c>
       <c r="J50" s="97">
-        <f>DATASETFQ!G29</f>
+        <f>DATASETFQ!H29</f>
         <v>8.9600000000000009</v>
       </c>
       <c r="K50" s="97">
-        <f>DATASETFQ!G26</f>
+        <f>DATASETFQ!H26</f>
         <v>8.85</v>
       </c>
       <c r="L50" s="97">
-        <f>DATASETFQ!H29</f>
+        <f>DATASETFQ!I29</f>
         <v>369</v>
       </c>
       <c r="M50" s="97">
-        <f>DATASETFQ!H26</f>
+        <f>DATASETFQ!I26</f>
         <v>360</v>
       </c>
       <c r="N50" s="97">
-        <f>DATASETFQ!I29</f>
+        <f>DATASETFQ!J29</f>
         <v>2.89</v>
       </c>
       <c r="O50" s="97">
-        <f>DATASETFQ!I26</f>
+        <f>DATASETFQ!J26</f>
         <v>2.73</v>
       </c>
       <c r="P50" s="97">
-        <f>DATASETFQ!J29</f>
+        <f>DATASETFQ!K29</f>
         <v>0.26100000000000001</v>
       </c>
       <c r="Q50" s="97">
-        <f>DATASETFQ!J26</f>
+        <f>DATASETFQ!K26</f>
         <v>0.24800000000000003</v>
       </c>
       <c r="R50" s="97">
-        <f>DATASETFQ!K29</f>
+        <f>DATASETFQ!L29</f>
         <v>0.78029999999999999</v>
       </c>
       <c r="S50" s="97">
-        <f>DATASETFQ!K26</f>
+        <f>DATASETFQ!L26</f>
         <v>0.95409999999999995</v>
       </c>
       <c r="T50" s="97">
-        <f>DATASETFQ!L29</f>
+        <f>DATASETFQ!M29</f>
         <v>0.52110000000000001</v>
       </c>
       <c r="U50" s="97">
-        <f>DATASETFQ!L26</f>
+        <f>DATASETFQ!M26</f>
         <v>0.52569999999999995</v>
       </c>
       <c r="V50" s="97">
-        <f>DATASETFQ!M29</f>
+        <f>DATASETFQ!N29</f>
         <v>0.36599999999999999</v>
       </c>
       <c r="W50" s="97">
-        <f>DATASETFQ!M26</f>
+        <f>DATASETFQ!N26</f>
         <v>1.1122000000000001</v>
       </c>
       <c r="X50" s="97">
-        <f>DATASETFQ!N29</f>
+        <f>DATASETFQ!O29</f>
         <v>5.5282</v>
       </c>
       <c r="Y50" s="97">
-        <f>DATASETFQ!N26</f>
+        <f>DATASETFQ!O26</f>
         <v>5.5541</v>
       </c>
       <c r="Z50" s="97">
-        <f>DATASETFQ!O29</f>
+        <f>DATASETFQ!P29</f>
         <v>1.4242999999999999</v>
       </c>
       <c r="AA50" s="97">
-        <f>DATASETFQ!O26</f>
+        <f>DATASETFQ!P26</f>
         <v>1.8016000000000001</v>
       </c>
       <c r="AB50" s="97">
-        <f>DATASETFQ!P29</f>
+        <f>DATASETFQ!Q29</f>
         <v>69.312600000000003</v>
       </c>
       <c r="AC50" s="97">
-        <f>DATASETFQ!P26</f>
+        <f>DATASETFQ!Q26</f>
         <v>61.953400000000002</v>
       </c>
     </row>
@@ -40747,350 +40908,350 @@
       <c r="AC62" s="97"/>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A63" s="127" t="str">
+      <c r="A63" s="130" t="str">
         <f>FQ!AF3</f>
         <v>504 hours after application (08/11/2019)</v>
       </c>
       <c r="B63" s="97">
-        <f>DATASETFQ!C34</f>
+        <f>DATASETFQ!D34</f>
         <v>52.5</v>
       </c>
       <c r="C63" s="97">
-        <f>DATASETFQ!C31</f>
+        <f>DATASETFQ!D31</f>
         <v>52</v>
       </c>
       <c r="D63" s="97">
-        <f>DATASETFQ!D34</f>
+        <f>DATASETFQ!E34</f>
         <v>5.77</v>
       </c>
       <c r="E63" s="97">
-        <f>DATASETFQ!D31</f>
+        <f>DATASETFQ!E31</f>
         <v>5.19</v>
       </c>
       <c r="F63" s="97">
-        <f>DATASETFQ!E34</f>
+        <f>DATASETFQ!F34</f>
         <v>77.005599999999987</v>
       </c>
       <c r="G63" s="97">
-        <f>DATASETFQ!E31</f>
+        <f>DATASETFQ!F31</f>
         <v>69.485399999999998</v>
       </c>
       <c r="H63" s="97">
-        <f>DATASETFQ!F34</f>
+        <f>DATASETFQ!G34</f>
         <v>28.9</v>
       </c>
       <c r="I63" s="97">
-        <f>DATASETFQ!F31</f>
+        <f>DATASETFQ!G31</f>
         <v>29</v>
       </c>
       <c r="J63" s="97">
-        <f>DATASETFQ!G34</f>
+        <f>DATASETFQ!H34</f>
         <v>8.82</v>
       </c>
       <c r="K63" s="97">
-        <f>DATASETFQ!G31</f>
+        <f>DATASETFQ!H31</f>
         <v>8.6999999999999993</v>
       </c>
       <c r="L63" s="101">
-        <f>DATASETFQ!H34</f>
+        <f>DATASETFQ!I34</f>
         <v>361</v>
       </c>
       <c r="M63" s="101">
-        <f>DATASETFQ!H31</f>
+        <f>DATASETFQ!I31</f>
         <v>358</v>
       </c>
       <c r="N63" s="97">
-        <f>DATASETFQ!I34</f>
+        <f>DATASETFQ!J34</f>
         <v>4.34</v>
       </c>
       <c r="O63" s="97">
-        <f>DATASETFQ!I31</f>
+        <f>DATASETFQ!J31</f>
         <v>4.79</v>
       </c>
       <c r="P63" s="27">
-        <f>DATASETFQ!J34</f>
+        <f>DATASETFQ!K34</f>
         <v>0.26299999999999996</v>
       </c>
       <c r="Q63" s="27">
-        <f>DATASETFQ!J31</f>
+        <f>DATASETFQ!K31</f>
         <v>0.251</v>
       </c>
       <c r="R63" s="96">
-        <f>DATASETFQ!K34</f>
+        <f>DATASETFQ!L34</f>
         <v>0.7954</v>
       </c>
       <c r="S63" s="96">
-        <f>DATASETFQ!K31</f>
+        <f>DATASETFQ!L31</f>
         <v>0.78849999999999998</v>
       </c>
       <c r="T63" s="96">
-        <f>DATASETFQ!L34</f>
+        <f>DATASETFQ!M34</f>
         <v>0.59470000000000001</v>
       </c>
       <c r="U63" s="96">
-        <f>DATASETFQ!L31</f>
+        <f>DATASETFQ!M31</f>
         <v>0.67730000000000001</v>
       </c>
       <c r="V63" s="96">
-        <f>DATASETFQ!M34</f>
+        <f>DATASETFQ!N34</f>
         <v>0.59799999999999998</v>
       </c>
       <c r="W63" s="96">
-        <f>DATASETFQ!M31</f>
+        <f>DATASETFQ!N31</f>
         <v>0.45760000000000001</v>
       </c>
       <c r="X63" s="96">
-        <f>DATASETFQ!N31</f>
+        <f>DATASETFQ!O31</f>
         <v>4.7939999999999996</v>
       </c>
       <c r="Y63" s="96">
-        <f>DATASETFQ!N34</f>
+        <f>DATASETFQ!O34</f>
         <v>4.6154999999999999</v>
       </c>
       <c r="Z63" s="96">
-        <f>DATASETFQ!O31</f>
+        <f>DATASETFQ!P31</f>
         <v>1.3775999999999999</v>
       </c>
       <c r="AA63" s="96">
-        <f>DATASETFQ!O34</f>
+        <f>DATASETFQ!P34</f>
         <v>1.3369</v>
       </c>
       <c r="AB63" s="96">
-        <f>DATASETFQ!P31</f>
+        <f>DATASETFQ!Q31</f>
         <v>62.449300000000001</v>
       </c>
       <c r="AC63" s="96">
-        <f>DATASETFQ!P34</f>
+        <f>DATASETFQ!Q34</f>
         <v>57.914400000000001</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A64" s="127"/>
+      <c r="A64" s="130"/>
       <c r="B64" s="97">
-        <f>DATASETFQ!C35</f>
+        <f>DATASETFQ!D35</f>
         <v>59</v>
       </c>
       <c r="C64" s="97">
-        <f>DATASETFQ!C32</f>
+        <f>DATASETFQ!D32</f>
         <v>62</v>
       </c>
       <c r="D64" s="97">
-        <f>DATASETFQ!D35</f>
+        <f>DATASETFQ!E35</f>
         <v>4.5</v>
       </c>
       <c r="E64" s="97">
-        <f>DATASETFQ!D32</f>
+        <f>DATASETFQ!E32</f>
         <v>4.12</v>
       </c>
       <c r="F64" s="97">
-        <f>DATASETFQ!E35</f>
+        <f>DATASETFQ!F35</f>
         <v>73.245499999999993</v>
       </c>
       <c r="G64" s="97">
-        <f>DATASETFQ!E32</f>
+        <f>DATASETFQ!F32</f>
         <v>77.005599999999987</v>
       </c>
       <c r="H64" s="97">
-        <f>DATASETFQ!F35</f>
+        <f>DATASETFQ!G35</f>
         <v>29.2</v>
       </c>
       <c r="I64" s="97">
-        <f>DATASETFQ!F32</f>
+        <f>DATASETFQ!G32</f>
         <v>29.1</v>
       </c>
       <c r="J64" s="97">
-        <f>DATASETFQ!G35</f>
+        <f>DATASETFQ!H35</f>
         <v>8.92</v>
       </c>
       <c r="K64" s="97">
-        <f>DATASETFQ!G32</f>
+        <f>DATASETFQ!H32</f>
         <v>8.85</v>
       </c>
       <c r="L64" s="101">
-        <f>DATASETFQ!H35</f>
+        <f>DATASETFQ!I35</f>
         <v>361</v>
       </c>
       <c r="M64" s="101">
-        <f>DATASETFQ!H32</f>
+        <f>DATASETFQ!I32</f>
         <v>360</v>
       </c>
       <c r="N64" s="97">
-        <f>DATASETFQ!I35</f>
+        <f>DATASETFQ!J35</f>
         <v>3.91</v>
       </c>
       <c r="O64" s="97">
-        <f>DATASETFQ!I32</f>
+        <f>DATASETFQ!J32</f>
         <v>3.53</v>
       </c>
       <c r="P64" s="27">
-        <f>DATASETFQ!J35</f>
+        <f>DATASETFQ!K35</f>
         <v>0.26</v>
       </c>
       <c r="Q64" s="27">
-        <f>DATASETFQ!J32</f>
+        <f>DATASETFQ!K32</f>
         <v>0.246</v>
       </c>
       <c r="R64" s="96">
-        <f>DATASETFQ!K35</f>
+        <f>DATASETFQ!L35</f>
         <v>0.78139999999999998</v>
       </c>
       <c r="S64" s="96">
-        <f>DATASETFQ!K32</f>
+        <f>DATASETFQ!L32</f>
         <v>0.76400000000000001</v>
       </c>
       <c r="T64" s="96">
-        <f>DATASETFQ!L35</f>
+        <f>DATASETFQ!M35</f>
         <v>0.76149999999999995</v>
       </c>
       <c r="U64" s="96">
-        <f>DATASETFQ!L32</f>
+        <f>DATASETFQ!M32</f>
         <v>0.79310000000000003</v>
       </c>
       <c r="V64" s="96">
-        <f>DATASETFQ!M35</f>
+        <f>DATASETFQ!N35</f>
         <v>0.56989999999999996</v>
       </c>
       <c r="W64" s="96">
-        <f>DATASETFQ!M32</f>
+        <f>DATASETFQ!N32</f>
         <v>0.62749999999999995</v>
       </c>
       <c r="X64" s="96">
-        <f>DATASETFQ!N32</f>
+        <f>DATASETFQ!O32</f>
         <v>4.1638000000000002</v>
       </c>
       <c r="Y64" s="96">
-        <f>DATASETFQ!N35</f>
+        <f>DATASETFQ!O35</f>
         <v>4.3737000000000004</v>
       </c>
       <c r="Z64" s="96">
-        <f>DATASETFQ!O32</f>
+        <f>DATASETFQ!P32</f>
         <v>1.1994</v>
       </c>
       <c r="AA64" s="96">
-        <f>DATASETFQ!O35</f>
+        <f>DATASETFQ!P35</f>
         <v>1.1738</v>
       </c>
       <c r="AB64" s="96">
-        <f>DATASETFQ!P32</f>
+        <f>DATASETFQ!Q32</f>
         <v>61.288899999999998</v>
       </c>
       <c r="AC64" s="96">
-        <f>DATASETFQ!P35</f>
+        <f>DATASETFQ!Q35</f>
         <v>50.448099999999997</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A65" s="127"/>
+      <c r="A65" s="130"/>
       <c r="B65" s="97">
-        <f>DATASETFQ!C36</f>
+        <f>DATASETFQ!D36</f>
         <v>49</v>
       </c>
       <c r="C65" s="97">
-        <f>DATASETFQ!C33</f>
+        <f>DATASETFQ!D33</f>
         <v>58</v>
       </c>
       <c r="D65" s="97">
-        <f>DATASETFQ!D36</f>
+        <f>DATASETFQ!E36</f>
         <v>4.26</v>
       </c>
       <c r="E65" s="97">
-        <f>DATASETFQ!D33</f>
+        <f>DATASETFQ!E33</f>
         <v>5.78</v>
       </c>
       <c r="F65" s="97">
-        <f>DATASETFQ!E36</f>
+        <f>DATASETFQ!F36</f>
         <v>77.005599999999987</v>
       </c>
       <c r="G65" s="97">
-        <f>DATASETFQ!E33</f>
+        <f>DATASETFQ!F33</f>
         <v>77.005599999999987</v>
       </c>
       <c r="H65" s="97">
-        <f>DATASETFQ!F36</f>
+        <f>DATASETFQ!G36</f>
         <v>28.8</v>
       </c>
       <c r="I65" s="97">
-        <f>DATASETFQ!F33</f>
+        <f>DATASETFQ!G33</f>
         <v>28.5</v>
       </c>
       <c r="J65" s="97">
-        <f>DATASETFQ!G36</f>
+        <f>DATASETFQ!H36</f>
         <v>8.91</v>
       </c>
       <c r="K65" s="97">
-        <f>DATASETFQ!G33</f>
+        <f>DATASETFQ!H33</f>
         <v>8.8699999999999992</v>
       </c>
       <c r="L65" s="101">
-        <f>DATASETFQ!H36</f>
+        <f>DATASETFQ!I36</f>
         <v>370</v>
       </c>
       <c r="M65" s="101">
-        <f>DATASETFQ!H33</f>
+        <f>DATASETFQ!I33</f>
         <v>359</v>
       </c>
       <c r="N65" s="97">
-        <f>DATASETFQ!I36</f>
+        <f>DATASETFQ!J36</f>
         <v>3.8</v>
       </c>
       <c r="O65" s="97">
-        <f>DATASETFQ!I33</f>
+        <f>DATASETFQ!J33</f>
         <v>3.7</v>
       </c>
       <c r="P65" s="27">
-        <f>DATASETFQ!J36</f>
+        <f>DATASETFQ!K36</f>
         <v>0.26499999999999996</v>
       </c>
       <c r="Q65" s="27">
-        <f>DATASETFQ!J33</f>
+        <f>DATASETFQ!K33</f>
         <v>0.245</v>
       </c>
       <c r="R65" s="96">
-        <f>DATASETFQ!K36</f>
+        <f>DATASETFQ!L36</f>
         <v>0.79949999999999999</v>
       </c>
       <c r="S65" s="96">
-        <f>DATASETFQ!K33</f>
+        <f>DATASETFQ!L33</f>
         <v>0.79159999999999997</v>
       </c>
       <c r="T65" s="96">
-        <f>DATASETFQ!L36</f>
+        <f>DATASETFQ!M36</f>
         <v>0.28149999999999997</v>
       </c>
       <c r="U65" s="96">
-        <f>DATASETFQ!L33</f>
+        <f>DATASETFQ!M33</f>
         <v>0.68759999999999999</v>
       </c>
       <c r="V65" s="96">
-        <f>DATASETFQ!M36</f>
+        <f>DATASETFQ!N36</f>
         <v>0.43259999999999998</v>
       </c>
       <c r="W65" s="96">
-        <f>DATASETFQ!M33</f>
+        <f>DATASETFQ!N33</f>
         <v>0.35289999999999999</v>
       </c>
       <c r="X65" s="96">
-        <f>DATASETFQ!N33</f>
+        <f>DATASETFQ!O33</f>
         <v>4.8193000000000001</v>
       </c>
       <c r="Y65" s="96">
-        <f>DATASETFQ!N36</f>
+        <f>DATASETFQ!O36</f>
         <v>4.7030000000000003</v>
       </c>
       <c r="Z65" s="96">
-        <f>DATASETFQ!O33</f>
+        <f>DATASETFQ!P33</f>
         <v>1.3369</v>
       </c>
       <c r="AA65" s="96">
-        <f>DATASETFQ!O36</f>
+        <f>DATASETFQ!P36</f>
         <v>1.3601000000000001</v>
       </c>
       <c r="AB65" s="96">
-        <f>DATASETFQ!P33</f>
+        <f>DATASETFQ!Q33</f>
         <v>66.957599999999999</v>
       </c>
       <c r="AC65" s="96">
-        <f>DATASETFQ!P36</f>
+        <f>DATASETFQ!Q36</f>
         <v>52.900199999999998</v>
       </c>
     </row>
@@ -41674,350 +41835,350 @@
       <c r="AC77" s="98"/>
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A78" s="128" t="str">
+      <c r="A78" s="129" t="str">
         <f>FQ!AM3</f>
         <v>720 hours after application (18/11/2019)</v>
       </c>
       <c r="B78" s="97">
-        <f>DATASETFQ!C41</f>
+        <f>DATASETFQ!D41</f>
         <v>51</v>
       </c>
       <c r="C78" s="97">
-        <f>DATASETFQ!C38</f>
+        <f>DATASETFQ!D38</f>
         <v>61</v>
       </c>
       <c r="D78" s="97">
-        <f>DATASETFQ!D41</f>
+        <f>DATASETFQ!E41</f>
         <v>7.27</v>
       </c>
       <c r="E78" s="97">
-        <f>DATASETFQ!D38</f>
+        <f>DATASETFQ!E38</f>
         <v>6.06</v>
       </c>
       <c r="F78" s="97">
-        <f>DATASETFQ!E41</f>
+        <f>DATASETFQ!F41</f>
         <v>77.005599999999987</v>
       </c>
       <c r="G78" s="97">
-        <f>DATASETFQ!E38</f>
+        <f>DATASETFQ!F38</f>
         <v>73.245499999999993</v>
       </c>
       <c r="H78" s="97">
-        <f>DATASETFQ!F41</f>
+        <f>DATASETFQ!G41</f>
         <v>29</v>
       </c>
       <c r="I78" s="97">
-        <f>DATASETFQ!F38</f>
+        <f>DATASETFQ!G38</f>
         <v>30.2</v>
       </c>
       <c r="J78" s="97">
-        <f>DATASETFQ!G41</f>
+        <f>DATASETFQ!H41</f>
         <v>8.82</v>
       </c>
       <c r="K78" s="97">
-        <f>DATASETFQ!G38</f>
+        <f>DATASETFQ!H38</f>
         <v>8.7200000000000006</v>
       </c>
       <c r="L78" s="97">
-        <f>DATASETFQ!H41</f>
+        <f>DATASETFQ!I41</f>
         <v>365</v>
       </c>
       <c r="M78" s="97">
-        <f>DATASETFQ!H38</f>
+        <f>DATASETFQ!I38</f>
         <v>362</v>
       </c>
       <c r="N78" s="97">
-        <f>DATASETFQ!I41</f>
+        <f>DATASETFQ!J41</f>
         <v>6.3</v>
       </c>
       <c r="O78" s="97">
-        <f>DATASETFQ!I38</f>
+        <f>DATASETFQ!J38</f>
         <v>3.54</v>
       </c>
       <c r="P78" s="27">
-        <f>DATASETFQ!J41</f>
+        <f>DATASETFQ!K41</f>
         <v>0.26100000000000001</v>
       </c>
       <c r="Q78" s="27">
-        <f>DATASETFQ!J38</f>
+        <f>DATASETFQ!K38</f>
         <v>0.251</v>
       </c>
       <c r="R78" s="87">
-        <f>DATASETFQ!K41</f>
+        <f>DATASETFQ!L41</f>
         <v>0.77569999999999995</v>
       </c>
       <c r="S78" s="87">
-        <f>DATASETFQ!K38</f>
+        <f>DATASETFQ!L38</f>
         <v>0.80589999999999995</v>
       </c>
       <c r="T78" s="96">
-        <f>DATASETFQ!L41</f>
+        <f>DATASETFQ!M41</f>
         <v>0.84140000000000004</v>
       </c>
       <c r="U78" s="96">
-        <f>DATASETFQ!L38</f>
+        <f>DATASETFQ!M38</f>
         <v>0.79830000000000001</v>
       </c>
       <c r="V78" s="96">
-        <f>DATASETFQ!M41</f>
+        <f>DATASETFQ!N41</f>
         <v>0.49640000000000001</v>
       </c>
       <c r="W78" s="96">
-        <f>DATASETFQ!M38</f>
+        <f>DATASETFQ!N38</f>
         <v>0.30930000000000002</v>
       </c>
       <c r="X78" s="96">
-        <f>DATASETFQ!N41</f>
+        <f>DATASETFQ!O41</f>
         <v>5.3734000000000002</v>
       </c>
       <c r="Y78" s="96">
-        <f>DATASETFQ!N38</f>
+        <f>DATASETFQ!O38</f>
         <v>4.6219000000000001</v>
       </c>
       <c r="Z78" s="96">
-        <f>DATASETFQ!O41</f>
+        <f>DATASETFQ!P41</f>
         <v>1.5755999999999999</v>
       </c>
       <c r="AA78" s="96">
-        <f>DATASETFQ!O38</f>
+        <f>DATASETFQ!P38</f>
         <v>1.3446</v>
       </c>
       <c r="AB78" s="96">
-        <f>DATASETFQ!P41</f>
+        <f>DATASETFQ!Q41</f>
         <v>76.540999999999997</v>
       </c>
       <c r="AC78" s="96">
-        <f>DATASETFQ!P38</f>
+        <f>DATASETFQ!Q38</f>
         <v>64.452299999999994</v>
       </c>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A79" s="128"/>
+      <c r="A79" s="129"/>
       <c r="B79" s="97">
-        <f>DATASETFQ!C42</f>
+        <f>DATASETFQ!D42</f>
         <v>55</v>
       </c>
       <c r="C79" s="97">
-        <f>DATASETFQ!C39</f>
+        <f>DATASETFQ!D39</f>
         <v>59</v>
       </c>
       <c r="D79" s="97">
-        <f>DATASETFQ!D42</f>
+        <f>DATASETFQ!E42</f>
         <v>5.17</v>
       </c>
       <c r="E79" s="97">
-        <f>DATASETFQ!D39</f>
+        <f>DATASETFQ!E39</f>
         <v>5.35</v>
       </c>
       <c r="F79" s="97">
-        <f>DATASETFQ!E42</f>
+        <f>DATASETFQ!F42</f>
         <v>88.28589999999997</v>
       </c>
       <c r="G79" s="97">
-        <f>DATASETFQ!E39</f>
+        <f>DATASETFQ!F39</f>
         <v>88.28589999999997</v>
       </c>
       <c r="H79" s="97">
-        <f>DATASETFQ!F42</f>
+        <f>DATASETFQ!G42</f>
         <v>29.6</v>
       </c>
       <c r="I79" s="97">
-        <f>DATASETFQ!F39</f>
+        <f>DATASETFQ!G39</f>
         <v>29.2</v>
       </c>
       <c r="J79" s="97">
-        <f>DATASETFQ!G42</f>
+        <f>DATASETFQ!H42</f>
         <v>8.8000000000000007</v>
       </c>
       <c r="K79" s="97">
-        <f>DATASETFQ!G39</f>
+        <f>DATASETFQ!H39</f>
         <v>8.9</v>
       </c>
       <c r="L79" s="97">
-        <f>DATASETFQ!H42</f>
+        <f>DATASETFQ!I42</f>
         <v>366</v>
       </c>
       <c r="M79" s="97">
-        <f>DATASETFQ!H39</f>
+        <f>DATASETFQ!I39</f>
         <v>364</v>
       </c>
       <c r="N79" s="97">
-        <f>DATASETFQ!I42</f>
+        <f>DATASETFQ!J42</f>
         <v>4.7300000000000004</v>
       </c>
       <c r="O79" s="97">
-        <f>DATASETFQ!I39</f>
+        <f>DATASETFQ!J39</f>
         <v>4.03</v>
       </c>
       <c r="P79" s="27">
-        <f>DATASETFQ!J42</f>
+        <f>DATASETFQ!K42</f>
         <v>0.25900000000000001</v>
       </c>
       <c r="Q79" s="27">
-        <f>DATASETFQ!J39</f>
+        <f>DATASETFQ!K39</f>
         <v>0.26</v>
       </c>
       <c r="R79" s="87">
-        <f>DATASETFQ!K42</f>
+        <f>DATASETFQ!L42</f>
         <v>0.99839999999999995</v>
       </c>
       <c r="S79" s="87">
-        <f>DATASETFQ!K39</f>
-        <v>0.78339999999999999</v>
-      </c>
-      <c r="T79" s="96">
-        <f>DATASETFQ!L42</f>
-        <v>0.76470000000000005</v>
-      </c>
-      <c r="U79" s="96">
         <f>DATASETFQ!L39</f>
         <v>0.78339999999999999</v>
       </c>
+      <c r="T79" s="96">
+        <f>DATASETFQ!M42</f>
+        <v>0.76470000000000005</v>
+      </c>
+      <c r="U79" s="96">
+        <f>DATASETFQ!M39</f>
+        <v>0.78339999999999999</v>
+      </c>
       <c r="V79" s="96">
-        <f>DATASETFQ!M42</f>
+        <f>DATASETFQ!N42</f>
         <v>0.51180000000000003</v>
       </c>
       <c r="W79" s="96">
-        <f>DATASETFQ!M39</f>
+        <f>DATASETFQ!N39</f>
         <v>0.44359999999999999</v>
       </c>
       <c r="X79" s="96">
-        <f>DATASETFQ!N42</f>
+        <f>DATASETFQ!O42</f>
         <v>4.3349000000000002</v>
       </c>
       <c r="Y79" s="96">
-        <f>DATASETFQ!N39</f>
+        <f>DATASETFQ!O39</f>
         <v>5.7550999999999997</v>
       </c>
       <c r="Z79" s="96">
-        <f>DATASETFQ!O42</f>
+        <f>DATASETFQ!P42</f>
         <v>1.4623999999999999</v>
       </c>
       <c r="AA79" s="96">
-        <f>DATASETFQ!O39</f>
+        <f>DATASETFQ!P39</f>
         <v>0.55789999999999995</v>
       </c>
       <c r="AB79" s="96">
-        <f>DATASETFQ!P42</f>
+        <f>DATASETFQ!Q42</f>
         <v>64.367900000000006</v>
       </c>
       <c r="AC79" s="96">
-        <f>DATASETFQ!P39</f>
+        <f>DATASETFQ!Q39</f>
         <v>64.231399999999994</v>
       </c>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A80" s="128"/>
+      <c r="A80" s="129"/>
       <c r="B80" s="97">
-        <f>DATASETFQ!C43</f>
+        <f>DATASETFQ!D43</f>
         <v>36.5</v>
       </c>
       <c r="C80" s="97">
-        <f>DATASETFQ!C40</f>
+        <f>DATASETFQ!D40</f>
         <v>52.5</v>
       </c>
       <c r="D80" s="97">
-        <f>DATASETFQ!D43</f>
+        <f>DATASETFQ!E43</f>
         <v>10.1</v>
       </c>
       <c r="E80" s="97">
-        <f>DATASETFQ!D40</f>
+        <f>DATASETFQ!E40</f>
         <v>6.51</v>
       </c>
       <c r="F80" s="97">
-        <f>DATASETFQ!E43</f>
+        <f>DATASETFQ!F43</f>
         <v>77.005599999999987</v>
       </c>
       <c r="G80" s="97">
-        <f>DATASETFQ!E40</f>
+        <f>DATASETFQ!F40</f>
         <v>69.485399999999998</v>
       </c>
       <c r="H80" s="97">
-        <f>DATASETFQ!F43</f>
+        <f>DATASETFQ!G43</f>
         <v>28.9</v>
       </c>
       <c r="I80" s="97">
-        <f>DATASETFQ!F40</f>
+        <f>DATASETFQ!G40</f>
         <v>29</v>
       </c>
       <c r="J80" s="97">
-        <f>DATASETFQ!G43</f>
+        <f>DATASETFQ!H43</f>
         <v>9.3000000000000007</v>
       </c>
       <c r="K80" s="97">
-        <f>DATASETFQ!G40</f>
+        <f>DATASETFQ!H40</f>
         <v>9.02</v>
       </c>
       <c r="L80" s="97">
-        <f>DATASETFQ!H43</f>
+        <f>DATASETFQ!I43</f>
         <v>437</v>
       </c>
       <c r="M80" s="97">
-        <f>DATASETFQ!H40</f>
+        <f>DATASETFQ!I40</f>
         <v>363</v>
       </c>
       <c r="N80" s="97">
-        <f>DATASETFQ!I43</f>
+        <f>DATASETFQ!J43</f>
         <v>4.2</v>
       </c>
       <c r="O80" s="97">
-        <f>DATASETFQ!I40</f>
+        <f>DATASETFQ!J40</f>
         <v>3.64</v>
       </c>
       <c r="P80" s="27">
-        <f>DATASETFQ!J43</f>
+        <f>DATASETFQ!K43</f>
         <v>0.26200000000000001</v>
       </c>
       <c r="Q80" s="27">
-        <f>DATASETFQ!J40</f>
+        <f>DATASETFQ!K40</f>
         <v>0.24199999999999999</v>
       </c>
       <c r="R80" s="87">
-        <f>DATASETFQ!K43</f>
+        <f>DATASETFQ!L43</f>
         <v>0.8377</v>
       </c>
       <c r="S80" s="87">
-        <f>DATASETFQ!K40</f>
+        <f>DATASETFQ!L40</f>
         <v>0.80130000000000001</v>
       </c>
       <c r="T80" s="96">
-        <f>DATASETFQ!L43</f>
+        <f>DATASETFQ!M43</f>
         <v>0.98519999999999996</v>
       </c>
       <c r="U80" s="96">
-        <f>DATASETFQ!L40</f>
+        <f>DATASETFQ!M40</f>
         <v>1.6014999999999999</v>
       </c>
       <c r="V80" s="96">
-        <f>DATASETFQ!M43</f>
+        <f>DATASETFQ!N43</f>
         <v>0.40589999999999998</v>
       </c>
       <c r="W80" s="96">
-        <f>DATASETFQ!M40</f>
+        <f>DATASETFQ!N40</f>
         <v>0.57030000000000003</v>
       </c>
       <c r="X80" s="96">
-        <f>DATASETFQ!N43</f>
+        <f>DATASETFQ!O43</f>
         <v>5.0883000000000003</v>
       </c>
       <c r="Y80" s="96">
-        <f>DATASETFQ!N40</f>
+        <f>DATASETFQ!O40</f>
         <v>4.3563999999999998</v>
       </c>
       <c r="Z80" s="96">
-        <f>DATASETFQ!O43</f>
+        <f>DATASETFQ!P43</f>
         <v>1.4414</v>
       </c>
       <c r="AA80" s="96">
-        <f>DATASETFQ!O40</f>
+        <f>DATASETFQ!P40</f>
         <v>1.3051999999999999</v>
       </c>
       <c r="AB80" s="96">
-        <f>DATASETFQ!P43</f>
+        <f>DATASETFQ!Q43</f>
         <v>72.276200000000003</v>
       </c>
       <c r="AC80" s="96">
-        <f>DATASETFQ!P40</f>
+        <f>DATASETFQ!Q40</f>
         <v>69.578299999999999</v>
       </c>
     </row>
@@ -42467,6 +42628,15 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="A78:A80"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A48:A50"/>
     <mergeCell ref="Z1:AA1"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AD1:AE1"/>
@@ -42479,15 +42649,6 @@
     <mergeCell ref="T1:U1"/>
     <mergeCell ref="V1:W1"/>
     <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A78:A80"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A48:A50"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
